--- a/ClusteringEvaluation/超级高铁首测/簇新闻内容.xlsx
+++ b/ClusteringEvaluation/超级高铁首测/簇新闻内容.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>更多精彩视频扫描 关注麻辣烩微信号 比飞机更快！超级高铁首测成功 时速接近音速 ld://live.cqnews.net/vod/data/video/201605/12/fe68e29b-b562-4d92-a95f-2edaa31d9d77/transcode_873c2bd8-d333-1377-b689-01c37cd0.mp4 比飞机更快！超级高铁首测成功 时速接近音速11 分享: 新浪微博 腾讯微博 微信 QQ空间 QQ好友 来源： 第一财经         发布时间： 2016-05-12 简介： 比飞机更快！超级高铁首测成功 时速接近音速 编辑： 邓旻璐 超级高铁 测试 时速 发言请遵守新闻跟帖服务协议 36900316 热点 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 巾帼英雄！90后女生骑电瓶车带警察抓贼 男子冒充上尉骗财骗色 被骗女痴心不改求见面 娱体 angelababy被炮轰没脑子 反对帮小动物结扎 深扒《欢乐颂》众小主荧屏初吻 王凯王子文甜炸羞羞不敢看！ 高圆圆录《蜜蜂少女队》被感动 数度哽咽落泪惹人心疼 军事 兰州舰完成东盟联演 赴西太平洋开展远海训练 中国海军战机夜间训练中坠毁 无人员伤亡 俄研发全球最大洲际导弹 俄媒称可夷平美国德州 更多视频 雷洋案目击者：霍营派出所出警到达时 被控制人已瘫软无法登车 05-12 14:58:00 央视揭药品鬼市黑幕 为什么很多救命药都是假药？ 05-12 14:58:00 乱！男子约男同一夜情 让自己男友进行捉奸敲诈另一男子 05-12 14:57:00 无耻！体育老师骚扰女生 一边摸胸一边指导 05-12 14:49:36 中国第一金库曝光 3万多保险箱24间库房 05-12 14:48:00 北体校花朝天蹬一字马走红 蜂腰翘臀身材火辣 05-12 14:48:00 惊悚！女租客与尸体同住20天 发现时已腐烂 05-12 14:42:57 胆儿肥！美潜水员抚摸鲨鱼 水中似同鲨鱼嬉戏 05-12 14:33:00 人大硕士雷洋之死：值勤民警受访 还原雷洋被抓现场经过 05-12 13:47:00 中国好校长！校长请同学吃必胜客 寓意中考必胜 05-12 12:13:00 冰球场上的追梦女孩 冰球场上的追梦女孩 公交车司机的故事 公交车司机的“风骚”演技 环卫妈妈的假期 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 母亲的良苦用心 “恶毒”的母亲如此对待儿子，居然还是亲妈？ 医保卡可购买健身服务 7月后市民持医保卡 有望购买体育健身服务  市新低保条例五月施行 重庆新低保条例五月起施行 农村按月发放</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -40,6 +40,110 @@
   </si>
   <si>
     <t>来自世界各国的政府官员、投资者、记者和HyperloopOne的员工参加了这次测试。SpaceX和特斯拉首席执行官伊隆・马斯克（Elon Musk）于2013年首先提出了超级高铁（hyperloop）的概念，超级高铁列车能在低压管道内以760英里时速行驶。马斯克对外公布了超级高铁的基本技术计划，并邀请其他厂商开发相关技HyperloopOneHyperloopTransportationTechnologies（以下简称“HTT”）是首批开发超级高铁技术的两家公司。</t>
+  </si>
+  <si>
+    <t>5月12日，据国外媒体报道，美国超级高铁首测。据悉，超级高铁初创公司HyperloopOne于当地时间周三在内华达沙漠公开演示了其推进系统原型，来自世界各国的政府官员、投资者、记者和HyperloopOne的员工参加了这次测试。在此次露天测试中，推进装置仅花1.1秒就从0加速到60英里（约97公里），最高时速达到116英里（187公里）。</t>
+  </si>
+  <si>
+    <t>5月12日消息，本周三美国超级高铁首测，巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。这次测试仅持续了两秒。 　　高铁速度美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合643.7公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，这次测试仅持续了两秒。　</t>
+  </si>
+  <si>
+    <t>《财富》网络版报道，在北拉斯维加斯进行的公开试验中，超级高铁Hyperloop One的推进系统成功地在轨道上把一辆滑车加速到116英里(187公里)的时速，然后撞到了一个沙堆上。对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟，未来超级高铁最高时速将达750英里(约合1200公里) 　　测试过程动图 　　超级高铁是由SpaceX和特斯拉首席执行官埃隆·马斯克(Elon Musk)2013年首先提出的，列车能在低压管道内以760英里时速行驶。马斯克对外公布了其超级高铁的基本技术计划，并邀请其他厂商开发相关技术，Hyperloop One和Hyperloop Transportation Technologies(以下简称“HTT”)是首批开发超级高铁技术的两家公司。 　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。” 　　在当地时间周三的试验中，一辆滑车沿着轨道行驶了1000米，旨在演示超级高铁技术的发展。未来试验的重点将是磁悬浮和管道设计。Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 　　HTT当地时间周一宣布，它将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 　　Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。</t>
+  </si>
+  <si>
+    <t>此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德（Rob Lloyd） 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘(Brogan BamBrogan)透露。</t>
+  </si>
+  <si>
+    <t>1.超级高铁首测 速度可达1125km/h 昨日，马斯克的另一项疯狂计划——时速接近音速的超级高铁首测，马斯克旗下的超级高铁公司Hyperloop One成功在北拉斯维加斯初步演示了超级高铁系统，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时，约合640公里/小时，撞击到91米外的沙堆减速停车。 超级高铁首测成功！这个速度已经接近音速了，而且在完善之后未来速度将赶超飞机，以后出行高铁要比飞机更快...想一想就很逆天啊!科技的力量太可怕了。 视频地址：http://v.tech.163.com/video/2016/5/A/V/VBLTN9OAV.html 2.百度/美团/饿了么争夺“外卖一哥”地位 从帽子就可以看出? O2O的兴起让外卖成为了最火热的香饽饽，目前中国争夺外卖市场主要有百度、美团和饿了么，而网络上对于这三家外卖到底谁才是“一哥”的问题也是争论不休，各有分说，但是你知道在送餐员的群体中他们是怎么认为的吗? 据记者调查了解，在送餐员看来，这个问题其实已经早有分晓，一名美团外卖的送餐员称：“谁好谁坏从帽子上就能分出高低。我们戴的是摩托车头盔，百度戴的是滑旱冰的头盔，饿了么戴的是鸭舌帽。” 感情说，帽子也能看出高低咯?不过这个也确实有那么点道理，从安全性和专业性角度来说，帽子还真可以看出一点东西出来，对此，你认同吗? 3.网易公布2016第一财季业绩 净利润24.6亿元同比增长95% 今日，网易公司公布了公司截止到2016年3月31日的第一季度未经审计财务业绩，根据公布的数据显示，网易在2016年第一季度净收入79.15亿元人民币(12.28亿美元)，同比增长116.3%;净利润24.61亿元人民币(3.82亿美元)，同比增长94.6%。 在国内各大互联网公司中，网易还是相当不错的。 4.分析师爆料 5.5英寸的iPhone7 Plus将全面采用双摄像头 一直以来跟进苹果销量分析情况的分析师郭明錤经常爆料苹果最新产品的信息，基本上都是精准消息，近日他又爆料称苹果公司下一代5.5英寸iPhone 7 Plus的全系列产品都将配备双背面摄像头，值得一说的是，在此前他曾认为iPhone的高配机型才会采用这种新的摄像头技术。 双摄像头将成为高端智能手机的一种必备功能，对此分析师郭明錤这样认为，此外他还提到同样是双摄头的华为P9市场反应好于预期，据此他预计2016年这种机型的出货量可能将达1000万部。 5.来自供应商的iPhone 7/7 Plus设计图泄露 之前猜的都对 和上面分析师的预测不一样的是，国外爆料大神OnLeaks给出的爆料显然更加值得可信，近日他又给出了iPhone 7、iPhone 7 Plus的工程设计图，据悉这是来自于大名鼎鼎的手机机身供应商台湾可成科技。 从这个设计图上可以看出如下特性： ·3.5毫米耳机接口真的没了，两个版本都没有——乐视可以放心了。 ·背部天线条位置挪到了顶部和底部边缘——魅族你赢了。 ·底部只有单侧扬声器开孔，立体扬声器似乎真的没戏了。 ·iPhone 7单后置摄像头，iPhone 7 Plus双后置摄像头(据说仅此一个版本)，依然突出，但是镜头周边没有了金属环。 ·iPhone 7 Plus还拥有Smart Connector智能接口。 之前的猜测基本都是对的，唯一要吐槽的是，看起来外观设计还是没有什么大的变化。 6.诸事不顺别在赖“水逆”了 天文学家表示那是你“眼睛瞎了” 不知道什么时候开始，流行这样一种说法，往往诸事不顺的时候，一些星座爱好者就会认为是“水逆(水星逆行)”的原因，而最近有天文学家反驳了这个观点。 据悉，在2016年，所谓的“水星逆行”现象将会出现四次，持续总时长约80天，在占星术中，“水星逆行”往往意味着诸事不顺，占星师通常会建议人们在水星逆行期间尽量避免启动任何新的项目，应该去反思和回顾过去的决定并重新评估。 对此天文学家表示：“水星逆行并不是水星实际运行方向的变化，只是一种视觉错觉，因此并不会对人们的日常生活有任何影响。” 小编觉得我们遇到不顺的事情不能老是赖水逆，要静下心来好好想一想怎么赖别人。 7.I/O大会即将到来 谷歌打算推出一个AndroidVR头盔 谷歌下周将要召开I/O大会，目前得知的一个挺意外的消息是，谷歌打算发布一款运行Android系统的VR头套，尽管它的性能要比HTC Vive或者Oculus Rift要弱一些，但是它便宜啊，而且并不需要配备手机，它是一个独立的Android VR头套。 VR已经是未来的主流了，很期待VR游戏成熟的那一天，以前小说中那种头盔式网游要实现了。</t>
+  </si>
+  <si>
+    <t>提到马斯克，你能想到什么？ 特斯拉？ Spacex？ PayPal？ 马斯克能拿得出手的东西实在太多了。 伊隆马斯克作为SpaceX、特斯拉汽车及PayPal三家公司的创始人，他已经远远地将世界甩在了身后。做出全世界最好的电动汽车，通过私人公司将火箭送上天，经营世界上最大的支付公司，以上这些都还不够。 他的另一项疯狂计划——“超级高铁”于美国时间5月11日在美国内华达州沙漠地区进行首次公开演示。这场测试大概持续了4秒钟。全程全直线设计，测试长度约为5公里，从静止到640公里每小时加速只用了2秒。这位传奇的“钢铁侠”又一次向世人证明了他的伟大，超级高铁并非白日梦。 马斯克的超级高铁用了什么技术？ 超级高铁这套系统是马斯克在2013年首次提出的，方法是让乘客进入压力管道中，以近乎音速的时速运行。他提出这一设想并将他的研究成果公开，以便更多的人也能参与推进这个概念。Hyperloop Technologies就是开发超级高铁项目的公司之一。 世界上首条出现的高速铁路是日本的新干线，于1964年正式营运。日系新干线列车由川崎重工建造，行驶在东京－名古屋－京都－大阪的东海道新干线，营运速度超过每小时200公里。 新干线的速度优势不久之后就被法国的TGV超过，1972年的试验运行中，TGV创造了当时的318公里的高速轮轨时速。 德国的ICE则是目前高速铁路中起步最晚的项目。ICE的研究开始于1979年，其内部制造原理和制式与法国TGV有很大相似之处，目前的最高时速是1988年创下的409公里。ICE起步较晚和进展比较落后的一个重要原因是德国人在高速轮轨和磁悬浮的两线作战。 中国高铁在近十年的时间里，运营总里程超过15000公里，“四纵”干线基本成型。中国高速铁路运营里程约占世界高铁运营里程的50%，稳居世界高铁里程榜首。 1971年世界首条磁悬浮高铁面世，但由于成本高昂和系统复杂，直到2004年才在中国上海出现首个商业运行的高速磁悬浮线路。这条长19英里（30公里）的磁悬浮线路每英里成本高达6300万美元。 “超级高铁”是一种远距离运输方式，可以让人以时速1200公里的速度旅行。实质上，它就是排出空气形成真空空间的长管道，它悬浮于地面之上，以便减小天气和地震对其影响。乘客可以选择单人舱或多人舱，然后在磁力作用下加速。可乘坐6到8人的车厢每隔30秒钟发车，车票大约为20美元。 超级高铁使用了磁悬浮技术，通过磁力悬空之后便可实现更快的速度。最近Hyperloop公布了名为“被动磁悬浮”技术的原型，表示新技术要比目前在欧洲和中国等地区使用的传统磁悬浮技术更便宜、更安全。 被动磁悬浮技术是由物理学家Richard Post在2000年提出的，这项技术使用了无动力循环跟踪系统，相比之下，传统的磁悬浮技术无论在复杂程度还是基础设施的造价上，都要更昂贵。但超级高铁也要面临与传统高铁和自动驾驶汽车一样的基础设施和监管障碍。 马斯克的超级高铁到底有多快？ 大家平常做的汽车长这样，平均时速为80公里，从北京到上海需要行驶约16个小时。 大家平常做的高铁长这样，平均时速为200公里，从北京到上海需要行驶约5个半小时。 大家平常做的飞机长这样，平均时速为500公里，从北京到上海需要行驶约2个小时左右。 马斯克的超级高铁时速1125公里是什么概念呢？据说接近音速，从北京到上海只需要1个小时。 我们并不知道超级高铁最后长什么样子，但是可以从现场看到一些组件。 Hyperloop Technologies公司首席执行官罗布·劳埃德(Rob Lloyd)透露，此次测试将在可控环境中进行，管道长度为3.2公里，管道内安置有车厢，最终将加速到时速1125公里的速度。 此外，Hyperloop Technologies首席执行官罗伯劳埃德还表示，即将进行展示的是马斯克在2013年所预见的超级高铁的雏形，而今年年底之前完工的则是设施完备的原型系统。 马斯克的超级高铁未来有市场吗？ 马斯克经常干一些疯狂的事情，这已不足为奇。在受到人们的崇拜之时，大家对马斯克的怀疑之声也不绝于耳。先不说技术难度，最后可否实现超级高铁的正常运营，这个项目的花费已经令人震惊。据Hyperloop公司之前的报告指出，建造超级高铁这一系统的总造价在160亿美元或更高。有的批评家认为也许需要1000亿美元。 如此令我们震惊的造价，也许对马斯克来说并不是大事。毕竟马斯克可以“上天入地”。 马斯克曾在接受CNN财经频道专访时称：“我知道现在有很多公司都在尝试开发超级高铁，坦白说，我认为这个项目比人们想象得要容易很多。相关的设计蓝图通常比较复杂，而且还牵涉到数学知识，但是它其实并没有之前想象的那么难。” Hyperloop 公司昨天还宣布，它已经完成了8000万美元的B轮融资，除了已有的投资者之外，又引进了一些新的投资者，包括科斯拉创投、法国国家铁路公司和GE Ventures等。 马斯克建造超级高铁也得到了美国官方的支持，内华达州州长 Brian Sandoval 表示：“我们相信，Hyperloop 将会为交通运输界带来一种全新的运输模式，同时也能够为本地（内华达州）带来更多的收入和就业机会。” 今天，Hyperloop Technologies 将名字改为Hyperloop One。据说新名字可以帮助该公司避免与竞争对手Hyperloop Transportation Technologies混淆。 此外，Hyperloop 还将与政府进行一系列的合作，涉及建造方案及技术等方面。他们和政府一起举行一个“Hyperloop 区域运输轨道设置”的方案征集竞赛 “Hyperloop Global Challenge”。同时对外宣布他们会采用政府开发的 Inductrack 悬浮系统，同时也会用上 Lawrence Livermore 国家实验室开发的被动磁力吊舱系统。 早先，Hyperloop Transportation公司曾表示，他们曾与中国、印度和英国等国家就超级高铁进行了早期谈判。暗示其他人也看好超级高铁概念的前景。 但是除了马斯克，我们自己也在致力于造超级高铁，西南交通大学的牵引动力国家重点实验室超导技术研究所，已完成载人高温超导磁悬浮环形轨道测试。据介绍，这一项目的重要意义在于打造世界上第一个真空运输系统原型，有望向现实应用推进。从理论上来说，最高时速可达2900公里，是马斯克超级高铁的3倍。</t>
+  </si>
+  <si>
+    <t>据CNBC美国当地时间5月11日报道，美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德(Rob Lloyd) 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)透露。 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。</t>
+  </si>
+  <si>
+    <t>超级高铁Hyperloop完成首次露天测试 ( 0 / 24 ) 热点聚合: &gt; 超级高铁 &gt; Hyperloop &gt; 超级高铁首测 2016-05-12 11:48     来源：新浪科技 超级高铁公司Hyperloop One周三在拉斯维加斯北部的沙漠中利用测试轨道测试了超级高铁的推进系统。 上一页 下一页 超级高铁Hyperloop完成首次露天测试 重新播放 我要评论 炸裂速度！最高可达1200公里 马斯克超级高 伊隆-马斯克超级高铁试运：时速1220公里如</t>
+  </si>
+  <si>
+    <t>{ "info": { "setname": "全程回顾超级高铁首测：科幻就是这么诞生的", "lmodify": "2016-05-12 14:51:00", "author": "高富灿", "prevue": "超级高铁初创公司Hyperloop One当地时间周三在内华达沙漠公开演示了其推进系统原型。", "prev": { "setname": "", "simg": "", "seturl": "" }, "next": { "setname": "无人机秀高超后空翻：未洒出一滴果汁", "simg": "http://news.k618.cn/tech/dt/201605/W020160512328682192938.jpg", "seturl": "http://news.k618.cn/tech/dt/201605/t20160512_7359128.html" } }, "list": [ { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534579876485.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534579876485.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534579876485.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534579876485.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p&gt;　　超级高铁初创公司Hyperloop One当地时间周三在内华达沙漠公开演示了其推进系统原型。演示获得成功,媒体报道称最高时速为200英里(323公里)。图片为测试现场全景\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534580644344.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534580644344.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534580644344.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534580644344.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　测试之前的轨道照片。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534580762585.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534580762585.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534580762585.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534580762585.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　测试前现场的配件。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534581303885.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534581303885.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534581303885.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534581303885.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　超级高铁的演示密封舱。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534581954366.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534581954366.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534581954366.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534581954366.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　测试前现场人员调试设备。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534582746076.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534582746076.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534582746076.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534582746076.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　静态的推进装置。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583497071.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583497071.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583497071.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583497071.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　演示开始,推进装置向前行驶。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583557971.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583557971.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583557971.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583557971.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　推进装置开始加速。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583656364.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583656364.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583656364.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583656364.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p align=\"center\"&gt;　　推进装置加速周遭尘土飞扬。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583716459.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583716459.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583716459.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583716459.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;\n&lt;p&gt;　　现场有来自世界各国的政府官员、投资者、记者和Hyperloop One的员工参加了这次测试。\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583870877.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583870877.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583870877.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583870877.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534583933189.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534583933189.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534583933189.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534583933189.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534584033269.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534584033269.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534584033269.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534584033269.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;\n", "newsurl": "#" }, { "id": "", "img": "http://news.k618.cn/tech/dt/201605/W020160512534584101755.png", "timg": "http://news.k618.cn/tech/dt/201605/W020160512534584101755.png", "simg": "http://news.k618.cn/tech/dt/201605/W020160512534584101755.png", "oimg": "http://news.k618.cn/tech/dt/201605/W020160512534584101755.png", "osize": {"w":1440,"h":960}, "title": "", "note": "&lt;\/p&gt;\n&lt;p align=\"center\"&gt;&lt;\/p&gt;", "newsurl": "#" }, { "id": "the_end", "img": "http://news.k618.cn/images/the_end.png", "timg": "http://news.k618.cn/images/the_end.png", "simg": "http://news.k618.cn/images/the_end.png", "oimg": "http://news.k618.cn/images/the_end.png", "osize": {"w":1440,"h":960}, "title": "更多图集，敬请点击查看&gt;&gt;&gt;", "note": "", "newsurl": "http://news.k618.cn/tech/dt/201605/t20160512_7359128.html" } ] }</t>
+  </si>
+  <si>
+    <t>图片频道 &gt; 国内国际 &gt; 小图列表 &gt; 正文 酷！美国超级高铁首测成功 2秒加速至640km/h（图） 新华网 2016-05-12 15:23 美国超级高(4/6) 来源：新华网 时间：2016-05-12 15:23     图为测试现场(网络截图) &lt;&lt;上一图集 下一图集&gt;&gt;     图为测试现场(网络截图) 精彩图片更多 张子萱小号曝怀男孩 看看世界各国婚姻成本 王思聪买车像买菜？ 男星裙装上阵当车模？ 校花一字马引人遐想 护士们肚上作画迎节日 科威特将海水引入内陆 美国超级高铁首测成功 北京三里屯soho发火灾 汶川地震8周年祭亲人 张馨予与男片亲密拥吻 张雨绮晒健身自拍照片 网友评论登录|注册 评论 查看更多评论&gt;&gt; 【管理员提示】 ·在发布信息时，请您遵守中华人民共和国有关法律、法规，并尊重网上道德； ·因您的言论直接或间接导致的民事或刑事法律责任由您个人承担； ·管理人员有权根据栏目需要对留言内容进行删改。 海南热点 点击排行 01 东方两岁幼儿年初六走失 边防民警走访3 02 东方白菊占全国出口总量的一半以上 在 03 蒙面人持斧作案专抢轿车内情侣 临高警 04 屯昌消防大队暗访窗口服务 整治“办事 05 三亚导游期待自由执业试点工作早日推广 06 三亚一公寓电梯“进水”一天罢工3次 住 07 陵水县食药监局专项检查 21畜禽拔毛点 08 三亚一学生曝老师强迫买校服 不买不让 09 海口公共自行车乱被吐槽 相关部门:将迁 10 万宁七旬老翁夜间走失民警助其回家 海口暴力拆违事件涉事区长引咎辞职 海口秀英组织1200名执法人员拆除琼华村 乐东一宅基地“一女二嫁” 办证人员回 海口女高中生乘滴滴快车 司机边开车边 “五一”期间海口假日海滩受宠 沙滩上 海口秀英组织1200多名执法人员拆除琼华 女高中生裸尸惊现水沟中 系万宁某中学 中国十大最难落户城市出炉 三亚海口在 涉嫌寻衅滋事 海口5名联防队员被刑拘 海口红城湖现数十吨死鱼 原因已查明</t>
+  </si>
+  <si>
+    <t>万众瞩目的超级高铁公司Hyperloop One今天在美国拉斯维加斯北部的沙漠中，完成了首次户外测试。在测试轨道中，测试推进系统以2.5倍重力的推力加速，最终速度达到400英里/小时，约合640公里/小时，撞击到91米外的沙堆减速停车。据了解，测试车辆的发动机和测试轨道类似于两块互斥的磁铁，在约1500磅（680千克）的测试车辆开始启动之后，多块磁铁被激活，给车辆加速。其0-96公里加速仅1.1秒，最高时速约合640公里。 极速640km/h！超级高铁首测视频曝光：百公里加速1.1秒 极速640km/h！超级高铁首测视频曝光：百公里加速1.1秒 此次测试只是该公司的“小鹰号预览”，Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)。Hyperloop One首席技术官罗根·班布罗根（Brogan BamBrogan）表示，Hyperloop One计划到2016年底拥有1/4英里(约合400米)长，包含一系列管道的完整尺寸轨道。而未来，超级高铁运行在完全受控的环境中，坐起来“如电梯般平顺”。 超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克（Elon Musk）在2013年提出，通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。 通过磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱，将在近乎真空的管道中依靠电力运行，时速接近音速。不过，目前Hyperloop One尚未对磁悬浮系统进行测试。Hyperloop One工程高级副总裁约什·吉杰尔(Josh Gienel)表示，公司正在评估动悬浮解决方案，今年晚些时候会对磁悬浮系统和推进系统进行同时测试。</t>
+  </si>
+  <si>
+    <t>中国证券网讯 美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 “这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘透露。 超级高铁实测情况 乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 超级高铁项目背景 2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。 海通证券研报显示，“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。二级市场上，超级高铁概念曾在A股掀起一股科技热潮，分析指出，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材等品种也可持续跟踪。 斯洛伐克或成首个拥有Hyperloop超级高铁国家 美国超级高铁公司Hyperloop Transportation Technologies周四表示，该公司已经与斯洛伐克政府签订了协议，考虑在该国建设超级高铁。这也使得斯洛伐克成为首个对这种未来交通工具感兴趣的国家。 超级高铁2016年初进行测试 磁悬浮概念受关注 据市场猜测，能达到时速将近1000公里的列车，目前的可行性方案是真空磁悬浮列车，真空磁悬浮列车为世界上最快的交通工具，在科学中已经有了关于此方面的确切定论。 </t>
+  </si>
+  <si>
+    <t>Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘透露。 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁招来许多的怀疑，主要和成本有关，而非技术本身。马斯克曾经说过，从旧金山建设一条超级高铁通往洛杉矶，大约需要60亿美元，专家却认为远不止如此。劳埃德称：“我们会降低超级高铁的成本，最终它的成本只有高铁的三分之二，速度却是它的三倍。” 　　为了降低成本，Hyperloop One将设计拆分为各部分，比如悬浮、推进、管道设计，然后尝试用更便宜的材料来制造各部分组件。 　　Hyperloop One的高管们将新式超级高铁比做19世纪建设的Transcontinental Railroad(横贯北美大陆的铁路)和20世纪60年代的登月计划。但是建设横贯北美大陆的铁路是不可避免的，而且土地也是无限的。至于后者，美国向火箭项目投入了一个国家资源。 　　今天的形势不同，Hyperloop One和HTT(Hyperloop Transportation Technologies)碰到了许多障碍，比如土地使用权，现有交通运输企业的阻挠(火车和卡车公司)，它们为了维持现状投入巨额资金。 　　超级高铁的先驱们认为，最终他们会用低成本赢得胜利的果实，一旦超级高铁的胶囊开始投入运营，它可以用极低的能耗维持超高的速度，而且还不会产生碳排放。</t>
+  </si>
+  <si>
+    <t>中新网5月12日电 据外媒报道，当地时间5月11日，总部位于美国洛杉矶的Hyperloop One公司在内华达州沙漠完成了“超级高铁”Hyperloop推进系统的首度户外测试。“超级高铁”是由美国创业天才马斯克继特斯拉汽车、SpaceX和Paypal之后提出的又一大胆设想。 　　马斯克曾鼓励发明家们将“超级高铁”的创意变成现实。“超级高铁”、也叫“真空管道高速列车系统”，根据马斯克2013年提出的方案，“超级高铁”使用磁悬浮列车在接近真空的管状轨道中行驶，时速可以达到1200公里甚至更高，而声速每小时才1236公里。这意味着从北京到上海只需1小时。 　　在此次露天测试中，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，推进装置仅通过1.1秒就从0加速到每小时116英里的速度(约97公里)，最后撞到一个沙堆上减速停车。 　　多家媒体表示，此次测试成功意义重大。它意味着美国在通过超高速列车变革运输系统的道路上又迈进了一步。 　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。”不过，Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。</t>
+  </si>
+  <si>
+    <t>据今日美国报道，超级高铁公司Hyperloop One成功在北拉斯维加斯初步演示了超级高铁系统，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时，约合640公里/小时，撞击到91米外的沙堆减速停车。 此次测试名为“推进系统户外测试”（Propulsion Open Air Test），所以速度距离理想化的成绩很远。之前公司首席执行官Rob Lloyd的所谓最终将加速到时速1125公里被认为要到2019年~2021年载人时才能实现。 公司高管表示，超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里每小时（约合1200公里/小时），旧金山和洛杉矶之间的旅程只需要30分钟。 超级高铁的概念始于2013年，当时SpaceX和特斯拉公司CEO埃隆·马斯克（Elon Musk）最先提出使用磁悬浮技术，以超过飞机飞行的速度运送乘客在相隔几百英里的城市间往返。</t>
+  </si>
+  <si>
+    <t>网易科技讯 5月12 日消息，本周三美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合644公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，加速测试仅持续了两秒。 超级高铁首测成功 预计2021年实现客运最终极速1207公里/小时 “我们站在圣地上，” 总部位于洛杉矶的Hyperloop One的联合创始人谢尔文·皮谢瓦（Shervin Pishevar）这样说道，Hyperloop One是希望研发新科技以商业化革新性的交通新形式的少数公司之一。“这主要是证实硬件和软件，” Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)这样说道。“我们的目标是在两秒内加速到400英里（约合644公里）每小时的速度。在今年底，我们希望进行完整的测试，利用我们既定的推进力加速管道里的滑车。” 届时测试还将在这片沙漠进行。研究小组将建造一个3英里（约合4.8英里）长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁诞生地。” 巴姆布罗甘说道。 巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。 在洛杉矶，公司测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。“如果这次测试获得的成果可以被复制和应用，我认为2019年就可以实现装载货物，2021年实现运输乘客。”公司CEO劳柏•洛依德（Rob Lloyd）这样说道。 Hyperloop One的高管们喜欢将这种新的交通模式比作19世纪建造的横贯大陆的铁路，以及20世纪60年代前往月球的竞争。现在Hyperloop One和同样位于洛杉矶的超回路列车运输技术(Hyperloop Transportation Technologies)面临了各种困难障碍，包括土地使用权和现有的交通方式——火车和货车公司，后者获得了财政性投资以维持现有的市场地位。 超级高铁的拥护者认为他们的技术将胜出，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放，后者被认为是全球变暖至关重要的元素。 本周二超级高铁宣布它已经获得了8000万美元的B轮融资，以继续科研和研发测试，现在公司市值接近1.2亿美元。超级高铁的概念始于2013年，当时SpaceX和特斯拉公司CEO埃隆·马斯克（Elon Musk）最先提出使用磁悬浮技术，以超过飞机飞行的速度运送乘客在相隔几百英里的城市间往返。SpaceX资助了一项竞争以寻求超级高铁的技术解决方案，但它并不会成立一个与这一创新相关的公司。皮谢瓦会见了马斯克并询问他是否可以开发这一技术的商业潜力。马斯克的回答？当然是OK，因为马斯克正忙于派送人类前往火星呢，皮谢瓦笑着说道。（艾米丽） 标签： 超级高铁首测 超级高铁速度 超级高铁测试 马斯克超级高铁项目 超级高铁有多快 ( 责任编辑:唐克玺)</t>
+  </si>
+  <si>
+    <t>据外媒报道，特斯拉创始人埃隆.马斯克提出的“超级高铁”（Hyperloop）运输系统将于今天在美国内华达州拉斯维加斯郊区的沙漠测试场进行首次公开演示。这套系统是马斯克2013年首次提出的，方法是让乘客进入压力管道中，以近乎音速的时速运行，届时从洛杉矶到旧金山只要35分钟。 　　超级高铁被称之为第五种交通运输方式，在接近真空的管道内实现接近音速的速度。目前的可行性方案只有真空磁悬浮技术，列车和轨道将大量采用稀土永磁材料。 　　分析表示：超级高铁概念曾在A股掀起一股科技热潮，中科电气（行情300035，买入）等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环（行情000970，买入）、江粉磁材（行情002600，买入）、正海磁材（行情300224，买入）、银河磁体（行情300127，买入）等品种也可持续跟踪。 　　中科电气：致力于电磁冶金整体解决方案、集现代制造和现代服务于一体的高新技术企业及软件企业。2013年12月11日，公司研制的新产品――电永磁混合悬浮磁铁，通过国防科技大学的出厂验收，发往试验现场。该批次电永磁混合悬浮磁铁将用于北京控股磁悬浮技术发展有限公司与国防科技大学联合研制的中低速磁浮试验样车上。目前公司重点研发方向是中间包电磁感应加热装置的优化设计和磁悬浮列车用电永磁混合悬浮磁铁研制。随着磁悬浮技术应用拓展，公司未来有望充分受益。 　　江粉磁材：公司是目前国内最大的铁氧体磁性材料元件制造商之一，主营产品为铁氧体永磁元件、铁氧体软磁元件等磁性材料元件及其制品，2013年永磁铁氧体产能大约是4万吨；软磁铁氧体为7000吨；粘结钕铁硼年产值约3000万元。产品是广泛应用于汽车、IT、办公设备、电动工具、家用电器领域，销往日本、香港、台湾、美国等著名电机生产厂家。磁悬浮应用取得突破，将为公司带来新的发展机遇。 　　中科三环：公司是国内钕铁硼永磁材料行业先锋与领军企业，产能与产量居国内最大、全球前列。公司拥有一支高素质的研发队伍，研究骨干源自中科院物理所磁学研究部，与中科院物理所具有深厚的渊源。公司创始人、董事长王震西院士早年曾在法国国家磁学实验室师从诺贝尔奖获得者、世界著名科学家奈尔教授，回国后一直致力于稀土磁性材料的研究。此前公司透露钕铁硼永磁悬浮技术仍在试验阶段，没有商业应用。在强大的研究团队支持下，未来公司有望在磁悬浮领域开创新的篇章。 　　正海磁材：公司是专业生产高性能磁性材料及磁体组件的高新技术企业，凭借具有自主知识产权的正海无氧工艺（ZHOFP）技术和世界一流的生产检测设备，能够批量生产当今世界顶级30多个牌号的烧结钕铁硼磁体。公司产品被广泛应用于信息产业、汽车行业、电力设备、家用电器、石油化工、机械制造、航空航天、医疗器械等领域，产品综合品质达到世界一流水平，赢得了国内外客户的一致赞誉。 　　银河磁体：公司主营粘结钕铁硼稀土磁体元件或部件的研发、设计、生产和销售。公司粘结钕铁硼磁体包括：光盘驱动器主轴电机磁体、硬盘驱动器主轴电机磁体、汽车微电机磁体、步进电机磁体以及各类永磁无刷直流电机转子组件等磁体零部件，产品广泛应用于信息技术、消费类电子、通信、节能家电、汽车、办公自动化设备等多种领域。</t>
+  </si>
+  <si>
+    <t>这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆・马斯克在2013年提出。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。     Hyperloop One公司在内华达州拉斯韦加斯市以北的沙漠中建造了一个测试场，11日将进行“推进系统露天测试”，而今年年内将进行全系统全速测试。     公司首席执行官罗布・劳埃德表示，届时测试将在一段3.2公里长的管道内进行，悬浮舱将被加速到时速近1200公里。     在推进系统演示前一天举行的新闻发布会上，劳埃德试图打消外界对这项技术的疑虑，并将这项运输技术与美国铁路的出现以及铁路带来的繁荣时代相提并论。“这是真实的，它正在发生，”他说。     路透社报道认为，超级高铁最初可能应用于港口，代替卡车和火车在船舶和工厂间运送货物。</t>
+  </si>
+  <si>
+    <t>超级高铁首测：洛杉矶和旧金山的车程将缩短到35分钟还记得大明湖畔的马斯克的超级高铁计划吗？明天这个梦想即将实现。伊隆·马斯克（Elon Musk）于2013年首次提出了超级地铁这项大胆的计划，当时他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。马斯克在硅谷相当有名，旗下有多家知名公司，包括电动汽车特斯拉、火箭发射公司SpaceX，他还是在线支付鼻祖Paypal的创始人。有人将他比作现实中的“钢铁侠”。 再见，Hyperloop Technologies Inc，它是努力实现马斯克的梦想——打造速度超快、管道为基础的超级高铁，两家基于洛杉矶初创公司之一。该公司今天宣布，它正式更名为Hyperloop One。其名称的改变，部分原因是避免与Hyperloop Transportation Technologies弄混了，同时也突出它明天将在内华达州北拉斯维加斯，举行推进系统的第一次公开测试，整个测试将持续两天。在本次公开试验中，Hyperloop One 以每小时 400 英里（约每小时 643 公里）的速度完成露天轨道运行测试，然后以每小时 700 英里的速度（约每小时 1126 公里）完成真空管轨道的测试。 视频地址：http://v.qq.com/page/x/o/u/k0199t4u9ce.html 虽然超级高铁的设想来自马斯克，但他表示自己没有研发该系统的计划，不过“硅谷钢铁侠”会开源自己的设计，以便其他公司对其进行改进。在马斯克心里，超级高铁是“协和式飞机、轨道枪和气垫曲棍球台的结合。” 今天下午， Hyperloop One宣布，它已经得到了 8000万美元的风险资本融资，与一些既定的运输、工程和基础设施公司建立了重要合作伙伴关系，并表示，它会创建一个新的全球性挑战“使利用最具创造性的思维让 Hyperloop One成为现实。”它还表示，将研究在芬兰、瑞典、瑞士以及洛杉矶港口建筑 Hyperloop One系统的可行性。 听起来有点虚张声势却又令人惊叹，一个建立不到两年的公司，至今甚至仍未演示过其中心思想的可行性：直径5.5英尺（≈1.68米）的分离舱携带乘客，在几乎真空铝管中行驶，速度超过700英里（≈1126千米）每小时。值得注意的是，飞机的时速大概在 700 到 800公里。那就说，在真空管道状态下的 Hyperloop One比飞机还快。如果它是以这个速度行驶，那从深圳到北京大概只需要两个小时。如果一切正常，Hyperloop One可以大大简化城际旅行和货运、减少交通堵塞和污染、并且全球的交通运输可能彻底改变。 如果失败，那一切就打水漂了。Hyperloop One在可以携带它的第一个乘客之前，就有许多障碍要克服，比如如何获得土地权和通行权以实现其承诺的速度。但是这并没有阻止 Hyperloop One，把它梦幻般的概念推销给投资者、新闻媒体和全世界。 今天下午在在拉斯维加斯， Hyperloop One云集记者和投资者，以庆祝其新的里程碑。该公司的高层管理人员联合创始人Shervin Pishevar、联合创始人兼首席技术官Brogan BamBrogan和首席执行官Rob Lloyd, 三人一同揭开了其公司未来的下一个阶段。 到目前为止， Hyperloop One从传统的运输和基础设施公司的买入相当成功。该公司表示，其B轮投资者包括法国高速铁路公司、法国国营铁路公司、GE风险投资公司、通用电气公司的风险投资子公司。 Hyperloop One同时也与FS Links AB合作，后者总部设在奥兰群岛波罗的海地区的中心，主要研究建立连接赫尔辛基和斯德哥尔摩轨道的可行性。它还将参加到洛杉矶Arcturan Sustainable Cargo研究，“以确定Hyperloop One如何使港口集装箱从长滩到洛杉矶的运输更高效，以减少拥堵和污染。” Aecom是全球最大的建筑和设计公司之一,Hyperploop One当然会与其合作，以在北拉斯维加斯建立两英里的轨道。 Aecom还协助马斯克的SpaceX公司，设计其在加利福尼亚州霍桑的Hyperloop轨道。此前，Aecom曾与Hyperloop One的对手Hyperloop Transportation会谈，但这些会谈似乎已经土崩瓦解。 Hyperloop One和 Hyperloop Transportation都处于激烈的竞争，胜出者将率先实现Musk的梦想。值得注意的是，不到48小时前Hyperloop One决定展示其推进系统， Hyperloop Transportation宣布，它已经获得了一种称为被动磁浮的磁悬浮独家授权，将用在其原型上。该公司首席执行官Dirk Ahlborn说，宣布的目的并不是为了削弱他的对手。 Hyperloop One是传统技术的创业公司，投资者包括前奥巴马的战略家Jim Messina。而Hyperloop Transportation是一个纯粹的志愿者和众包公司。该公司表示，他们有来自美国宇航局、波音公司、特斯拉和SpaceX公司的480多名志愿者。</t>
+  </si>
+  <si>
+    <t>腾讯科技讯 5月12日，据国外媒体报道，超级高铁初创公司Hyperloop One当地时间周三在内华达沙漠公开演示了其推进系统原型。 在此次露天测试中，推进装置仅花1.1秒就从0加速到60英里（约97公里），最高时速达到116英里（187公里）。亦有媒体报道称最高时速为200英里（323公里）。 来自世界各国的政府官员、投资者、记者和Hyperloop One的员工参加了这次测试。 SpaceX和特斯拉首席执行官伊隆·马斯克（Elon Musk）于2013年首先提出了超级高铁（hyperloop）的概念，超级高铁列车能在低压管道内以760英里时速行驶。马斯克对外公布了超级高铁的基本技术计划，并邀请其他厂商开发相关技术，Hyperloop One和Hyperloop Transportation Technologies（以下简称“HTT”）是首批开发超级高铁技术的两家公司。 Hyperloop One将于今年底建成更完整的超级高铁系统。超级高铁的创始人兼首席执行官Brogan BamBrogan表示：“更完整的超级高铁系统将在在2秒内加速至400英里/小时（约643公里）。” 建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，减少了列车行进时遇到的空气阻力，悬浮在轨道上方的超级高铁列车将达到非常快的速度。超级高铁从旧金山行驶到洛杉矶只需约35分钟。 HTT当地时间周一宣布，该公司将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。</t>
+  </si>
+  <si>
+    <t>比飞机更快的超级高铁首测成功 2秒提速至186公里/时 发稿时间：2016-05-12 11:14:00 来源： 综合 中国青年网 我要评论 今天的演示仅仅测试了超级高铁复杂系统的一部分性能，使用的也是普通轨道而非半真空轨道。 原标题:比飞机更快的超级高铁首测成功 2秒提速至186公里/时 责任编辑：杨晓霖 返回首页&gt;&gt; 猜你喜欢</t>
+  </si>
+  <si>
+    <t>第五种交通方式有望出炉：飞机、火车、骑车、船和超级高铁。 　　声速每小�r1236公里，而伊隆·马斯克参与设计的超级高铁将达到每小时1200公里，大约一小时可以让你从北京到上海。 　　想象把你放在一个胶囊里，嗖一下，从管道里喷到海对岸。 　　 　　这已经不光是动画片里的景象，而已经变成是钢铁侠伊隆·马斯克除了Space X上天计划，特斯拉电动车计划外的第三个梦想：超级高铁（Hyperloop）。 　　今天超级高铁在美国内华达州，毗邻赌城拉斯维加斯的一片无人沙漠里获得了它的首次公测成功。这里是今天实地公测的动图： 　　 　　具体视频戳这里： 　　这场测试大概持续了4秒钟。全程全直线设计，测试长度约为5公里，从静止到640公里每小时加速只用了2秒。 　　图为未拼接的管道 　　 　　进行测试的其实并不是伊隆·马斯克本人，而是一家昨天刚刚更名为Hyperloop One的公司。他们同另一家公司Hyperloop Transportation Technologies (HTT) 作为两个候选公司之一，按照伊隆·马斯克长达58页的白皮书Hyperloop Alpha进行超级高铁的研发。 　　这家公司的CTO 也是创始人之一Brogan BamBrogan告诉记者，“他们接下来会在年底进行一次完整的测试。” 　　面对民众对于超级高铁速度如此之快，舒适度会不会成为问题的质疑时，这位创始人表示乘客坐在内部并不会感受到强烈的加速，且载人启动时会设计得更加和缓一些，会逐步达到最高时速1200公里每小时。 　　此外，他表示，到2019年，超级高铁有望载货，2021年，它有望载客。满打满算，我们再15年就可以见证奇迹了。 　　不过，不要高兴得过早, 今天的公测只是整个复杂的系统中的一部分，离最终成功还有非常遥远的距离，而现实生活中高昂的造价也是一个看起来非常棘手的问题。不过，此次公测至少证明这个概念具有一定可行性，而不只是“钢铁侠”的胡思乱想。 　　这个2013年最早由特斯拉创始人伊隆·马斯克提出的超级高铁项目也被称为胶囊列车，是一种以“真空钢管运输”为理论核心设计的交通工具，具有超高速、高安全、低能耗、噪声小、污染小等特点。Hyperloop One需要打造一个部分真空的管道，将密封舱悬浮在管道内，靠扇页推动密封舱前进，并从管道壁中的电磁体获取额外推力。 　　在马斯克的设想中，从洛杉矶到旧金山只需要35分钟，目前飞机需要1小时25分钟左右。 　　 　　也就是说，这种属于未来的第五种交通方式也将成为最快的一种交通方式，甚至比飞机快一倍以上（算上飞机起落时间）。而它的最快时速可超过1200千米／小时，也远远超过了其他交通方式。 　　 　　按照马斯克的描述，这样的超级高铁一趟最多只能容纳28人，但可以做到每两分钟发一趟车。 　　不过，钢铁侠伊隆·马斯克励志开发超级高铁的最主要原因还是归结于美国铁路发展的落后。按照现有的加州铁路速度，从洛杉矶到旧金山640公里（仅为北京到上海的一半）需要花费13个小时，同样的距离中国高铁大概只需要2.5小时就到了（骄傲脸）。</t>
+  </si>
+  <si>
+    <t>据英国《每日邮报》报道，美国当地时间5月11日，马斯克的疯狂计划――时速接近音速的超级高铁将进行首次测试。 这次测试在美国拉斯韦加斯北部的工业园区完成，整个测试将持续两天。 超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125公里每小时）。” （责任编辑： HN666）</t>
+  </si>
+  <si>
+    <t>比飞机更快的超级高铁首测成功 2秒提速至186公里/时 发稿时间：2016-05-12 11:14:00 来源： 综合 中国青年网 我要评论 　　据每日邮报报道，今天（当地时间周三）埃隆-马斯克（Elon Musk）的超高速高铁（Hyperloop）模型进行演示，其推进器成功将一辆金属滑车在短短两秒之内提速到了每小时116英里（约186公里），超级高铁的概念早在2013年由马斯克提出，他宣称建成后从洛杉矶到旧金山只需要35分钟。（转载请注明出处，更多精彩内容来自腾讯国际新闻微信公众号“糖醋国际”。） 原标题:比飞机更快的超级高铁首测成功 2秒提速至186公里/时 责任编辑：杨晓霖 返回首页&gt;&gt; 猜你喜欢</t>
+  </si>
+  <si>
+    <t>近日，超级高铁首测时时速达到1207.008千米，而音速为1224千米/小时，网友表示：超级高铁时速秒杀飞机，以后可以乘坐高铁了，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 　　据CNBC美国当地时间5月11日报道，美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　</t>
+  </si>
+  <si>
+    <t>超级高铁首测成功_最新查看：国内高铁概念股一览(2) 2016-05-12 14:28 南方财富网 www.southmoney.com 序号 股票代码 股票简称 1 002282 博深工具 2 300041 回天新材 3 600219 南山铝业 4 600967 北方创业 5 000976 春晖股份 6 300351 永贵电器 7 002254 泰和新材 8 002501 利源精制 9 002472 双环传动 10 300455 康拓红外 11 300001 特锐德 12 300150 世纪瑞尔 13 002122 天马股份 14 600495 晋西车轴 15 601002 晋亿实业 16 002271 东方雨虹 17 000008 神州高铁 18 300020 银江股份 19 600068 葛洲坝 20 002480 新筑股份 21 000887 中鼎股份 22 300011 鼎汉技术 23 002296 辉煌科技 24 600458 时代新材 25 000609 绵世股份 26 601186 中国铁建 27 601800 中国交建 28 600169 太原重工 29 601390 中国中铁 30 601766 中国中车 31 600528 中铁二局 32 600808 马钢股份 33 300200 高盟新材   　　南方财富网微信号：southmoney 共2页: 上页 1 2 下页 南方财富网声明：资讯来源于合作媒体及机构，属作者个人观点，仅供投资者参考，并不构成投资建议。投资者据此操作，风险自担。 相关阅读 超级高铁首测成功_最新查看：国内高铁概念股一览 稀土部分品种价格涨幅接近20% 查看：稀土相关概念 首轮综合电改试点方案获批 查看：新电改概念股最 城市轨道交通概念股有哪些？城市轨道交通概念股一 国务院部署消费品工业升级 查看：相关概念股受益 十三五护理事业规划纲要制定中_查看：相关概念股 纸业龙头联合提价行业盈利改善可期 查看：纸业概 大连国资改革概念股都有哪些股票？最新大连国资改 近期股市可投资板块_查看：四大板块可重点布局 概 城市轨道交通概念股有哪些股票？城市轨道交通概念 »延伸阅读 一带一路概念股，最新一带一路概念股有哪些？ 一带一路概念股龙头|一带一路概念股龙头一览表 一带一路概念股一览表 环保概念龙头股，最新环保概念龙头股一览 核电概念股龙头有哪些？核电概念股龙头解析 »要闻导读 2016年5月12日最具爆发力六大牛股 2016年5月11日涨停敢死队火线抢入6只强势股 2016年5月11日最具爆发力六大牛股 2016年5月10日涨停敢死队火线抢入6只强势股 2016年5月10日最具爆发力六大牛股</t>
+  </si>
+  <si>
+    <t>点击查看&gt;&gt;&gt;个股研报 个股盈利预测 行业研报 　　马斯克超级高铁首测成功 4股有望爆发 　　美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环、江粉磁材、正海磁材以及早期在磁悬浮列车有过经验的公司如中科电气等有望受益。 　　【个股研报】 　　中科三环：毛利企稳，短期充分受益稀土价格上涨 　　中科三环发布2016 年一季报。公司实现销售收入7.9 亿元，同比下滑2.33%，实现归属于母公司净利润6257.86 万元，同比增长1.84%，实现eps 0.059元(去年四单季0.084 元)；受产品价格下跌拖累，公司销售毛利率延续下滑，报告期内环比下滑2.9 个百分点，同比上升2 个百分点，至23.79%。 　　产品价格处于底部，销量放缓拖累公司业绩。报告期内，公司毛利率环比四季度单季下滑2.9 个百分点，但与2015 全年相比则微升0.37 个百分点。我们认为目前的钕铁硼价格处于历史底部区域，继续下跌的空间较小，毛利率有望保持稳定。然而需求下滑导致销量放缓成为拖累公司业绩的主要因素。我们认为，去年是钕铁硼价格探底的一年，而今年将是磁材龙头公司销量增速探底的一年，我们认为随着新能源汽车，节能环保等领域需求的稳步增长，中长期依然看好销量增速回升。 　　短期充分受益稀土价格上涨。一季度末，公司存货账面价值9.37 亿，存货占市值比位于A 股主流磁材公司第一。我们认为，公司作为国内钕铁硼龙头企业，稀土价格上涨有利于产品价格及毛利的回升，相比A股其他磁材公司，三环稀土存货弹性最大，短期将充分受益稀土价格上涨。 　　与日立合作稳步推进，中长期发展前景可期。公司与日立金属合作建厂正在稳步推进中，三环将巩固自己国内高性能钕铁硼行业的龙头地位，享受中国新能源汽车市场的快速成长。另一方面，作为中国高端制造代表，公司将长期受益于“中国制造2025”这一国家战略，其中高档数控机床和机器人、先进轨道交通装备、节能与新能源汽车、电力装备、新材料、农业机械装备等重点领域都将提升市场对钕铁硼的需求。公司中长期发展前景依然向好。 　　投资建议：维持“买入”评级。我们认为钕铁硼价格已经处于历史底部，毛利继续下滑空间较小，短期作为存货弹性最大的磁材公司将充分受益稀土价格上涨；中长期市场需求将极大受益新能源汽车及其他中国高端制造业发展。预计2016-2018 年eps 分别为0.28,0.35 和0.38元，维持“买入”评级。(长江证券) 　　正海磁材：双核发力，增长可期 　　事件： 　　公司发布 2016年第一季度报告，实现营收 3.36亿元，同比增长 63.50%，归母净利润 3178.65 万元，同比增长 18.74%。公司营收与净利润的增长主要源自去年定增收购的上海大郡并表。 　　上海大郡业绩超预期，定增引战再加码 　　上海大郡 2015 年扣非净利润 3306.83 万元，远超 2000 万元业绩承诺。2015 年是新能源汽车的腾飞年，上海大郡生产的新能源汽车电机国内领先，并主打国内高端市场，产品技术附加值高。乘用车客户包括上汽、东风、长安、北汽、广汽等一线主机厂。未来新能源汽车的流行将是不可逆转的大趋势，上海大郡是这条高速成长产业链上的核心部件生产商，且具有技术壁垒，未来业绩爆发可持续。 　　正海磁材近期发布定增预案，推出 12 亿元三年期定增，公告用途为补充流动资金。我们认为公司将加大新能源汽车电机驱动系统的生产及研发投入，紧跟市场快速成长的步伐。 此外定增认购对象中包括上汽投资，是上汽集团旗下资本运作平台，此次入股可视作战略投资。 　　稀土资源整合进入下半场，供给侧改革促周期反转 　　稀土是公司钕铁硼永磁材料的上游环节。 2015 年组建六大稀土集团，行业集中度已获得提高，近期商业收储已启动，国储也有望跟进。稀土行业资源整合已进入下半场，后续重点看打黑。新能源汽车的爆发也为钕铁硼永磁材料的需求端提供了增量，稀土行业最快今年可走出底部。公司生产的钕铁硼永磁材料定价采取成本加成模式，价格随稀土价格波动，稀土价格上涨时公司产品会有更强议价能力，从历史财务数据也可看出在稀土价格较高的年份，公司有更高毛利率。 　　盈利预测与投资建议 　　公司已形成钕铁硼永磁材料、新能源汽车电机驱动系统两大主业，且具有协同效应，双核发力，增长可期。预计公司 2016 年至 2018 年 EPS分别为 0.52、 0.65、 0.82 元，给予“推荐”评级。 　　风险提示华融证券 　　1，新能源汽车推广低于预期； 2，稀土价格剧烈波动。(华融证券) (责任编辑：DF154)</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德（Rob Lloyd） 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)透露。 　　 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 图片来自网络 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 东方IC 资料 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（ Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克(Elon Musk)在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 　　除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 　　马斯克本人也在推特上透露，旗下的SpaceX公司有计划建立一个用于研发“超级高铁”技术的测试轨道，他表示“最有可能在德克萨斯州实现”。 　　虽然目前超级高铁有待解决的问题还有很多，但是超级高铁的用户者认为，在未来超级高铁一定会被全面推广，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> 美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。     “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多精彩视频扫描 关注麻辣烩微信号 比飞机更快！超级高铁首测成功 时速接近音速 ld://live.cqnews.net/vod/data/video/201605/12/fe68e29b-b562-4d92-a95f-2edaa31d9d77/transcode_873c2bd8-d333-1377-b689-01c37cd0.mp4 比飞机更快！超级高铁首测成功 时速接近音速11 分享: 新浪微博 腾讯微博 微信 QQ空间 QQ好友 来源： 第一财经         发布时间： 2016-05-12 简介： 比飞机更快！超级高铁首测成功 时速接近音速 编辑： 邓旻璐 超级高铁 测试 时速 发言请遵守新闻跟帖服务协议 36900316 热点 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 巾帼英雄！90后女生骑电瓶车带警察抓贼 男子冒充上尉骗财骗色 被骗女痴心不改求见面 娱体 angelababy被炮轰没脑子 反对帮小动物结扎 深扒《欢乐颂》众小主荧屏初吻 王凯王子文甜炸羞羞不敢看！ 高圆圆录《蜜蜂少女队》被感动 数度哽咽落泪惹人心疼 军事 兰州舰完成东盟联演 赴西太平洋开展远海训练 中国海军战机夜间训练中坠毁 无人员伤亡 俄研发全球最大洲际导弹 俄媒称可夷平美国德州 更多视频 雷洋案目击者：霍营派出所出警到达时 被控制人已瘫软无法登车 05-12 14:58:00 央视揭药品鬼市黑幕 为什么很多救命药都是假药？ 05-12 14:58:00 乱！男子约男同一夜情 让自己男友进行捉奸敲诈另一男子 05-12 14:57:00 无耻！体育老师骚扰女生 一边摸胸一边指导 05-12 14:49:36 中国第一金库曝光 3万多保险箱24间库房 05-12 14:48:00 北体校花朝天蹬一字马走红 蜂腰翘臀身材火辣 05-12 14:48:00 惊悚！女租客与尸体同住20天 发现时已腐烂 05-12 14:42:57 胆儿肥！美潜水员抚摸鲨鱼 水中似同鲨鱼嬉戏 05-12 14:33:00 人大硕士雷洋之死：值勤民警受访 还原雷洋被抓现场经过 05-12 13:47:00 中国好校长！校长请同学吃必胜客 寓意中考必胜 05-12 12:13:00 冰球场上的追梦女孩 冰球场上的追梦女孩 公交车司机的故事 公交车司机的“风骚”演技 环卫妈妈的假期 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 母亲的良苦用心 “恶毒”的母亲如此对待儿子，居然还是亲妈？ 医保卡可购买健身服务 7月后市民持医保卡 有望购买体育健身服务  市新低保条例五月施行 重庆新低保条例五月起施行 农村按月发放</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券(600837,股吧)认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环(000970,股吧)、江粉磁材(002600,股吧)、正海磁材(300224,股吧)以及早期在磁悬浮列车有过经验的公司如中科电气(300035,股吧)等有望受益。 </t>
+  </si>
+  <si>
+    <t>美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟。 这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克在2013年提出，他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。超级高铁Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)，与此同时，民航客机的速度一般为900公里/小时，波音747巡航速度最快是将近1120公里/小时。 超级高铁的创始人兼CEO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时（约643公里）。” 图为超级高铁准备进行测试。 在当地时间周三的试验中，一辆滑车沿着轨道行驶了1000米，旨在演示超级高铁技术的发展。未来试验的重点将是磁悬浮和管道设计。Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 图为超级高铁准备进行测试。 HTT当地时间周一宣布，它将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 图为运行中的超级高铁。Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。 图为运行中的超级高铁。 图为运行中的超级高铁。 图为运行中的超级高铁。 测试过程动图</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北 相关公司股票走势 中国银行 海通证券 中科电气 中科三环 江粉磁材 边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘透露。 　　超级高铁实测情况 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 测试过程动图 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁项目背景 　　2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 　　除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。 　　海通证券研报显示，“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。二级市场上，超级高铁概念曾在A股掀起一股科技热潮，分析指出，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材等品种也可持续跟踪。</t>
   </si>
 </sst>
 </file>
@@ -395,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
@@ -434,73 +538,328 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="303.75" customHeight="1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="249.75" customHeight="1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" customHeight="1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="293.25" customHeight="1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="409.5" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="179.25" customHeight="1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" ht="277.5" customHeight="1">
-      <c r="A13" s="4"/>
+    <row r="6" spans="1:2" ht="45" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="99.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="192.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="283.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="117" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="50.25" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="194.25" customHeight="1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="12">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="80.099999999999994" customHeight="1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" ht="364.5" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="93.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="87.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="224.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1" ht="305.25" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1" ht="409.5" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="190.5" customHeight="1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="285.75" customHeight="1">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1" ht="198.75" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="354.75" customHeight="1"/>
-    <row r="24" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="25" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="26" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="27" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="28" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="29" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="30" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="31" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="32" spans="1:1" ht="80.099999999999994" customHeight="1"/>
-    <row r="33" ht="80.099999999999994" customHeight="1"/>
-    <row r="34" ht="80.099999999999994" customHeight="1"/>
-    <row r="35" ht="80.099999999999994" customHeight="1"/>
-    <row r="36" ht="80.099999999999994" customHeight="1"/>
-    <row r="37" ht="80.099999999999994" customHeight="1"/>
-    <row r="38" ht="80.099999999999994" customHeight="1"/>
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="4" customFormat="1" ht="133.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="4" customFormat="1" ht="192" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="4" customFormat="1" ht="141" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="4" customFormat="1" ht="175.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="4" customFormat="1" ht="175.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="4" customFormat="1" ht="133.5" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="4" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="4" customFormat="1" ht="253.5" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="41" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="42" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="43" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="44" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="45" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="46" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="47" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="48" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="49" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="50" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="51" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="52" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="54" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="55" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="56" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="57" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="58" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="59" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="60" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="61" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="62" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="63" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="64" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="65" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="66" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="67" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="68" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="69" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="70" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="71" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="72" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="73" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="74" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="75" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="76" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="77" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="78" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="79" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="80" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="81" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="82" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="83" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="84" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="85" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="86" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="87" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="88" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="89" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="90" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="91" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="92" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="93" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="94" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="95" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="96" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="97" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="98" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="99" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="100" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="101" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="102" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="103" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="104" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="105" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="106" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="107" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="108" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="109" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="110" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="111" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="112" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="113" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="114" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="115" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="116" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="117" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="118" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="119" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="120" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="121" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="122" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="123" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="124" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="125" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="126" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="127" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="128" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="129" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="130" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="131" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="132" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="133" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="134" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="135" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="136" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="137" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="138" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="139" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="140" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="141" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="142" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="143" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="144" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="145" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="146" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="147" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="148" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="149" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="150" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="151" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="152" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="153" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="154" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="155" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="156" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="157" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="158" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="159" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="160" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="161" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="162" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="163" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="164" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="165" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="166" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="167" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="168" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="169" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="170" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="171" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="172" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="173" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="174" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="175" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="176" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="177" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="178" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="179" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="180" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="181" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="182" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="183" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="184" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="185" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="186" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="187" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="188" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="189" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="190" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="191" s="4" customFormat="1" ht="60" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClusteringEvaluation/超级高铁首测/簇新闻内容.xlsx
+++ b/ClusteringEvaluation/超级高铁首测/簇新闻内容.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>更多精彩视频扫描 关注麻辣烩微信号 比飞机更快！超级高铁首测成功 时速接近音速 ld://live.cqnews.net/vod/data/video/201605/12/fe68e29b-b562-4d92-a95f-2edaa31d9d77/transcode_873c2bd8-d333-1377-b689-01c37cd0.mp4 比飞机更快！超级高铁首测成功 时速接近音速11 分享: 新浪微博 腾讯微博 微信 QQ空间 QQ好友 来源： 第一财经         发布时间： 2016-05-12 简介： 比飞机更快！超级高铁首测成功 时速接近音速 编辑： 邓旻璐 超级高铁 测试 时速 发言请遵守新闻跟帖服务协议 36900316 热点 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 巾帼英雄！90后女生骑电瓶车带警察抓贼 男子冒充上尉骗财骗色 被骗女痴心不改求见面 娱体 angelababy被炮轰没脑子 反对帮小动物结扎 深扒《欢乐颂》众小主荧屏初吻 王凯王子文甜炸羞羞不敢看！ 高圆圆录《蜜蜂少女队》被感动 数度哽咽落泪惹人心疼 军事 兰州舰完成东盟联演 赴西太平洋开展远海训练 中国海军战机夜间训练中坠毁 无人员伤亡 俄研发全球最大洲际导弹 俄媒称可夷平美国德州 更多视频 雷洋案目击者：霍营派出所出警到达时 被控制人已瘫软无法登车 05-12 14:58:00 央视揭药品鬼市黑幕 为什么很多救命药都是假药？ 05-12 14:58:00 乱！男子约男同一夜情 让自己男友进行捉奸敲诈另一男子 05-12 14:57:00 无耻！体育老师骚扰女生 一边摸胸一边指导 05-12 14:49:36 中国第一金库曝光 3万多保险箱24间库房 05-12 14:48:00 北体校花朝天蹬一字马走红 蜂腰翘臀身材火辣 05-12 14:48:00 惊悚！女租客与尸体同住20天 发现时已腐烂 05-12 14:42:57 胆儿肥！美潜水员抚摸鲨鱼 水中似同鲨鱼嬉戏 05-12 14:33:00 人大硕士雷洋之死：值勤民警受访 还原雷洋被抓现场经过 05-12 13:47:00 中国好校长！校长请同学吃必胜客 寓意中考必胜 05-12 12:13:00 冰球场上的追梦女孩 冰球场上的追梦女孩 公交车司机的故事 公交车司机的“风骚”演技 环卫妈妈的假期 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 母亲的良苦用心 “恶毒”的母亲如此对待儿子，居然还是亲妈？ 医保卡可购买健身服务 7月后市民持医保卡 有望购买体育健身服务  市新低保条例五月施行 重庆新低保条例五月起施行 农村按月发放</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,9 +45,6 @@
     <t>5月12日，据国外媒体报道，美国超级高铁首测。据悉，超级高铁初创公司HyperloopOne于当地时间周三在内华达沙漠公开演示了其推进系统原型，来自世界各国的政府官员、投资者、记者和HyperloopOne的员工参加了这次测试。在此次露天测试中，推进装置仅花1.1秒就从0加速到60英里（约97公里），最高时速达到116英里（187公里）。</t>
   </si>
   <si>
-    <t>5月12日消息，本周三美国超级高铁首测，巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。这次测试仅持续了两秒。 　　高铁速度美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合643.7公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，这次测试仅持续了两秒。　</t>
-  </si>
-  <si>
     <t>《财富》网络版报道，在北拉斯维加斯进行的公开试验中，超级高铁Hyperloop One的推进系统成功地在轨道上把一辆滑车加速到116英里(187公里)的时速，然后撞到了一个沙堆上。对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟，未来超级高铁最高时速将达750英里(约合1200公里) 　　测试过程动图 　　超级高铁是由SpaceX和特斯拉首席执行官埃隆·马斯克(Elon Musk)2013年首先提出的，列车能在低压管道内以760英里时速行驶。马斯克对外公布了其超级高铁的基本技术计划，并邀请其他厂商开发相关技术，Hyperloop One和Hyperloop Transportation Technologies(以下简称“HTT”)是首批开发超级高铁技术的两家公司。 　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。” 　　在当地时间周三的试验中，一辆滑车沿着轨道行驶了1000米，旨在演示超级高铁技术的发展。未来试验的重点将是磁悬浮和管道设计。Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 　　HTT当地时间周一宣布，它将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 　　Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。</t>
   </si>
   <si>
@@ -75,21 +72,12 @@
     <t>万众瞩目的超级高铁公司Hyperloop One今天在美国拉斯维加斯北部的沙漠中，完成了首次户外测试。在测试轨道中，测试推进系统以2.5倍重力的推力加速，最终速度达到400英里/小时，约合640公里/小时，撞击到91米外的沙堆减速停车。据了解，测试车辆的发动机和测试轨道类似于两块互斥的磁铁，在约1500磅（680千克）的测试车辆开始启动之后，多块磁铁被激活，给车辆加速。其0-96公里加速仅1.1秒，最高时速约合640公里。 极速640km/h！超级高铁首测视频曝光：百公里加速1.1秒 极速640km/h！超级高铁首测视频曝光：百公里加速1.1秒 此次测试只是该公司的“小鹰号预览”，Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)。Hyperloop One首席技术官罗根·班布罗根（Brogan BamBrogan）表示，Hyperloop One计划到2016年底拥有1/4英里(约合400米)长，包含一系列管道的完整尺寸轨道。而未来，超级高铁运行在完全受控的环境中，坐起来“如电梯般平顺”。 超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克（Elon Musk）在2013年提出，通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。 通过磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱，将在近乎真空的管道中依靠电力运行，时速接近音速。不过，目前Hyperloop One尚未对磁悬浮系统进行测试。Hyperloop One工程高级副总裁约什·吉杰尔(Josh Gienel)表示，公司正在评估动悬浮解决方案，今年晚些时候会对磁悬浮系统和推进系统进行同时测试。</t>
   </si>
   <si>
-    <t>中国证券网讯 美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 “这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘透露。 超级高铁实测情况 乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 超级高铁项目背景 2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。 海通证券研报显示，“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。二级市场上，超级高铁概念曾在A股掀起一股科技热潮，分析指出，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材等品种也可持续跟踪。 斯洛伐克或成首个拥有Hyperloop超级高铁国家 美国超级高铁公司Hyperloop Transportation Technologies周四表示，该公司已经与斯洛伐克政府签订了协议，考虑在该国建设超级高铁。这也使得斯洛伐克成为首个对这种未来交通工具感兴趣的国家。 超级高铁2016年初进行测试 磁悬浮概念受关注 据市场猜测，能达到时速将近1000公里的列车，目前的可行性方案是真空磁悬浮列车，真空磁悬浮列车为世界上最快的交通工具，在科学中已经有了关于此方面的确切定论。 </t>
-  </si>
-  <si>
     <t>Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘透露。 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁招来许多的怀疑，主要和成本有关，而非技术本身。马斯克曾经说过，从旧金山建设一条超级高铁通往洛杉矶，大约需要60亿美元，专家却认为远不止如此。劳埃德称：“我们会降低超级高铁的成本，最终它的成本只有高铁的三分之二，速度却是它的三倍。” 　　为了降低成本，Hyperloop One将设计拆分为各部分，比如悬浮、推进、管道设计，然后尝试用更便宜的材料来制造各部分组件。 　　Hyperloop One的高管们将新式超级高铁比做19世纪建设的Transcontinental Railroad(横贯北美大陆的铁路)和20世纪60年代的登月计划。但是建设横贯北美大陆的铁路是不可避免的，而且土地也是无限的。至于后者，美国向火箭项目投入了一个国家资源。 　　今天的形势不同，Hyperloop One和HTT(Hyperloop Transportation Technologies)碰到了许多障碍，比如土地使用权，现有交通运输企业的阻挠(火车和卡车公司)，它们为了维持现状投入巨额资金。 　　超级高铁的先驱们认为，最终他们会用低成本赢得胜利的果实，一旦超级高铁的胶囊开始投入运营，它可以用极低的能耗维持超高的速度，而且还不会产生碳排放。</t>
   </si>
   <si>
-    <t>中新网5月12日电 据外媒报道，当地时间5月11日，总部位于美国洛杉矶的Hyperloop One公司在内华达州沙漠完成了“超级高铁”Hyperloop推进系统的首度户外测试。“超级高铁”是由美国创业天才马斯克继特斯拉汽车、SpaceX和Paypal之后提出的又一大胆设想。 　　马斯克曾鼓励发明家们将“超级高铁”的创意变成现实。“超级高铁”、也叫“真空管道高速列车系统”，根据马斯克2013年提出的方案，“超级高铁”使用磁悬浮列车在接近真空的管状轨道中行驶，时速可以达到1200公里甚至更高，而声速每小时才1236公里。这意味着从北京到上海只需1小时。 　　在此次露天测试中，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，推进装置仅通过1.1秒就从0加速到每小时116英里的速度(约97公里)，最后撞到一个沙堆上减速停车。 　　多家媒体表示，此次测试成功意义重大。它意味着美国在通过超高速列车变革运输系统的道路上又迈进了一步。 　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。”不过，Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。</t>
-  </si>
-  <si>
     <t>据今日美国报道，超级高铁公司Hyperloop One成功在北拉斯维加斯初步演示了超级高铁系统，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时，约合640公里/小时，撞击到91米外的沙堆减速停车。 此次测试名为“推进系统户外测试”（Propulsion Open Air Test），所以速度距离理想化的成绩很远。之前公司首席执行官Rob Lloyd的所谓最终将加速到时速1125公里被认为要到2019年~2021年载人时才能实现。 公司高管表示，超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里每小时（约合1200公里/小时），旧金山和洛杉矶之间的旅程只需要30分钟。 超级高铁的概念始于2013年，当时SpaceX和特斯拉公司CEO埃隆·马斯克（Elon Musk）最先提出使用磁悬浮技术，以超过飞机飞行的速度运送乘客在相隔几百英里的城市间往返。</t>
   </si>
   <si>
-    <t>网易科技讯 5月12 日消息，本周三美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合644公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，加速测试仅持续了两秒。 超级高铁首测成功 预计2021年实现客运最终极速1207公里/小时 “我们站在圣地上，” 总部位于洛杉矶的Hyperloop One的联合创始人谢尔文·皮谢瓦（Shervin Pishevar）这样说道，Hyperloop One是希望研发新科技以商业化革新性的交通新形式的少数公司之一。“这主要是证实硬件和软件，” Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)这样说道。“我们的目标是在两秒内加速到400英里（约合644公里）每小时的速度。在今年底，我们希望进行完整的测试，利用我们既定的推进力加速管道里的滑车。” 届时测试还将在这片沙漠进行。研究小组将建造一个3英里（约合4.8英里）长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁诞生地。” 巴姆布罗甘说道。 巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。 在洛杉矶，公司测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。“如果这次测试获得的成果可以被复制和应用，我认为2019年就可以实现装载货物，2021年实现运输乘客。”公司CEO劳柏•洛依德（Rob Lloyd）这样说道。 Hyperloop One的高管们喜欢将这种新的交通模式比作19世纪建造的横贯大陆的铁路，以及20世纪60年代前往月球的竞争。现在Hyperloop One和同样位于洛杉矶的超回路列车运输技术(Hyperloop Transportation Technologies)面临了各种困难障碍，包括土地使用权和现有的交通方式——火车和货车公司，后者获得了财政性投资以维持现有的市场地位。 超级高铁的拥护者认为他们的技术将胜出，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放，后者被认为是全球变暖至关重要的元素。 本周二超级高铁宣布它已经获得了8000万美元的B轮融资，以继续科研和研发测试，现在公司市值接近1.2亿美元。超级高铁的概念始于2013年，当时SpaceX和特斯拉公司CEO埃隆·马斯克（Elon Musk）最先提出使用磁悬浮技术，以超过飞机飞行的速度运送乘客在相隔几百英里的城市间往返。SpaceX资助了一项竞争以寻求超级高铁的技术解决方案，但它并不会成立一个与这一创新相关的公司。皮谢瓦会见了马斯克并询问他是否可以开发这一技术的商业潜力。马斯克的回答？当然是OK，因为马斯克正忙于派送人类前往火星呢，皮谢瓦笑着说道。（艾米丽） 标签： 超级高铁首测 超级高铁速度 超级高铁测试 马斯克超级高铁项目 超级高铁有多快 ( 责任编辑:唐克玺)</t>
-  </si>
-  <si>
     <t>据外媒报道，特斯拉创始人埃隆.马斯克提出的“超级高铁”（Hyperloop）运输系统将于今天在美国内华达州拉斯维加斯郊区的沙漠测试场进行首次公开演示。这套系统是马斯克2013年首次提出的，方法是让乘客进入压力管道中，以近乎音速的时速运行，届时从洛杉矶到旧金山只要35分钟。 　　超级高铁被称之为第五种交通运输方式，在接近真空的管道内实现接近音速的速度。目前的可行性方案只有真空磁悬浮技术，列车和轨道将大量采用稀土永磁材料。 　　分析表示：超级高铁概念曾在A股掀起一股科技热潮，中科电气（行情300035，买入）等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环（行情000970，买入）、江粉磁材（行情002600，买入）、正海磁材（行情300224，买入）、银河磁体（行情300127，买入）等品种也可持续跟踪。 　　中科电气：致力于电磁冶金整体解决方案、集现代制造和现代服务于一体的高新技术企业及软件企业。2013年12月11日，公司研制的新产品――电永磁混合悬浮磁铁，通过国防科技大学的出厂验收，发往试验现场。该批次电永磁混合悬浮磁铁将用于北京控股磁悬浮技术发展有限公司与国防科技大学联合研制的中低速磁浮试验样车上。目前公司重点研发方向是中间包电磁感应加热装置的优化设计和磁悬浮列车用电永磁混合悬浮磁铁研制。随着磁悬浮技术应用拓展，公司未来有望充分受益。 　　江粉磁材：公司是目前国内最大的铁氧体磁性材料元件制造商之一，主营产品为铁氧体永磁元件、铁氧体软磁元件等磁性材料元件及其制品，2013年永磁铁氧体产能大约是4万吨；软磁铁氧体为7000吨；粘结钕铁硼年产值约3000万元。产品是广泛应用于汽车、IT、办公设备、电动工具、家用电器领域，销往日本、香港、台湾、美国等著名电机生产厂家。磁悬浮应用取得突破，将为公司带来新的发展机遇。 　　中科三环：公司是国内钕铁硼永磁材料行业先锋与领军企业，产能与产量居国内最大、全球前列。公司拥有一支高素质的研发队伍，研究骨干源自中科院物理所磁学研究部，与中科院物理所具有深厚的渊源。公司创始人、董事长王震西院士早年曾在法国国家磁学实验室师从诺贝尔奖获得者、世界著名科学家奈尔教授，回国后一直致力于稀土磁性材料的研究。此前公司透露钕铁硼永磁悬浮技术仍在试验阶段，没有商业应用。在强大的研究团队支持下，未来公司有望在磁悬浮领域开创新的篇章。 　　正海磁材：公司是专业生产高性能磁性材料及磁体组件的高新技术企业，凭借具有自主知识产权的正海无氧工艺（ZHOFP）技术和世界一流的生产检测设备，能够批量生产当今世界顶级30多个牌号的烧结钕铁硼磁体。公司产品被广泛应用于信息产业、汽车行业、电力设备、家用电器、石油化工、机械制造、航空航天、医疗器械等领域，产品综合品质达到世界一流水平，赢得了国内外客户的一致赞誉。 　　银河磁体：公司主营粘结钕铁硼稀土磁体元件或部件的研发、设计、生产和销售。公司粘结钕铁硼磁体包括：光盘驱动器主轴电机磁体、硬盘驱动器主轴电机磁体、汽车微电机磁体、步进电机磁体以及各类永磁无刷直流电机转子组件等磁体零部件，产品广泛应用于信息技术、消费类电子、通信、节能家电、汽车、办公自动化设备等多种领域。</t>
   </si>
   <si>
@@ -108,12 +96,6 @@
     <t>第五种交通方式有望出炉：飞机、火车、骑车、船和超级高铁。 　　声速每小�r1236公里，而伊隆·马斯克参与设计的超级高铁将达到每小时1200公里，大约一小时可以让你从北京到上海。 　　想象把你放在一个胶囊里，嗖一下，从管道里喷到海对岸。 　　 　　这已经不光是动画片里的景象，而已经变成是钢铁侠伊隆·马斯克除了Space X上天计划，特斯拉电动车计划外的第三个梦想：超级高铁（Hyperloop）。 　　今天超级高铁在美国内华达州，毗邻赌城拉斯维加斯的一片无人沙漠里获得了它的首次公测成功。这里是今天实地公测的动图： 　　 　　具体视频戳这里： 　　这场测试大概持续了4秒钟。全程全直线设计，测试长度约为5公里，从静止到640公里每小时加速只用了2秒。 　　图为未拼接的管道 　　 　　进行测试的其实并不是伊隆·马斯克本人，而是一家昨天刚刚更名为Hyperloop One的公司。他们同另一家公司Hyperloop Transportation Technologies (HTT) 作为两个候选公司之一，按照伊隆·马斯克长达58页的白皮书Hyperloop Alpha进行超级高铁的研发。 　　这家公司的CTO 也是创始人之一Brogan BamBrogan告诉记者，“他们接下来会在年底进行一次完整的测试。” 　　面对民众对于超级高铁速度如此之快，舒适度会不会成为问题的质疑时，这位创始人表示乘客坐在内部并不会感受到强烈的加速，且载人启动时会设计得更加和缓一些，会逐步达到最高时速1200公里每小时。 　　此外，他表示，到2019年，超级高铁有望载货，2021年，它有望载客。满打满算，我们再15年就可以见证奇迹了。 　　不过，不要高兴得过早, 今天的公测只是整个复杂的系统中的一部分，离最终成功还有非常遥远的距离，而现实生活中高昂的造价也是一个看起来非常棘手的问题。不过，此次公测至少证明这个概念具有一定可行性，而不只是“钢铁侠”的胡思乱想。 　　这个2013年最早由特斯拉创始人伊隆·马斯克提出的超级高铁项目也被称为胶囊列车，是一种以“真空钢管运输”为理论核心设计的交通工具，具有超高速、高安全、低能耗、噪声小、污染小等特点。Hyperloop One需要打造一个部分真空的管道，将密封舱悬浮在管道内，靠扇页推动密封舱前进，并从管道壁中的电磁体获取额外推力。 　　在马斯克的设想中，从洛杉矶到旧金山只需要35分钟，目前飞机需要1小时25分钟左右。 　　 　　也就是说，这种属于未来的第五种交通方式也将成为最快的一种交通方式，甚至比飞机快一倍以上（算上飞机起落时间）。而它的最快时速可超过1200千米／小时，也远远超过了其他交通方式。 　　 　　按照马斯克的描述，这样的超级高铁一趟最多只能容纳28人，但可以做到每两分钟发一趟车。 　　不过，钢铁侠伊隆·马斯克励志开发超级高铁的最主要原因还是归结于美国铁路发展的落后。按照现有的加州铁路速度，从洛杉矶到旧金山640公里（仅为北京到上海的一半）需要花费13个小时，同样的距离中国高铁大概只需要2.5小时就到了（骄傲脸）。</t>
   </si>
   <si>
-    <t>据英国《每日邮报》报道，美国当地时间5月11日，马斯克的疯狂计划――时速接近音速的超级高铁将进行首次测试。 这次测试在美国拉斯韦加斯北部的工业园区完成，整个测试将持续两天。 超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125公里每小时）。” （责任编辑： HN666）</t>
-  </si>
-  <si>
-    <t>比飞机更快的超级高铁首测成功 2秒提速至186公里/时 发稿时间：2016-05-12 11:14:00 来源： 综合 中国青年网 我要评论 　　据每日邮报报道，今天（当地时间周三）埃隆-马斯克（Elon Musk）的超高速高铁（Hyperloop）模型进行演示，其推进器成功将一辆金属滑车在短短两秒之内提速到了每小时116英里（约186公里），超级高铁的概念早在2013年由马斯克提出，他宣称建成后从洛杉矶到旧金山只需要35分钟。（转载请注明出处，更多精彩内容来自腾讯国际新闻微信公众号“糖醋国际”。） 原标题:比飞机更快的超级高铁首测成功 2秒提速至186公里/时 责任编辑：杨晓霖 返回首页&gt;&gt; 猜你喜欢</t>
-  </si>
-  <si>
     <t>近日，超级高铁首测时时速达到1207.008千米，而音速为1224千米/小时，网友表示：超级高铁时速秒杀飞机，以后可以乘坐高铁了，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 　　据CNBC美国当地时间5月11日报道，美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　</t>
   </si>
   <si>
@@ -121,36 +103,274 @@
   </si>
   <si>
     <t>点击查看&gt;&gt;&gt;个股研报 个股盈利预测 行业研报 　　马斯克超级高铁首测成功 4股有望爆发 　　美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环、江粉磁材、正海磁材以及早期在磁悬浮列车有过经验的公司如中科电气等有望受益。 　　【个股研报】 　　中科三环：毛利企稳，短期充分受益稀土价格上涨 　　中科三环发布2016 年一季报。公司实现销售收入7.9 亿元，同比下滑2.33%，实现归属于母公司净利润6257.86 万元，同比增长1.84%，实现eps 0.059元(去年四单季0.084 元)；受产品价格下跌拖累，公司销售毛利率延续下滑，报告期内环比下滑2.9 个百分点，同比上升2 个百分点，至23.79%。 　　产品价格处于底部，销量放缓拖累公司业绩。报告期内，公司毛利率环比四季度单季下滑2.9 个百分点，但与2015 全年相比则微升0.37 个百分点。我们认为目前的钕铁硼价格处于历史底部区域，继续下跌的空间较小，毛利率有望保持稳定。然而需求下滑导致销量放缓成为拖累公司业绩的主要因素。我们认为，去年是钕铁硼价格探底的一年，而今年将是磁材龙头公司销量增速探底的一年，我们认为随着新能源汽车，节能环保等领域需求的稳步增长，中长期依然看好销量增速回升。 　　短期充分受益稀土价格上涨。一季度末，公司存货账面价值9.37 亿，存货占市值比位于A 股主流磁材公司第一。我们认为，公司作为国内钕铁硼龙头企业，稀土价格上涨有利于产品价格及毛利的回升，相比A股其他磁材公司，三环稀土存货弹性最大，短期将充分受益稀土价格上涨。 　　与日立合作稳步推进，中长期发展前景可期。公司与日立金属合作建厂正在稳步推进中，三环将巩固自己国内高性能钕铁硼行业的龙头地位，享受中国新能源汽车市场的快速成长。另一方面，作为中国高端制造代表，公司将长期受益于“中国制造2025”这一国家战略，其中高档数控机床和机器人、先进轨道交通装备、节能与新能源汽车、电力装备、新材料、农业机械装备等重点领域都将提升市场对钕铁硼的需求。公司中长期发展前景依然向好。 　　投资建议：维持“买入”评级。我们认为钕铁硼价格已经处于历史底部，毛利继续下滑空间较小，短期作为存货弹性最大的磁材公司将充分受益稀土价格上涨；中长期市场需求将极大受益新能源汽车及其他中国高端制造业发展。预计2016-2018 年eps 分别为0.28,0.35 和0.38元，维持“买入”评级。(长江证券) 　　正海磁材：双核发力，增长可期 　　事件： 　　公司发布 2016年第一季度报告，实现营收 3.36亿元，同比增长 63.50%，归母净利润 3178.65 万元，同比增长 18.74%。公司营收与净利润的增长主要源自去年定增收购的上海大郡并表。 　　上海大郡业绩超预期，定增引战再加码 　　上海大郡 2015 年扣非净利润 3306.83 万元，远超 2000 万元业绩承诺。2015 年是新能源汽车的腾飞年，上海大郡生产的新能源汽车电机国内领先，并主打国内高端市场，产品技术附加值高。乘用车客户包括上汽、东风、长安、北汽、广汽等一线主机厂。未来新能源汽车的流行将是不可逆转的大趋势，上海大郡是这条高速成长产业链上的核心部件生产商，且具有技术壁垒，未来业绩爆发可持续。 　　正海磁材近期发布定增预案，推出 12 亿元三年期定增，公告用途为补充流动资金。我们认为公司将加大新能源汽车电机驱动系统的生产及研发投入，紧跟市场快速成长的步伐。 此外定增认购对象中包括上汽投资，是上汽集团旗下资本运作平台，此次入股可视作战略投资。 　　稀土资源整合进入下半场，供给侧改革促周期反转 　　稀土是公司钕铁硼永磁材料的上游环节。 2015 年组建六大稀土集团，行业集中度已获得提高，近期商业收储已启动，国储也有望跟进。稀土行业资源整合已进入下半场，后续重点看打黑。新能源汽车的爆发也为钕铁硼永磁材料的需求端提供了增量，稀土行业最快今年可走出底部。公司生产的钕铁硼永磁材料定价采取成本加成模式，价格随稀土价格波动，稀土价格上涨时公司产品会有更强议价能力，从历史财务数据也可看出在稀土价格较高的年份，公司有更高毛利率。 　　盈利预测与投资建议 　　公司已形成钕铁硼永磁材料、新能源汽车电机驱动系统两大主业，且具有协同效应，双核发力，增长可期。预计公司 2016 年至 2018 年 EPS分别为 0.52、 0.65、 0.82 元，给予“推荐”评级。 　　风险提示华融证券 　　1，新能源汽车推广低于预期； 2，稀土价格剧烈波动。(华融证券) (责任编辑：DF154)</t>
-  </si>
-  <si>
-    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德（Rob Lloyd） 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)透露。 　　 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 图片来自网络 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 东方IC 资料 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（ Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克(Elon Musk)在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 　　除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 　　马斯克本人也在推特上透露，旗下的SpaceX公司有计划建立一个用于研发“超级高铁”技术的测试轨道，他表示“最有可能在德克萨斯州实现”。 　　虽然目前超级高铁有待解决的问题还有很多，但是超级高铁的用户者认为，在未来超级高铁一定会被全面推广，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t> 美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。     “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>更多精彩视频扫描 关注麻辣烩微信号 比飞机更快！超级高铁首测成功 时速接近音速 ld://live.cqnews.net/vod/data/video/201605/12/fe68e29b-b562-4d92-a95f-2edaa31d9d77/transcode_873c2bd8-d333-1377-b689-01c37cd0.mp4 比飞机更快！超级高铁首测成功 时速接近音速11 分享: 新浪微博 腾讯微博 微信 QQ空间 QQ好友 来源： 第一财经         发布时间： 2016-05-12 简介： 比飞机更快！超级高铁首测成功 时速接近音速 编辑： 邓旻璐 超级高铁 测试 时速 发言请遵守新闻跟帖服务协议 36900316 热点 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 巾帼英雄！90后女生骑电瓶车带警察抓贼 男子冒充上尉骗财骗色 被骗女痴心不改求见面 娱体 angelababy被炮轰没脑子 反对帮小动物结扎 深扒《欢乐颂》众小主荧屏初吻 王凯王子文甜炸羞羞不敢看！ 高圆圆录《蜜蜂少女队》被感动 数度哽咽落泪惹人心疼 军事 兰州舰完成东盟联演 赴西太平洋开展远海训练 中国海军战机夜间训练中坠毁 无人员伤亡 俄研发全球最大洲际导弹 俄媒称可夷平美国德州 更多视频 雷洋案目击者：霍营派出所出警到达时 被控制人已瘫软无法登车 05-12 14:58:00 央视揭药品鬼市黑幕 为什么很多救命药都是假药？ 05-12 14:58:00 乱！男子约男同一夜情 让自己男友进行捉奸敲诈另一男子 05-12 14:57:00 无耻！体育老师骚扰女生 一边摸胸一边指导 05-12 14:49:36 中国第一金库曝光 3万多保险箱24间库房 05-12 14:48:00 北体校花朝天蹬一字马走红 蜂腰翘臀身材火辣 05-12 14:48:00 惊悚！女租客与尸体同住20天 发现时已腐烂 05-12 14:42:57 胆儿肥！美潜水员抚摸鲨鱼 水中似同鲨鱼嬉戏 05-12 14:33:00 人大硕士雷洋之死：值勤民警受访 还原雷洋被抓现场经过 05-12 13:47:00 中国好校长！校长请同学吃必胜客 寓意中考必胜 05-12 12:13:00 冰球场上的追梦女孩 冰球场上的追梦女孩 公交车司机的故事 公交车司机的“风骚”演技 环卫妈妈的假期 怒吼“脏妈妈”！爱慕虚荣的女儿终于如愿 母亲的良苦用心 “恶毒”的母亲如此对待儿子，居然还是亲妈？ 医保卡可购买健身服务 7月后市民持医保卡 有望购买体育健身服务  市新低保条例五月施行 重庆新低保条例五月起施行 农村按月发放</t>
-  </si>
-  <si>
-    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券(600837,股吧)认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环(000970,股吧)、江粉磁材(002600,股吧)、正海磁材(300224,股吧)以及早期在磁悬浮列车有过经验的公司如中科电气(300035,股吧)等有望受益。 </t>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟。 这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克在2013年提出，他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。超级高铁Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)，与此同时，民航客机的速度一般为900公里/小时，波音747巡航速度最快是将近1120公里/小时。 超级高铁的创始人兼CEO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时（约643公里）。” 图为超级高铁准备进行测试。 在当地时间周三的试验中，一辆滑车沿着轨道行驶了1000米，旨在演示超级高铁技术的发展。未来试验的重点将是磁悬浮和管道设计。Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 图为超级高铁准备进行测试。 HTT当地时间周一宣布，它将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 图为运行中的超级高铁。Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。 图为运行中的超级高铁。 图为运行中的超级高铁。 图为运行中的超级高铁。 测试过程动图</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北 相关公司股票走势 中国银行 海通证券 中科电气 中科三环 江粉磁材 边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘透露。 　　超级高铁实测情况 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 测试过程动图 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁项目背景 　　2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 　　除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。 　　海通证券研报显示，“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。二级市场上，超级高铁概念曾在A股掀起一股科技热潮，分析指出，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材等品种也可持续跟踪。</t>
+  </si>
+  <si>
+    <t>Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘透露。 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁招来许多的怀疑，主要和成本有关，而非技术本身。马斯克曾经说过，从旧金山建设一条超级高铁通往洛杉矶，大约需要60亿美元，专家却认为远不止如此。劳埃德称：“我们会降低超级高铁的成本，最终它的成本只有高铁的三分之二，速度却是它的三倍。” 　　为了降低成本，Hyperloop One将设计拆分为各部分，比如悬浮、推进、管道设计，然后尝试用更便宜的材料来制造各部分组件。 　　Hyperloop One的高管们将新式超级高铁比做19世纪建设的Transcontinental Railroad(横贯北美大陆的铁路)和20世纪60年代的登月计划。但是建设横贯北美大陆的铁路是不可避免的，而且土地也是无限的。至于后者，美国向火箭项目投入了一个国家资源。 　　今天的形势不同，Hyperloop One和HTT(Hyperloop Transportation Technologies)碰到了许多障碍，比如土地使用权，现有交通运输企业的阻挠(火车和卡车公司)，它们为了维持现状投入巨额资金。 　　超级高铁的先驱们认为，最终他们会用低成本赢得胜利的果实，一旦超级高铁的胶囊开始投入运营，它可以用极低的能耗维持超高的速度，而且还不会产生碳排放。</t>
+  </si>
+  <si>
+    <t> 5月12日消息，本周三美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合643.7公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，这次测试仅持续了两秒。  　　“我们站在圣地上，”总部位于洛杉矶的Hyperloop One的联合创始人谢尔文・皮谢瓦（Shervin Pishevar）这样说道，Hyperloop One是希望研发新科技以商业化革新性的交通新形式的少数公司之一。“这主要是证实硬件和软件，”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘(Brogan BamBrogan)这样说道。“我们的目标是在两秒内加速到400英里每小时的速度。在今年底，我们希望进行完整的测试，利用我们既定的推进力加速管道里的滑车。” 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁诞生地。”巴姆布罗甘说道。 　　巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。 　　在洛杉矶，公司测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。“如果这次测试获得的成果可以被复制和应用，我认为2019年就可以实现装载货物，2021年实现运输乘客。”公司CEO劳柏・洛依德（Rob Lloyd）这样说道。 　　Hyperloop One的高管们喜欢将这种新的交通模式比作19世纪建造的横贯大陆的铁路，以及20世纪60年代前往月球的竞争。现在Hyperloop One和同样位于洛杉矶的超回路列车运输技术(Hyperloop Transportation Technologies)面临了各种困难障碍，包括土地使用权和现有的交通方式――火车和货车公司，后者获得了财政性投资以维持现有的市场地位。 　　超级高铁的拥护者认为他们的技术将胜出，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放，后者被认为是全球变暖至关重要的元素。 　　本周二超级高铁宣布它已经获得了8000万美元的B轮融资，以继续科研和研发测试，现在公司市值接近1.2亿美元。超级高铁的概念始于2013年，当时SpaceX和特斯拉公司CEO埃隆・马斯克（Elon Musk）最先提出使用磁悬浮技术，以超过飞机飞行的速度运送乘客在相隔几百英里的城市间往返。SpaceX资助了一项竞争以寻求超级高铁的技术解决方案，但它并不会成立一个与这一创新相关的公司。皮谢瓦会见了马斯克并询问他是否可以开发这一技术的商业潜力。马斯克的回答？当然是OK，因为马斯克正忙于派送人类前往火星呢，皮谢瓦笑着说道。</t>
+  </si>
+  <si>
+    <t>外媒报道，当地时间5月11日，总部位于美国洛杉矶的Hyperloop One公司在内华达州沙漠完成了“超级高铁”Hyperloop推进系统的首度户外测试。“超级高铁”是由美国创业天才马斯克继特斯拉汽车、SpaceX和Paypal之后提出的又一大胆设想。   　　马斯克曾鼓励发明家们将“超级高铁”的创意变成现实。“超级高铁”、也叫“真空管道高速列车系统”，根据马斯克2013年提出的方案，“超级高铁”使用磁悬浮列车在接近真空的管状轨道中行驶，时速可以达到1200公里甚至更高，而声速每小时才1236公里。这意味着从北京到上海只需1小时。   　　在此次露天测试中，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，推进装置仅通过1.1秒就从0加速到每小时116英里的速度(约97公里)，最后撞到一个沙堆上减速停车。   　　多家媒体表示，此次测试成功意义重大。它意味着美国在通过超高速列车变革运输系统的道路上又迈进了一步。   　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。”不过，Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。</t>
+  </si>
+  <si>
+    <t>超级高铁首测仅2秒钟 意义堪比莱特兄弟首飞成功 IT指北针 2016-05-12 18:16:48 测试 高铁 公司 阅读(0) 评论() 声明：本文由入驻搜狐公众平台的作者撰写，除搜狐官方账号外，观点仅代表作者本人，不代表搜狐立场。举报 　　5月12日消息，据国外媒体报道， Hyperloop One这个肩负改变未来交通系统的初创企业刚刚在内华达沙漠向外界展示其研发的超级高铁项目。这个类似管道管道胶囊设计的金属火箭滑车成功在2秒内加速至 400英里（约合644公里）的时速，然后撞击在91米外的沙堆里，加速测试仅持续了2秒。 　　超级高铁测试现场，一个救援车 　　测试时掀起的尘烟 　　测试成功之后，联合创始人兼主席Shervin Pishevar (左)；公司CEO Rob Lloyd (中) ；公司联合创始人兼CTO Brogan BamBrogan (右) 　　测试完成后，一辆救援车和测试雪橇在铁轨上 http://mt.sohu.com/20160512/n449071816.shtml mt.sohu.com true IT指北针 http://mt.sohu.com/20160512/n449071816.shtml report 964 5月12日消息，据国外媒体报道，HyperloopOne这个肩负改变未来交通系统的初创企业刚刚在内华达沙漠向外界展示其研发的超级高铁项目。这个类似管道管道胶囊设 阅读(0) 举报 欢迎举报抄袭、转载、暴力色情及含有欺诈和虚假信息的不良文章。 0喜欢 请先登录再操作 0没劲 请先登录再操作 分享到 微信扫一扫 分享至朋友圈 热门关注 搜生活+关注 搜狐公众平台官方账号 MAGIC杨梦晶+关注 生活时尚&amp;搭配博主 /生活时尚自媒体 /时尚类书籍作者 搜狐教育+关注 搜狐网教育频道官方账号 星吧GEO+关注 全球最大华文占星网站-专业研究星座命理及测算服务机构 IT指北针 敏锐的嗅觉、独到的见解、高效的执行，带你挖掘行业背后的故事... 0阅读量 1025文章数 0评论数 热词： 连中百万 蔡少芬索吻 校服情侣 被黑熊监视 热门图片 床事上瘾的十大女星 公开承认性欲强的明星 剧中惨遭蹂躏的女星 女星与干爹的恩怨情仇 热点视频 影视剧 综艺 原创 看黄片副局长已被停职 小学开课教掼蛋合适吗 空姐招聘现场美腿抢镜 准妈妈堕胎捐骨髓救妹 辣条生产场地环境肮脏 百岁老太高空跳伞庆生 &lt;�潘磕惺�4&gt;爆笑开机 刘欢回应二当冠军导师 神雕侠侣-大结局 同步热播-锦绣缘 同步热播-锦绣缘 主演：黄晓明/陈乔恩/乔任梁/谢君豪/吕佳容/戚迹 大结局-神雕侠侣 主演：陈晓/陈妍希/张馨予/杨明娜/毛晓彤/孙耀琦 同步热播-封神英雄榜 主演：陈键锋/李依晓/张迪/郑亦桐/张明明/何彦霓 六颗子弹 主演：尚格・云顿/乔・弗拉尼甘/Bianca Bree 龙虎少年队2 主演：艾斯・库珀/ 查宁・塔图姆/ 乔纳・希尔 《奔跑吧兄弟》 baby14岁写真曝光 《我看你有戏》 李冰冰向成龙撒娇争宠 《明星同乐会》 李湘遭闺蜜曝光旧爱 《非你莫属》 美女模特教老板走秀 《一站到底》 曝搬砖男神奇葩择偶观 搜狐视频娱乐播报 柳岩被迫成赚钱工具 大鹏�N吧�N 大屁小P虐心恋 匆匆那年第16集 匆匆那年大结局 隐秘而伟大第二季 乔杉遭粉丝骚扰 The Kelly Show 男闺蜜的尴尬初夜 我来说两句排行榜 874 雷洋之死，声誉和人命哪个更重要？ [评] 1066 汶川地震8周年 遇难者家属祭奠亲人 [评] 1016 法战舰现中国南海 与美航母编队巡航 [评] 881 戛纳谜之开幕：毯星压轴！&amp;lt;盗墓笔记&amp;gt;集体迟到 [评] 658 辽宁舰一夜成军 10架歼15同时现身甲板 [评] 776 王思聪刷卡像买菜 购百万级豪车亲自试驾-娱乐频道图片库-大视野-搜狐 [评] 733 佛山监狱女警不满考核排末位大闹会场 纪检介入 [评] 客服热线：86-10-58511234 客服邮箱：kf@vip.sohu.com</t>
+  </si>
+  <si>
+    <t>据美国科技媒体CNET 5月11日报道,“想象一下你住在旧金山，伴侣在500英里外的圣地亚哥，而你上班的地点在洛杉矶”，听起来用一天时间跑遍这三个地点难以置信又浪费时间，但超级高铁的诞生让“瞬间转移”成为可能。 　　美国科技公司Hyperloop One在拉斯维加斯利用测试轨道测试了超级高铁的推进系统。超级高铁Hyperloop One的推进系统成功地在轨道上把一辆滑车加速到116英里(187公里)的时速，然后撞到了一个沙堆上。对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟，未来超级高铁最高时速将达750英里(约合1200公里)。 　　超级高铁的概念由特斯拉和SpaceX的CEO埃隆•马斯克在2013年首次提出，其目的是在未来建立一个超级高铁交通网，通过将一个搭载10-30名乘客的悬浮吊舱送入真空管道，并利用磁力，使得吊舱以700英里的时速运行，且达到1秒内从0加速至60英里时速的效果。公司预计将在2016年建造更大规模的系统进行测试，在2019年进行货物运输，并有望在2021年开始正式载客运行。 　　据了解，超级高铁公司此前在第二轮融资中已募得8000万美元资金，并发布了“超级高铁全球挑战”项目，全世界的个人、公司和政府都可以成为第一批使用者。超级高铁公司提供技术，挑战者提交方案，全面说明如何让该技术在当地落地实施。</t>
+  </si>
+  <si>
+    <t>据外媒报道，美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里（约合1230公里/小时）。不过Hyperloop One的首席执行官罗布路劳埃德表示，全面的测试需要等到2016年年底进行。 　　报道称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。</t>
+  </si>
+  <si>
+    <t>TechWeb报道5月12日消息，据国外媒体报道， Hyperloop One这个肩负改变未来交通系统的初创企业刚刚在内华达沙漠向外界展示其研发的超级高铁项目。这个类似管道管道胶囊设计的金属火箭滑车成功在2秒内加速至400英里（约合644公里）的时速，然后撞击在91米外的沙堆里，加速测试仅持续了2秒。 超级高铁测试现场，一个救援车 测试时掀起的尘烟 测试完成后，一辆救援车和测试雪橇在铁轨上 　　HperloopOne设计的金属火箭滑车（媒体成为“超级高铁”）首次公开展示，未来，它将以每小时1125千米的速度，运输货物和方便人们出行。这家公司希望能够完成马斯克在2013年提出的疯狂构想，让乘客进入压力管道中，以近乎音速的时速运行。 马斯克在2013年首次提出超级高铁概念 　　这项研究和测试的目的并非简单地让Hyperloop项目成为现实，其真正的目的是以较少的成本让全世界关注这项科技，从而推广这项技术， 　　Hyperloop One的联合创始人ShervinPishevar对一位现场的记者表示，“这对我们团队来说是个意义重大的时刻。我们站在圣地上，团队成员经过十分辛苦的工作，才最终站在了我们的‘Kitty Hawk（基蒂霍克）’镇，并测试成功。”（TechWeb注：位于美国北卡罗莱纳州的小镇基蒂霍克，是莱特兄弟在1903年第一次成功飞行动力飞机的地方，也因此载入史册。） 　　Hyperloop One的联合创始人兼首席科技官BroganBamBrogan表示，“我们的这次目标是在两秒内加速到400英里（约合644公里）每小时的速度。”他承诺，公司会在今年年底完成全程全程2千米的更全面的测试。“ 　　年底的测试还将在这片沙漠进行，研究小组将建造一个3里（约合4.8英里）长的轨道，一个电缆塔将支撑管道悬浮在地面上方。Brogan BamBrogan说道，“这里就是超级高铁诞生地。” 　　公司CEO RobLloyd对这次测试称，“我们离超级高铁投入使用又近了一步，公司希望在2019年让超级高铁在轨道上运行，在2021年能够成功在Hyperloo上安全运送乘客。”（露天） Hyperloop各种指标宣传，洛杉矶到旧金山只要35分钟 现场体验参观的人 联合创始人兼主席Shervin Pishevar现场接受采访 人们参观超级高铁推进系统 超级高铁概念图 　　TechWeb报道5月12日消息，据国外媒体报道， Hyperloop One这个肩负改变未来交通系统的初创企业刚刚在内华达沙漠向外界展示其研发的超级高铁项目。这个类似管道管道胶囊设计的金属火箭滑车成功在2秒内加速至400英里（约合644公里）的时速，然后撞击在91米外的沙堆里，加速测试仅持续了2秒。 超级高铁测试现场，一个救援车 测试时掀起的尘烟 测试完成后，一辆救援车和测试雪橇在铁轨上 </t>
+  </si>
+  <si>
+    <t>第一黄金网5月12日最新消息：据外媒报道，当地时间周三(5月11日)，美国超级高铁公司进行了超级高铁首次测试，最高时速达到1125千米每小时。那么，这一事件会利好哪些股票呢? 本周三美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里(约合643.7公里)每小时的速度，然后撞击在91米外的沙堆里。 前往遥远的测试设施需要40分钟，这次测试仅持续了两秒。 超级高铁被称之为第五种交通运输方式，在接近真空的管道内实现接近音速的速度。目前的可行性方案只有真空磁悬浮技术，列车和轨道将大量采用稀土永磁材料。 分析表示：超级高铁概念曾在A股掀起一股科技热潮，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材、银河磁体等品种也可持续跟踪。 更多超级高铁首测最新消息，股市最新消息，敬请关注第一黄金网。 关注手机第一黄金网（http://m.dyhjw.com），更多市场要闻随时随心阅读</t>
+  </si>
+  <si>
+    <t>2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 东方IC 资料 “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（ Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克(Elon Musk)在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 马斯克本人也在推特上透露，旗下的SpaceX公司有计划建立一个用于研发“超级高铁”技术的测试轨道，他表示“最有可能在德克萨斯州实现”。 虽然目前超级高铁有待解决的问题还有很多，但是超级高铁的用户者认为，在未来超级高铁一定会被全面推广，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放。 5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。</t>
+  </si>
+  <si>
+    <t>5月12日，美国创业公司Hyperloop One在拉斯维加斯对其推进系统进行了首次测试。 http://upload.tetimes.com/2016/0512/1463034467257.jpg 5月12日，美国创业公司Hyperloop One在拉斯维加斯对其推进系统进行了首次测试。 http://upload.tetimes.com/2016/0512/thumb_228__1463034467257.jpg 整个试验过程持续了不到2秒钟，未来超级高铁最高时速将达750英里（约合1200公里）。 http://upload.tetimes.com/2016/0512/1463033877920.jpg 整个试验过程持续了不到2秒钟，未来超级高铁最高时速将达750英里（约合1200公里）。 http://upload.tetimes.com/2016/0512/thumb_228__1463033877920.jpg 超级高铁是由SpaceX和特斯拉首席执行官埃隆·马斯克(Elon Musk)2013年首先提出的，列车能在低压管道内以760英里时速行驶。 http://upload.tetimes.com/2016/0512/1463033877465.jpg 超级高铁是由SpaceX和特斯拉首席执行官埃隆·马斯克(Elon Musk)2013年首先提出的，列车能在低压管道内以760英里时速行驶。 http://upload.tetimes.com/2016/0512/thumb_228__1463033877465.jpg 超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时（约643公里）。” http://upload.tetimes.com/2016/0512/1463033877363.jpg 超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时（约643公里）。” http://upload.tetimes.com/2016/0512/thumb_228__1463033877363.jpg Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 http://upload.tetimes.com/2016/0512/1463033877242.jpg Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 http://upload.tetimes.com/2016/0512/thumb_228__1463033877242.jpg Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。来源 腾讯国际新闻 凤凰科技 编辑 波塞冬 http://upload.tetimes.com/2016/0512/1463033877119.jpg Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。来源 腾讯国际新闻 凤凰科技 编辑 波塞冬 http://upload.tetimes.com/2016/0512/thumb_228__1463033877119.jpg</t>
+  </si>
+  <si>
+    <t>据每日邮报报道，今天(当地时间周三)埃隆-马斯克(Elon Musk)的超高速高铁(Hyperloop)模型进行演示，其推进器成功将一辆金属滑车在短短两秒之内提速到了每小时116英里(约186公里)，超级高铁的概念早在2013年由马斯克提出，他宣称建成后从洛杉矶到旧金山只需要35分钟。(据腾讯国际新闻) 今天超级高铁的首次公开测试在内华达沙漠圆满完成，这场时长仅几秒的户外演示在一条1000米长的的金属轨道上进行，两秒后速度提到每小时116英里(约186公里)，滑车撞上沙堆停了下来。 今天的演示仅仅测试了超级高铁复杂系统的一部分性能，使用的也是普通轨道而非半真空轨道。超级高铁公司Hyperloop One将于今年底测试完整的超级高铁系统，未来试验的重点将是磁悬浮和管道设计。 埃隆-马斯克提出了超级高铁的基本技术计划后邀请其他厂商合作开发相关技术，Hyperloop One和HTT(Hyperloop Transportation Technologies)是首批开发超级高铁技术的两家公司。图中间是Hyperloop One公司CEO罗布-劳埃德，左右两边分别是Hyperloop One公司创始人舍文-皮许瓦尔和布罗根-班布罗根。他们在北拉斯维加斯超级高铁推进系统测试之后发表了讲话。 Hyperloop One的创始人兼CEO布罗根-班布罗根表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至每小时400英里(约643公里)。”图为Hyperloop One公司超级高铁模型远景，他们正在与另一家公司竞争，争取首先开发出改变人们生活的超高速列车。 建设完成的超级高铁系统是一个架设在高架轨道上的封闭管道，超级高铁悬浮在轨道之上，这样的设计能够大大减少行进时的空气阻力，从而达到非常快的速度。</t>
+  </si>
+  <si>
+    <t>据每日邮报报道，今天（当地时间周三）埃隆-马斯克（Elon Musk）的超高速高铁（Hyperloop）模型进行演示，其推进器成功将一辆金属滑车在短短两秒之内提速到了每小时116英里（约186公里），超级高铁的概念早在2013年由马斯克提出，他宣称建成后从洛杉矶到旧金山只需要35分钟。（转载请注明出处，更多精彩内容来自腾讯国际新闻微信公众号“糖醋国际”。）   今天超级高铁的首次公开测试在内华达沙漠圆满完成，这场时长仅几秒的户外演示在一条1000米长的的金属轨道上进行，两秒后速度提到每小时116英里（约186公里），滑车撞上沙堆停了下来。   今天的演示仅仅测试了超级高铁复杂系统的一部分性能，使用的也是普通轨道而非半真空轨道。   超级高铁公司Hyperloop One将于今年底测试完整的超级高铁系统，未来试验的重点将是磁悬浮和管道设计。图为滑车撞上沙堆，扬起一片褐色的烟尘。   埃隆-马斯克提出了超级高铁的基本技术计划后邀请其他厂商合作开发相关技术，Hyperloop One和HTT（Hyperloop Transportation Technologies）是首批开发超级高铁技术的两家公司。   图中间是Hyperloop One公司CEO罗布-劳埃德，左右两边分别是Hyperloop One公司创始人舍文-皮许瓦尔和布罗根-班布罗根。他们在北拉斯维加斯超级高铁推进系统测试之后发表了讲话。   超级高铁推进系统测试结束后一辆维修车和测试用滑车静静停在轨道上。   图为测试轨道模型。   Hyperloop One的创始人兼CEO布罗根-班布罗根表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至每小时400英里（约643公里）。”   图为Hyperloop One公司超级高铁模型远景，他们正在与另一家公司竞争，争取首先开发出改变人们生活的超高速列车。   建设完成的超级高铁系统是一个架设在高架轨道上的封闭管道，超级高铁悬浮在轨道之上，这样的设计能够大大减少行进时的空气阻力，从而达到非常快的速度。   Hyperloop One公司的演示仅在另一家公司HTT进行演示的两天之后，HTT公司展示了他们的磁悬浮技术。图为HTT公司的超级高铁概念图。   HTT于当地时间周一宣布将应用美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。Hyperloop One公司也在试验磁悬浮技术。   马斯克在提出超级高铁概念时曾说它是协和式超音速喷射客机、轨道炮和空气球台的交叉结合，图为HTT公司想架设超级高铁的地区路线图。Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里）。</t>
+  </si>
+  <si>
+    <t>日前，号称“超级高铁”、设计时速在750英里的列车首次户外测试取得成功，未来若能成功，将给美国高铁史上添上耀眼的一笔。 图为测试现场 据CNBC5月11日报道，美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 按照HyperloopOne的联合创始人兼首席科技官布罗甘·巴姆布罗甘(BroganBamBrogan)的说法，此次实验取得成功。 此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)，接近声速（1236公里/小时）。 “这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”巴姆布罗甘透露。 届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 Hyperloop One的首席执行官罗布·劳埃德（RobLloyd） 表示，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克(Elon Musk)在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 虽然目前超级高铁有待解决的问题还有很多，但是超级高铁的用户者认为，在未来超级高铁一定会被全面推广，因为成本较低（一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度），同时不会产生任何碳排放。 中国CRH380AL新一代高速动车组 此次实验的“超级高铁”虽然不是传统意义上的高铁，但是它的速度的确让外界惊叹。中国高铁近年来在世界上可谓声明远播，那么，对比超级高铁，在速度上，中国高铁是什么水平呢？处于世界什么位置呢？  从试验时速来说，中国目前的上限是时速605公里（376英里）。 2011年12月，由中国南车研制的更高速度试验列车，又称500公里试验列车，在中国南车四方股份公司落成，设计速度500公里，在高速列车国家工程实验室中创造了605公里的最高轮轨试验速度。 从运行速度上说，中国高铁排名世界前列，一度刷新世界纪录。2010年12月3日，在京沪高铁枣庄至蚌埠试验段，中国CRH380AL新一代高速动车组创造了486．1公里（约302英里）的时速，相当于喷气飞机低速巡航的速度，成为当时的世界铁路运营第一速。 不过，这一速度后来被日本超越。日本磁悬浮中央新干线2015年4月21日在山梨磁悬浮铁路试验线进行了行驶试验，时速首次超过600公里，将列车运行的世界纪录提高到了每小时603公里（约375英里）。 说完了高铁速度，我们再来看一下中美两国的高铁发展现状。 中国的高铁建设发展迅速，被誉为中国经济发展奇迹。从引进技术到领先全球，短短10年间，高铁不仅获得国人点赞，也赢得世界目光。截至2015年底，中国全国铁路营业里程超过12万公里，居世界第二位，其中高铁1.9万公里，居世界第一位。近年来，中国高铁走向世界各地，频频拿下大单。 从优势上说，中国高铁具有三大优势：技术先进、安全可靠；价格低、性价比高；运营经验丰富，质量有保障。 美国的高铁发展较为缓慢。美国有着完善的航空路线，和成熟的汽车租赁市场，并且机票价格低廉，高铁市场并没有很大空间。在美国，高铁建设计划可以回到1960年代，当时预计跨加州高铁要到2020年完工，设计工时60年。2009年，奥巴马大举兴建交通设施，说要投资130亿美元建设高铁。但这笔对于发展高铁来说实在是少之又少。在资金缺乏、市场需求小、政治因素等制约下，美国高铁发展几十年来一直停滞不前。 据悉，目前美国高铁最快时速可达240公里。2015年1月，美国首条高铁终于开工，连接旧金山-洛杉矶，完工之后，时速可超过200英里，目前铁路仍在建设阶段。 从现状来看，美国高铁想要赶超中国，尚需付出一定的努力。 （编辑：张晓）</t>
+  </si>
+  <si>
+    <t>伊隆 马斯克的超级高铁首测成功:接近声速,2秒加速640公里/小时 686494 第五种交通方式有望出炉：飞机、火车、骑车、船和超级高铁。　　声速每小時1236公里，而伊隆·马斯克参与设计的超级高铁将达到每小... 2016年05月12日 08:35 [CES Asia]披着游戏主机的 Android 电视盒子都是垃圾,那披着 PC 外衣的呢? 4670 这两天，你可能被一台贴着国产标签的游戏主机刷屏了。你懂我说的是哪一款，我就不直接说“披着游戏主机外衣的Android电视盒子都是垃圾”这样的... 2016年05月12日 06:20 人为什么会看直播?因为每个人各有各的孤独 104100 晚上9点多，一名ID为青木时光的男性无视路人诧异的眼神，行走在地铁站中，一边走着，一边自信地唱着歌。在他的手机屏幕上，出现了粉丝让他撩妹的弹... 2016年05月11日 15:48 超大的屏幕和超多彩的 MIUI 8,这就是依然贵不上去的小米新机 1119370 做UI起家的小米在手机系统上有很多值得称道之处，即便连一些毒舌评论者也不得不承认MIUI的易用之处。但去年推出的MIUI7，小米欠下了很多债... 2016年05月11日 07:57 国家网信办联合调查组提出整改方案,李彦宏回信坚决落实 470 勿忘初心不负梦想　　各位百度同学：　　一月份的贴吧事件、四月份的魏则西事件引起了网民对百度的广泛批评和质疑。其愤怒之情，超过了以往百度经历的任何危机。　　这些天，每当夜深人静的时候，我就会想：为什么很多每天都在使用百度的用户不再热爱我们？为... 2016年05月10日 15:56 最好看的 Withings 智能手表出新品了，而它的下一步是加入诺基亚 1050 做过智能手表的创业团队和成熟品牌不胜枚举，但颜值高的不多。Withings是少数几款能讨好消费者眼球的。　　今天，Withings在北京发布... 2016年05月10日 14:57 把《欢乐颂》刷到全剧终了,你还没发现这个“惊天”大秘密吗? 76370 这剧有毒！广告中插播电视剧！　　很少有一部电视剧能好意思把广告“硬”到这种程度，让每个产品都频繁地出现，让观众记广告比记住剧情都牢靠。　　我... 2016年05月10日 08:14 美国科技界的“网红”:微信产品经理Dan Grover的日常 425070 DanGrover同志（如果你还不知道他是谁的话，请看文末简介）是美国产品经理，年纪轻轻还不到30岁，为了帮助微信改进产品设计，受公司的委任... 2016年05月09日 08:50 没有更多文章了 TA的详细资料 返回&gt; 用户名 : PingWest品玩 性别 : 保密 简介 : 暂无描述 留言板 返回&gt; 我来说两句…… 还可输入120个字 发表 共有 条留言 沙发空缺中，快来抢~ 首页 上一页 下一页 尾页 共页 等级说明 返回&gt; 等级说明 等级 升级所需积分 专属身份标识 1级 初始等级 Lv 1. 2级 50 Lv 2. 3级 300 Lv 3. 4级 1500 Lv 4. 5级 4000 Lv 5. 6级 9000 Lv 6. 7级 20000 Lv 7. 8级 30000 Lv 8. 9级 50000 Lv 9. 升级积分获取规则 一：新手任务 任务名称 奖励积分 完善个人资料 30 专业人士认证 100 二：日常任务 任务名称 奖励积分 每日签到 5 发布1篇新文章 单篇10，每日上限50 文章获得评论 单篇10，每日上限50 获得搜狐首页推荐 100 获得搜狐频道首页或其他推广位推荐 50 三：周期任务 任务名称 奖励积分 连续签到7天 50 本月累计发布15篇文章 100 本月累计获得5次文章推荐 500 * 什么情况下积分会减少？ 如文章被举报或识别为违规文章（恶意灌水、广告、虚假信息、抄袭等），则双倍扣除该文章得分(20分)，且该文章所产生的相关加分也会清空，但不会额外扣分。</t>
+  </si>
+  <si>
+    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克在2013年提出，他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。 　　超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125千米每小时）。” 　　虽然超级高铁的设想来自马斯克，但他表示自己没有研发该系统的计划，不过“硅谷钢铁侠”会开源自己的设计，以便其他公司对其进行改进。在马斯克心里，超级高铁是“协和式飞机、轨道枪和气垫曲棍球台的结合。”</t>
+  </si>
+  <si>
+    <t>超级高铁首测仅2秒钟 意义堪比莱特兄弟首飞成功 590 5月12日消息，据国外媒体报道，HyperloopOne这个肩负改变未来交通系统的初创企业刚刚在内华达沙漠向外界展示其研发的超级高铁项目。这... 2016年05月12日 18:16 搜房控股回归A股节外生枝：商标旧案被推至台前 780 几日前刚回复了上交所有关回归A股案的问询，中概股公司搜房控股（SouFunHoldingsLimited）又面临新的麻烦：与其有商标纠纷的公... 2016年05月12日 18:15 奇虎93亿美元私有化遇阻？ 周鸿祎回复：进展正常 440 5月12日消息，据国外媒体报道，奇虎投资集团计划以93亿美元将奇虎360私有化，目前仍待通过中国外汇监管机构的相关审核批准。　　奇虎93亿美... 2016年05月12日 18:14 私有化中概股公司股价昨夜大跌 奇虎跌超11% 420 5月10日消息，在中概股普遍下跌的背景下，多支开展私有化的中概股公司遭遇大跌。　　霍特中概股指数今早收盘数据（来自雅虎财经）　　截至北京时间10日早美股收盘，霍特中概股指数下跌3.22%，至6661.53点。在此背景下，互联网科技行业相关中... 2016年05月11日 10:02 马斯克“超级高铁”今天公开演示 每秒300米 1010 5月11日消息，据外媒报道，特斯拉创始人埃隆·马斯克提出的“超级高铁”（Hyperloop）运输系统将于今天在美国内华达州拉斯... 2016年05月11日 10:01 暴风科技2015年净利增长313%有隐情 460 暴风科技发布的2015年年报显示，2015年度，暴风科技实现营业收入6.52亿元，同比增长68.85%。公司归属于上市公司股东的净利润1.7... 2016年05月11日 09:58 青春徒步 爱心储蓄 1440 五四青年节来临之际，由太平桥街道团工委联合乐助社工事务所主办，太平桥街道青.HOME社区青年汇承办的“公益种子”——“青春i徒步筑爱任e行”... 2016年05月05日 21:47 脉脉非法抓取新浪微博用户信息 被判赔200万元 580 4月27日消息，因认为“脉脉”非法抓取“微博”用户数据、恶意抄袭微博产品设计，北京微梦创科网络技术有限公司以不正当竞争为由，将负责脉脉软件运... 2016年04月28日 08:19 没有更多文章了 TA的详细资料 返回&gt; 用户名 : IT指北针 性别 : 男 所在地 : 北京 朝阳区 星座 : 天秤座 简介 : 敏锐的嗅觉、独到的见解、高效的执行，带你挖掘行业背后的故事！ 留言板 返回&gt; 我来说两句…… 还可输入120个字 发表 共有 0 条留言 沙发空缺中，快来抢~ 首页 上一页 下一页 尾页 共页 等级说明 返回&gt; 等级说明 等级 升级所需积分 专属身份标识 1级 初始等级 Lv 1. 2级 50 Lv 2. 3级 300 Lv 3. 4级 1500 Lv 4. 5级 4000 Lv 5. 6级 9000 Lv 6. 7级 20000 Lv 7. 8级 30000 Lv 8. 9级 50000 Lv 9. 升级积分获取规则 一：新手任务 任务名称 奖励积分 完善个人资料 30 专业人士认证 100 二：日常任务 任务名称 奖励积分 每日签到 5 发布1篇新文章 单篇10，每日上限50 文章获得评论 单篇10，每日上限50 获得搜狐首页推荐 100 获得搜狐频道首页或其他推广位推荐 50 三：周期任务 任务名称 奖励积分 连续签到7天 50 本月累计发布15篇文章 100 本月累计获得5次文章推荐 500 * 什么情况下积分会减少？ 如文章被举报或识别为违规文章（恶意灌水、广告、虚假信息、抄袭等），则双倍扣除该文章得分(20分)，且该文章所产生的相关加分也会清空，但不会额外扣分。</t>
+  </si>
+  <si>
+    <t>证券时报网05月12日讯发改委4月审核固定资产总投资1388亿元 　　在12日举行的发改委宏观经济运行数据发布会上，发改委新闻发言人赵辰昕表示，民间投资是我国固定资产投资保持较快增长，经济保持平稳运行的重要支撑力量。为稳增长、促改革、调结构、惠民生、防风险，为推进结构性改革，特别是供给侧结构性改革，维护社会大局总体稳定，特别是促进社会就业发挥了重要作用。 　　对于未来如何促进民间投资，赵辰昕表示，一是进一步放宽民间资本市场准入。凡是法律法规未明确禁入的行业和领域都应该鼓励民间资本进入，凡是我国政府已向外资开放或承诺开放的领域都应该向国内民间资本开放。 　　二是加强和改善政府服务。围绕构建新型政商关系、主动服务民间投资，削减行政审批事项，推行并联审批，缩短投资核准报建周期，推动民间投资项目尽早落地。三是营造公平竞争的投资环境。围绕鼓励平等竞争，解决部分政策执行中存在的“贴标签”现象，保障民营企业发展权利平等、机会平等、规则平等。 　　四是发挥政府投资的引导带动作用。优化政府投资范围、方向和结构，通过投资补助、基金注资、担保补贴、贷款贴息等方式，发挥引导和放大效应。 　　今日，在发改委公布的宏观经济运行数据中显示，4月，发改委共审批核准固定资产投资项目13个，总投资1388亿元。包括水利项目3个，总投资8亿元;交通基础设施项目4个，总投资1288亿元;能源项目2个，总投资67亿元;高技术和信息化项目2个，总投资4亿元;其他项目2个，总投资21亿元。 　　这些项目主要集中在水利、交通和能源领域。 　　智能制造十三五规划加紧编制 10股望受益 　　2016智能制造国际会议5月11日在北京召开。会上，工业和信息化部部长苗圩指出，目前正在加紧编制智能制造“十三五”发展规划，研究中国未来五年智能制造发展的思路和目标、推进重点和路径，以指导地方、行业有序实现制造业的数字化、网络化、智能化。 　　苗圩提出，智能转型是建设制造强国的关键。实现“数字化、网络化、智能化”制造，是制造业发展的新趋势，也是新一轮科技革命和产业变革的核心所在。为推动智能制造发展，工业和信息化部会同有关部门制定并发布了《智能制造工程实施指南》，开展了智能制造标准体系建设及智能制造试点示范专项行动等。目前正在加紧编制智能制造“十三五”发展规划，研究中国未来五年智能制造发展的思路和目标、推进重点和路径，以指导地方、行业有序实现制造业的数字化、网络化、智能化。 　　银河证券认为，智能制造板块可分为工业机器人、系统集成/行业应用和服务机器人三个子板块。目前A股中智能制造板块包含50多只个股，相关政策措施的发布将为智能制造板块带来主题性投资机会。 　　中投证券建议关注东杰智能、山东威达、先导智能。东杰智能是智能物流领域龙头，未来有望成为供应链系统解决方案供应商。山东威达收购德迈科，转型智能制造，未来成为轻资产系统集成商可期。先导智能收购JOT布局3C自动化，智能制造整体版图扩张。 　　兴业证券看好自动化装备系统集成的龙头企业：机器人、博实股份、楚天科技、京山轻机、智云股份、大族激光，以及物流自动化龙头企业软控股份、山东威达。 　　中国宁波跨境电子商务综合试验区建设启动 　　据新华社消息,中国(宁波)跨境电子商务综合试验区建设于11日启动,宁波结合全球第一大港的优势,制定了56项跨境电商创新清单,将打造“跨境电商综合信息平台、园区平台、物流平台”等线上线下三大平台。与中国第一个跨境电商综试区杭州相比,宁波将重点发展跨境出口。 　　据介绍,至2018年,宁波将培育20个跨境电商外贸产业基地、30家跨境电商综合服务平台企业、50个跨境电商公共海外仓;跨境电商年交易额超过150亿美元,占当年本地区进出口贸易总额15%,其中出口额约130亿美元、进口额约20亿美元。 　　宁波跨境电子商务综合试验区将打造一个集“单一窗口”、商务信息、物流信息“三位一体”的跨境电商综合信息平台,将实现与各类商务信息平台、物流信息平台的贯通。 　　宁波综合试验区还将在商流、物流、资金流以及交易信用四个方面构建四大服务体系,并与跨境电商综合信息平台共同形成完整的跨境电商业务链。此外,还将建立“信息共享、金融创新、人才培养、企业孵化、风险防控”五大保障体系。 　　马斯克超级高铁首测成功 4股有望爆发 　　美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop 　　One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环、江粉磁材、正海磁材以及早期在磁悬浮列车有过经验的公司如中科电气等有望受益。 　　人民币中间价升值250基点 创近两周最大升幅 　　5月12日，据中国外汇交易中心的最新数据显示，今日人民币对美元汇率中间价报6.4959，较前一交易日(5月11日)中间价6.5209，大幅升值250个基点。这也创下近两周最大升幅。 　　周三纽约时段离岸人民币对美元上涨，在岸人民币创逾1个月以来最大涨幅。两地汇差一度逼近400点，国际投行料人民币未来继续面临贬值压力。 　　高盛策略师Kamakshya Trivedi在周三发给客户的报告中，小幅上调12个月人民币目标价至6.80，此前目标为7.0。 　　但高盛也表达了在中国经济数据疲弱、美联储(Fed)“鸽派”立场难以为继的情况下对人民币未来走势的担忧。 　　中国人民银行授权中国外汇交易中心公布，2016年5月12日银行间外汇市场人民币汇率中间价为：1美元对人民币6.4959元，1欧元对人民币7.4289元，100日元对人民币5.9953元，1港元对人民币0.83708元，1英镑对人民币9.3805元，1澳大利亚元对人民币4.7844元，1新西兰元对人民币4.4326元，1新加坡元对人民币4.7534元，1瑞士法郎对人民币6.6905元，1加拿大元对人民币5.0540元，人民币1元对0.61848林吉特，人民币1元对10.0006俄罗斯卢布。 　　新能源汽车前四月产销翻倍 10股有望爆发 　　中国汽车工业协会11日发布数据，今年前四月乘用车产销分别完成753.7万辆和744.8万辆，比上年同期分别增长6.6%和6.7%，其中七成以上为1.6升及以下的小排量汽车;新能源汽车生产、销售分别实现9.4万辆和9万辆，较去年同期分别增长126.8%和131.1%，其中纯电动车占据新能源汽车市场73%的份额。 　　据新华社5月12日消息，从乘用车四类车型产销看，比上年同期，轿车产销分别下降7.3%和7.8%;SUV产销则保持高速增长，增速分别为46.8%和46.3%;MPV产销增速分别为8.5%和13.3%;交叉型乘用车产销分别下降31.8%和30.2%。 　　受小排量车购置税减半征收政策影响，1.6升及以下乘用车销售成为热点：今年前四个月，1.6升及以下乘用车占乘用车销量比重均超过七成，其中4月1.6升及以下乘用车销售128万辆，同比增长12.1%，高于乘用车总体增速5.4个百分点，1.6升及以下乘用车占乘用车销量比重为71.9%。 　　分析认为，新能源汽车领域可关注以下三类股： 　　1、新能源汽车整车制造商，如比亚迪、中通客车、亚星客车等将受益。 　　2、随着锂产品和电解液价格的持续高位，以天齐锂业为首的锂资源概念股将保持业绩高速增长，包括受益六氟磷酸锂持续涨价的天赐材料、新宙邦; 　　3、锂电制造设备，如先导智能、赢合科技;今年有增资扩产计划的公司，如成飞集成、国轩高科等。 　　第三批PPP示范项目望公布 投资额或达6000亿 　　5月12日，据中国证券报报道，业内人士表示，在政府和社会资本合作的PPP模式加速趋势下，PPP有望成为提高民间投资积极性的重要抓手。目前地方政府推动PPP项目的积极性普遍较高，中央层面推进PPP项目的步伐也在加快，预计第三批PPP示范项目将于近期公布，项目总投资额有望达6000亿元。 　　权威人士日前表示，“稳”的基础仍然主要依靠“老办法”，即投资拉动。部分地区财政收支平衡压力较大，经济风险发生概率上升。特别是民营企业投资大幅下降。申万宏源宏观经济分析师李慧勇认为，民间投资比例下降是政府投资的原因，而非结果。在经济下行压力加大的时期，民间资本投资意愿不足是正常的，但经济需要稳定的增长，政府在这时挺身而出，做了该做的事情，绝不是政府投资挤出了民间投资。 　　(证券时报网快讯中心)</t>
+  </si>
+  <si>
+    <t>宏观：1.国务院通过长三角城市群发展规划；2.银监会牵头召开试点工作启动会 投贷联动试点进入实施阶段；3.新华社：面对“L”型走势应有定力；4.第三批PPP示范项目有望近期公布 项目总投资额料达6000亿；5.“沪九条”出台后首拍 地价较半年前上涨逾七成。 产业：1.多政策助煤炭钢铁兼并重组 去产能入全面执行期；2.新能源车产销前四月增速超一倍 行业景气望延续；3.商储影响加大 稀土价格反弹呈加速态势；4.酒企争相提价 白酒行业复苏预期逐渐增强；5.马斯克超级高铁首测成功：2秒钟加速至640Km/h 。 公司：1.恒信移动重新认定重组收购标的行业分类；2.蓝思科技遭10位董监高减持 或面临产业下滑风险；3.佳都科技12日起停牌 资产收购事项将上会；4.农产品获实控人深圳市国资委增持1%股份；5.福田汽车12日复牌 股东提议年报高送转 。 市场：1.两重磅利好消息突现 A股红周四定局？ 2.今日在线预测：走势需观察 关注农林牧渔；3.27只个股超越5178点高位 大浪淘沙牛股扎堆；4.十大机构预测大势：量能制约短期反弹高；5.A股入MSCI三度"临考" 万亿资金场外静待。</t>
+  </si>
+  <si>
+    <t>　超级高铁首测，美国时间5月11日，美国创业天才马斯克又一大胆设想。总部位于美国洛杉矶的Hyperloop One公司在内华达州沙漠完成了“超级高铁”Hyperloop推进系统的首度户外测试。“超级高铁”是由美国创业天才马斯克继特斯拉汽车、SpaceX和Paypal之后提出的又一大胆设想。</t>
+  </si>
+  <si>
+    <t>比飞机还要快的超级高铁要来了！ 　　美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布劳埃德（Rob Lloyd） 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘巴姆布罗甘(Brogan BamBrogan)透露。 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 图片来自网络 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 文章关键词：超级高铁首测;测试;美国国家航空航天局;Hyperloop;提速;超级高铁 责编：彭向华 5034 我要评论 已有0人参加 相关阅读 换一换 醉汉“测试”警察出警速度 醉汉谎称遭抢了(图) 长宁县双河镇一男子大年初一，因恶意谎报警情和扰 乱 派 出 所 秩序，被行政拘留，在拘留所度过了春节假期。 测试 1112 测试：一张图揭秘你心底最深的秘密！ 这是一个著名的视错觉图：名叫“贝汉转盘”，这个转盘只有黑白两色，但它在旋转时，人会看到其它颜色，而且每人看到的颜色各有不同。 测试你内心的另一个星座 水象星座(巨蟹.天蝎.双鱼)请从1开始； 火象星座(牡羊.狮子.射手)请从2开始； 土象星座(金牛.处女.魔羯)请从3开始； 风象星座(双子.天秤.水瓶)请从4开始。 美军年内测试“钢铁侠”战甲 据美国全国广播公司15日报道，美军高级官员表示，使美军士兵具备超级能力的高科技“钢铁侠”战甲或将于今年夏天进行测试。美国特种作战司令部司令威廉姆说，战术攻击轻甲将会接受严苛的测试，有望于2018年8月应用于真实战场之上。 嫦娥玉兔互拍结束 记者从国防科工局获悉，12月22日凌晨，在地面的控制下，嫦娥三号着陆器与“玉兔号”月球车(巡视器)进行了第五次互拍，首次传回着陆器携带五星红旗的清晰全景照片，两器互拍任务圆满结束。 伊朗现疑似洲际导弹测试场 被指暗推导弹计划 美国《外交政策》杂志8月8日消息称，美国卫星在伊朗沙鲁德镇(Shahrud)东南部约35到40公里处发现疑似洲际弹道导弹测试场，这或为伊朗正在秘密修建的首个洲际导弹发射场。 测测谁会是你最最爱的人 一生能有一个人爱的人真的很幸福，不管是被爱还是相爱？那么谁会幸运的成为你最爱的那个人呢？就来测试一下吧！ 测测谁会是你最爱的人 一生能有一个人爱的人真的很幸福，不管是被爱还是相爱？那么谁会幸运的成为你最爱的那个人呢？就来测试一下吧！ 测最近谁会给你带来好运？ 有人交友不慎，受人误导，沾上了一个霉神，把原来平安无事的自己也跟着一起走向了倒霉的道路。也有人是LUCKY DOG，即使自己本身的运气不太好，但总能遇到一些幸运儿，或者贵人，给自己带来某些方面的好运气。人与人之间的相处总能擦出各种各样的火花，那么最近你的身边，谁能跟你擦出好运的闪亮火花呢… 测最近谁会给你带来好运？ 有人交友不慎，受人误导，沾上了一个霉神，把原来平安无事的自己也跟着一起走向了倒霉的道路。也有人是LUCKY DOG，即使自己本身的运气不太好，但总能遇到一些幸运儿，或者贵人，给自己带来某些方面的好运气。人与人之间的相处总能擦出各种各样的火花，那么最近你的身边，谁能跟你擦出好运的闪亮火花呢… ta最近是否想要换个新情人 相处是一门学问，你也得要学着跟你的另一半有更好的互动，两人间要有一些共识、吵过的事就不需要再吵，而是找到一个共同可接受的处理方法，人没有不会犯错的，在你的情人包容你的时候，你也要学着好好包容你的情人喔! 测你是公司里的螺丝钉吗？ 时下热播的《螺丝小姐要出嫁》，“螺丝小姐”代表如今社会上有种女性，没有抢眼的外型，没有引人注目的身躯，年过三十，感情脆弱，但面对工作却有坚定的性格，工作上，她是办公室不可或缺的螺丝钉，感情上，她又经常把自己死锁在爱情里。 你可以狠到什么程度？ 也许平常我们都没有机会好好发泄情绪，可是不代表本身就不是一个不适合耍狠的人喔，作个轻松有趣的小测验，来看看你心中的“渴望”。只是有个适当的情绪宣泄管道，这样你的人格才会健康正常。 测测你的幸运来自哪里？ 如果你刚搬到新房子，一切都买好了，唯独浴巾没有买，那么按你的喜好（不需要考虑价格高低）,你会买以下哪款浴巾呢？ 新闻 财经 汽车 体育 娱乐 健康 科技 陈润儿：积极推进结构改革 河南直管县改革实行2年 多项指标排名靠前 直播利器网易号落户河南 人人都能做网红 郑州发放首本不动产证 7月起全市停旧换新 郑州新改扩建中小学36所|93汽油每升涨0.1元 油价迎两连涨 河南93号汽油每升上调0.1元 济源5名党员因危险驾驶交通肇事被开除党籍 刘源捐赠上将军服:视河南为故乡并以此为荣 4月河南CPI同比上涨2.3%|牛肉仍将高位运行 加多宝再审败诉：“中国第一罐”之争就此终结 国内成品油调价窗口今开启 或迎年内“两连涨” 加多宝再审败诉：“中国第一罐”之争就此终结 国内成品油调价窗口今开启 或迎年内“两连涨” 僵尸企业处置方案有望加快出台 在近20个城市试点 CPI将从4月开始进入下行通道 专家预计PPI继续收窄 跨境电商新政拟暂缓1年实施 调整意见或近期发布 国务院14条措施协同作战稳外贸 转型升级意图明显 2016首届中原金融投资理财暨互联网金融创新峰会开幕 社保基金“招兵买马” 养老金入市风声急 权威人士三次强调去杠杆：高杠杆是金融市场“原罪” 娱乐976汽车非常道 蜻蜓FM可收听 值得信赖 河南腾发国际二手名车 娱乐976汽车非常道 蜻蜓FM可收听 值得信赖 河南腾发国际二手名车 北京车展网络女主播吸引眼球 身材火爆诱惑 沙特富翁土豪金车队伦敦奢华旅 跨品牌合作那些经典车 韩国气质车模颜值爆表 向科比致敬！你知道他开那些车吗？ 英国富豪改装粉色超级跑车 黄子韬大炫豪车 爸爸被曝光系土豪 河南建业外援内托郑州举办退役仪式 河南建业U16夺冠 河南建业外援内托郑州举办退役仪式 河南建业U16夺冠 中超-舜天主场1-1建业 中超第二十八轮 江苏舜天对建业比赛日期调整通知 建业0-0闷平亚泰3场不败 米洛不满球队表现 贾秀全直言因运气才胜永昌 永昌主场不败纪录终结 黑马尽显颓势神奇不再 恒大打出赛季最佳一战 保利尼奥完美封锁孔卡 精彩回顾 张柏芝大方祝福谢霆锋王菲幸福 陈伟霆阿SA分手 知情人：双方均无第三者 张柏芝大方祝福谢霆锋王菲幸福 陈伟霆阿SA分手 知情人：双方均无第三者 范冰冰身家增长2.3亿 黄晓明微博晒结婚证 北京刘老根会馆关张:因反腐致生意差 章泽天刘强东疑分手 京东否认黑奶茶 黄晓明酒店私会女友Angelababy 王大治被问董洁变脸怒斥媒体 百亿富少恋华姐冠军 女方洗白 夏季吃什么解暑 推荐八种解暑水果 随意服药竟会伤害牙齿？ 如何对牙齿进行保健 感恩母亲节优生优育大型公益讲座圆满成功 权威配方食疗机构进驻河南 “薯乐宝”联姻“高纤宝”打造“盛世健王”配方食疗食品产业 感恩母亲节 河南省妇幼保健院 孕妇课堂公开课 郑州阳光男科医院——一份真心换一份健康 诚信医疗 郑州阳光始终坚持从未懈怠 威威商业连锁股份有限公司隆重举行上市仪式 智爱行动免费救助患者之被癫痫折磨16年的老支书 用行动筑诚信 郑州阳光男科医院在行动 分析师：2016年对苹果成败攸关 算算2015年爆出的漏洞总共值多少钱？ 分析师：2016年对苹果成败攸关 算算2015年爆出的漏洞总共值多少钱？ 锤子T2评测：金属中框的一次胜利 苹果因“欺骗”iPhone 4s用户升级iOS 9惹官司 2015年终盘点：那些今年＂死去＂的科技产品 老罗相声是历年来最差的 却是锤子最成功的一次 IBM与微软争相开发"中国雾霾预报"市场 外媒评2015年最佳设备 网友偏好三星多于苹果 揭秘朝鲜红星操作系统：可跟踪所有电脑文件</t>
+  </si>
+  <si>
+    <t>美国研发超级高铁的Hyperloop One公司10日宣布，将于11日进行超级高铁的推进系统演示，并将在今年年内进行完整的全系统测试。 　　这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克在2013年提出。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。 　　Hyperloop 　One公司在内华达州拉斯韦加斯市以北的沙漠中建造了一个测试场，11日将进行“推进系统露天测试”，而今年年内将进行全系统全速测试。公司首席执行官罗布·劳埃德表示，届时测试将在一段3.2公里长的管道内进行，悬浮舱将被加速到时速近1200公里。 　　在推进系统演示前一天举行的新闻发布会上，劳埃德试图打消外界对这项技术的疑虑，并将这项运输技术与美国铁路的出现以及铁路带来的繁荣时代相提并论。 　　劳埃德宣布，第一个超级高铁项目的应用方案将通过招标确定，公司、政府、研究机构甚至个人都可以提交方案，结果将在明年公布。 　　路透社报道认为，超级高铁最初可能应用于港口，代替卡车和火车在船舶和工厂间运送货物。 　　Hyperloop One公司高管之一、前太空探索技术公司工程师布罗根·班布罗根表示，超级高铁运行在完全受控的环境中，坐起来“如电梯般平顺”，并且贴心设计方便儿童、老人以及宠物乘坐。 　　班布罗根表示，公司的工程师团队正在寻找一种更高效经济的方式来建造这种超级高铁。“我们希望呈现超级高铁所能实现的最大价值：安全、高效、随时满足需求、快速，但我们希望在革命性的成本基础上来实现它。” 　　Hyperloop One公司还宣布，它已完成新一轮8000万美元的融资，引进了一些新投资者。</t>
+  </si>
+  <si>
+    <t>超级高铁首测：预计北京到深圳将比飞机少1到2个小时（图）2016/5/129:33:11 　　美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞...[阅读全文] 曹聚仁(8147)人民币(2499)玉器(2091)书法教育(1851)新金陵画派(1845)考古(1836)第四套人民币(1703)书法(1637)美术馆(1583)艺术品(1575)小叶紫檀鉴别(1503)顾景舟(1476)艺术品拍卖(1436)钱币(1419)博物馆(1416)西泠拍卖(1394)张大千(1379)第一套人民币(1330)钻石(1299)文物保护(1296)梵高(1267)浙江省博物馆(1255)牙雕(1250)金银币(1238)古董家具(1231)油画(1209)文物(1202)鉴赏(1181)铜胎掐丝珐琅(1175)宝石(1152) 直播首秀YY直播女子自杀下水管道童年照片陈坤晒童年颜值说周冬雨泳装遭吐槽周冬雨泳装曜影陈静拥吻男制片李隆友刻瓷王安石书法6级地震宜昌端午文化节华西医院院长跳楼华西医院院长华西医院白领欠车费被开除欠车费泳装周冬雨全国山河一片红市场行情龙眼木雕建国钞市场行情建国钞价格丈夫捅妻</t>
+  </si>
+  <si>
+    <t>马斯克于2013 年公布超级高铁构想，提议以此作为新的大众运输方式。超级高铁计划于今日（5月11日）首测。 超级高铁的设想来自马斯克，但他自己没有研发该系统的计划，不过“硅谷钢铁侠”会开源自己的设计，以便其他公司对其进行改进。 我们很难知道，当马斯克在讨论这种事的时候，普通人是怎么看待他的。几年前，大多数人可能只把他归为吹嘘和兜售飞行背包、机器人或者其他硅谷流行的小物件的人。但随后马斯克获得了一次又一次的成功，摇身一变，从一个大话王变成了硅谷最出名的实干家。蒂尔见证了马斯克走向成熟的过程—从一个奋发图强但缺乏信心的PayPal CEO到一个自信且受万人敬仰的CEO。让蒂尔印象最深的是马斯克发现人才和招揽人才进公司的能力。“我觉得这段时间他在一些方面有了极大的提升。”蒂尔说，“他找到了航天产业最优秀的人才，让他们为自己的航天公司效力，在特斯拉也是，如果你是一个有天赋的机械工程师，喜欢汽车制造，那你一定会选择特斯拉，因为它可能是美国唯一一家能够让你尝试新鲜有趣的新事物的公司。两家公司在成立之初有抱有这样的愿景：让很多人才聚集在一起做着鼓舞人心的工作。”蒂尔认为，我们应该严肃看待马斯克把人类带往火星的目标，他相信这会给大众带来希望。不是所有人都会认同他的使命，但确实有个人在挑战自己的极限，推动宇宙开发和我们的技术能力发展，这点很重要。“把人类送上火星的这一目标比其他人在太空尝试的其他事都要振奋人心，”蒂尔说，“这个主意叫作‘去未来’。太空项目已经搁置了这么久，人们已经放弃了20世纪70年代有过的对未来乐观的展望。SpaceX展示了他们有办法实现那样的未来。埃隆正在做的事情非常有价值。” 2013年8月，马斯克公布了“超级高铁”计划，并吸引了大批忠实信徒。作为一种全新运输的方式，“超级高铁”采用的是一种大型气动管道，类似于办公室发送邮件所用的管道。马斯克计划利用这种管道来连接洛杉矶和旧金山这样的城市，乘客和车子将能通过舱体进行运输。以前也有人提出过类似的想法，但马斯克的创意包含了一些独一无二的元素。他提出，管道要在低压环境下运行，舱体将漂浮在基底滑动装置产生的气床上。每个舱体将由电磁脉冲推动前进，管道里面设置的发动机会按需向舱体提供额外的推力。 这些机制能够让舱体以800英里每小时的速度前进，人们从洛杉矶到达旧金山只需大约30分钟。这个设施将由太阳能供电，能将相距一千英里以内的城市连接在一起。“洛杉矶到旧金山、纽约到华盛顿、纽约到波士顿，‘超级高铁’适用于这样的城市间交通运输，”马斯克在那时说道，“如果距离超过一千英里的话，不但成本不允许，而且你也不想随处都是管道，谁都不想住在一个管道的世界里。” 马斯克花了好几个月构思超级高铁的想法，他私下里向朋友透露过这一构思。在一次采访中，他第一次在自己的圈子以外讨论了这一话题。马斯克告诉我，他的主意源于他对加州提出的高速铁路系统的厌恶。“他们计划在加州建造的价值600亿美元的高速子弹列车是全世界每英里造价最高但速度最慢的火车，”他说，“他们这是在以完全错误的方式创造纪录。”根据加州的高铁计划，人们从洛杉矶去往旧金山需要两个半小时左右，但这一铁路系统要在2029年才能建成。如今，在这两座城市穿梭的话，坐飞机只要一小时，开车只要5小时，高速子弹列车的速度毫无优势可言，这让马斯克十分苦恼。他坚称，他的超级高铁造价仅在60亿~100亿美元之间，速度比飞机还快，乘客还能够把汽车开进舱体，到站的时候，他们就可以开着车穿梭于另一座城市了。 马斯克公开他的超级高铁计划，似乎只是为了让公众和立法者重新审视高铁。他并不真的打算自己建造高铁。他主要是想告诉人们，可以找到一些更为创新的点子，能够真正解决问题，推动国家的发展。幸运的话，加州高铁项目将被取消。在宣布他的计划之前，马斯克在电子邮件和电话里跟我说了很多。他写道，“过一阵子，我可能要出资打造一个‘超级高铁’项目，或提出这方面的建议，但现在我还在忙SpaceX或特斯拉的业务，脱不开身。” 超级高铁的首次测试将在拉斯维加斯北部的工业园区完成，整个测试将持续两天。 在发表了一篇详述超级高铁的文章之后，马斯克的心情开始发生了变化。《彭博商业周刊》刊登了这篇文章的第一部分，很快，该杂志网站的网络服务器陷入瘫痪，因为大众纷纷登录网站来阅读这篇文章。Twitter（推特）上的人也失去了理智。马斯克发布消息约一小时后，他召开了一个电话会议来讨论超级高铁，在我们的数次对话和发布消息那一刻之间的某个时刻，他已经决定了要自己建造高铁。他告诉记者，他考虑至少做出一个原型来证明这一技术是可行的。一些人嘲笑这一观点。“一位亿万富翁公布了幻想中的太空火车，”“硅谷八卦”嘲弄道，“我们喜欢埃隆·马斯克的疯狂决定—曾经，电动汽车和私人太空飞行似乎也是很愚蠢的想法。但更愚蠢的是我们当真了，其实它只是一个超级富翁狂热的想象。”不同于早期抨击特斯拉的时候，“硅谷八卦”现在只能代表少数派的声音。大多数人现在似乎相信马斯克能够做到这件事。我认为，人们相信他的程度让马斯克自己都很吃惊，这迫使他承诺造出这一原型。在这样一个不可思议的艺术模仿时刻，马斯克真的已经变成了全世界最像“钢铁侠”托尼·史塔克的人，他不能让崇拜他的大众失望。 计划发布之后没多久，投资人兼马斯克的好友谢尔文·皮谢瓦带着这项技术的详细说明在白宫与奥巴马总统进行了长达90分钟的会面。皮谢瓦说，“总统很喜欢这个点子。”总统的参谋研究了这些文件，并在2014年4月为马斯克和奥巴马安排了一次单独会面。从那以后，皮谢瓦、凯文·布罗根和PayPal前高管戴维·萨克斯成立了一家新公司，取名为超级高铁技术有限公司，致力于在洛杉矶和旧金山之间打造超级高铁的第一阶段工程。理论上，人们将能够在大约10分钟之内穿梭于两大城市。他们也向内华达州参议员哈里·瑞德简要介绍了这个想法，他们如今正准备买下15号州际公路旁边的土地使用权来建造高速铁路。 文选自《硅谷钢铁侠：埃隆·马斯克的冒险人生》，中信出版社2016年4月出版 1 2</t>
+  </si>
+  <si>
+    <t>聚合阅读：关于 “超级高铁首测” 的最新资讯内容 超级高铁首测成功：2秒钟加速640Km/h 05月12日关键词： 超级高铁超级高铁首测 据今日美国报道，超级高铁公司Hyperloop One成功在北拉斯维加斯初步演示了超级高铁系统，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度.. 马斯克超级高铁首测成功：2秒钟加速至640km/h！ 05月12日关键词： 超级高铁超级高铁首测马斯克 5月12日消息，本周三美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、.. 炸裂速度！最高可达1200公里 马斯克超级高铁首次公开测试 05月11日关键词： 超级高铁HyperloopHyperloopOne马斯克超级高铁首测 5 月 11 日消息，伊隆·马斯克提出的“超级高铁”（Hyperloop）运输系统将于今天在美国内华达州拉斯维加斯郊区的沙漠测试场进行首次公开测试。这次测..</t>
+  </si>
+  <si>
+    <t>今天，马斯克的另一项疯狂计划——时速接近音速的超级高铁将进行首次测试。马斯克于2013年首次提出了这项大胆的计划，当时他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。 点击查看原文 更多投资参考 回复0条，有0人参与 热门跟帖 回复0条，有0人参与 我有话说 最新发布 以下网友评论只代表同花顺网友的个人观点，不代表同花顺金融服务网观点。 暂无评论 点击加载更多 分享到: 新浪微博 QQ空间 微信 朋友圈</t>
+  </si>
+  <si>
+    <t>【伊隆·马斯克的超级高铁首测成功：接近声速，2秒加速640公里/小时】特斯拉创始人伊隆·马斯克的超级高铁项目首次公测成功，速度达1200公里/小时，接近声速，且2秒加速到640公里/小时。若这种以真空钢管运输为理论的胶囊列车投入使用，北京到上海只需1个小时http://t.cn/Rqr5Xxlhttp://t.cn/Rqrtt1P</t>
+  </si>
+  <si>
+    <t>科学狂人”、美国电动汽车公司特斯拉（ Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克(Elon Musk)雄心勃勃提出的“超级高铁”计划，也正一步步成为现实。   近日，参与“超级高铁”研发竞赛的两家科技公司，先后宣布了在这一领域的最新研究进展。   据《今日美国》报道，5月9日，由美国国家航空航天局(以下简称“NASA”)和波音公司员工组建的众筹公司Hyperloop Transportation Technologies(以下简称“HTT”)宣称，已经获准在其原型系统中使用被动磁悬浮技术。该技术可以在一真空管道中以750英里/小时（约合1207公里/小时）的速度运送乘客和货物。    另一家“超级高铁”科技公司Hyperloop Technologies Inc.（以下简称“HTI”）也表示，他们将于11日在美国内华达州拉斯维加斯郊区的沙漠测试场首次公开演示“超级高铁”运输系统。HTI的官网上通过视频和照片展示了公司即将测试的“超级高铁”系统的可容纳加长运输仓的巨大真空管。   据报道，利用这套系统从洛杉矶到旧金山仅需短短30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。   “超级高铁”的概念最早由埃隆·马斯克提出, 2013年他发布了名为《超级高铁缘起》的白皮书，共58页，介绍了他的“超级高铁”概念。他提出的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。   事实上，马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。   马斯克提出超级高铁概念之后，HTT与HTI两家公司率先开始推动“超级高铁”由梦想走向现实。HTT是一群来自波音、NASA、特斯拉以及SpaceX的超级狂人组成的松散团体，他们每个人每周为HTT工作10小时，没有工资，但是有期权。   HTT称公司未来将会在加州中央山谷建设5英里长的测试管道。   而HTI的创始人皮什瓦则是早期Uber的投资者之一。HTI公司的CEO罗布·劳埃德（Rob Lloyd） 表示，11日测试的管道长度为3.2公里，最快时速能达到1125公里。而全面的测试需要等到今年年底进行。“这次测试（指11日的测试）将是该系统的首秀，人们将见识到超级高铁的无限潜能。” 劳埃德说。   2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。  东方IC 资料   实际上，除了位于旧金山的HTT和HTI两家公司，坐落在加州的科技公司skyTran也加入了“超级高铁”的研发竞赛。该公司最近公布了一项技术示范，系统地展示了两辆可容纳四人乘坐的车舱是如何工作的，并表示会在尼日利亚的拉各斯建立一条30英里长的轨道。   马斯克本人也在推特上透露，旗下的SpaceX公司有计划建立一个用于研发“超级高铁”技术的测试轨道，他表示“最有可能在德克萨斯州实现”。   除了技术上取得突破，投资界也加速了“超级高铁”的面世。   目前skyTran已经筹集了3000万美元，并且会在运营方面与NASA展开合作。而HTI刚刚宣布公司更名为Hyperloop One，并透露在第二轮融资中获得8000万美元，其总融资额已经超过1亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。   今年2月，HTT首席执行官德克·安博尔(Dirk Ahlborn)也表示该公司正在寻求募集1.65亿美元资金对该项目进行支持，但安博尔表示与投资方的磋商还在进行中，相关信息尚不能透露。   此外，HTT日前还宣布与斯洛伐克政府签订协议，共同探索建设一个连接斯洛伐克首都布拉迪斯拉发、奥地利维也纳和匈牙利布达佩斯的“超级高铁”系统，这使得斯洛伐克有望成为首个使用这种未来交通工具的国家。   不过超级高铁需解决的问题仍然很多，中国工程院院士、中铁副总工程师王梦恕对记者表示，早前他就对超级高铁提出了几个技术方面的问题，比如如何稳定舱内气压；如何解决电压的“真空击穿”现象，当然造价高也是超级高铁需要解决的问题。</t>
+  </si>
+  <si>
+    <t>特斯拉将Model X全国首测给了王自如！由此再谈互联网汽车 互联网特斯拉汽车 Lytek氢点科技(老氢) · 2016-05-06 17:07 特斯拉，Model X ，王自如，全国首测。 很难联系到一起的几个词，就这样，震惊了车评界。 很多国内耕耘良久的汽车媒体，包括我认为做的最好的三家，汽车之家，新车评，AMS车评，都没有获得这个机会。 可是，这一个小小的举动背后，不仅仅是震惊了车评界，甚至震惊了整个汽车产业。 我们不是要评价王自如的评测视频做的如何，只是聊聊特斯拉为何做出这样的决策，以及互联网汽车到底是噱头，还是趋势。 1⃣️Model X 再啰嗦几句 Model X有三宝，前门，后门，大电脑。 ⬆️⬆️⬆️前门：车主携带钥匙靠近后前门自动开启。比较智能的是，如果检测到车身周围有其他人，安全起见会暂时屏蔽这个功能（装逼失败的概率高达90%）。 ⬆️⬆️⬆️后门：鹰翼门，像是政府工作报告里，一个大写加粗标红的“酷”字。拉风指数100w。当然，下雨天也是一个大写的尴尬。 ⬆️⬆️⬆️大电脑：从Model S沿袭的特色，功能强大，全时互联，这也是本文要探讨的核心内容之一。 2⃣️王自如何许人也？ 手机测评大咖，Zealer创始人。最早以TechMessenger的名义开始做数码产品的开箱、评测视频。Zealer目前业务以手机测评为主，辐射到数码生活的方方面面。不论立场如何，至少Zealer的视频是目前手机、科技测评界，制作最精美、干货最多的。 很多人认识王自如，是因为听见人说，刘翔做了一条手机评测的视频快去看看，更多人认识他，是因为当年与罗永浩的那场撼天动地的撕逼大战。 说起那场撕逼大战，当时Zealer还远没有现在的声势。几乎全军出动，带好了全套的装备，满满好几个大箱子，企图用数据来告诉大家自己的判断是对的，而在罗永浩漫天的逼问和各种看似无懈可击的逻辑问题面前，所有的箱子和设备都没来得及打开，王自如就输的体无完肤。 当然，输了以后的王自如和Zealer变得更好了，大家都知道王自如不是刘翔了，Zealer的视频更精良了，数据更充实了，而锤子，还是那个锤子。 3⃣️那么问题来了，为啥特斯拉会选择王自如做Model X全国首测 也许你会说这是个凑巧，无需过分解读。但恰恰我认为，特斯拉此举背后颇有深意，这正是特斯拉对互联网汽车、未来汽车概念的宣誓。 Elon Musk的“真实版钢铁侠”的称号不是随便吹的，互联网刚兴起他就开始玩在线支付，在我们还在纠结速腾的非独立悬挂时，就搞电动超跑，近几年，发射可回收火箭，建超级高铁，他所做的事，对我们来说，很大程度上都像科幻片。 像Elon Musk和乔布斯这样的大牛，往往在对未来的预期和判断上，有着非常精准的看法。也许他们能精准的看到未来趋势，也许他们做的事，引领了未来。 回到特斯拉和汽车，我认为纯电动车并不是未来汽车的趋势，这并不是自己打自己脸。电动只是一个动力方式，而未来汽车与现在汽车的核心区别，是注重体验、互联VS注重机械性能的区别。 很多朋友提起乐视的LeSEE，贾布斯拿一个特斯拉的电动车的概念，往里面装一套乐视的手机系统，在车上能看乐视的视频，这就是未来的汽车吗？ 当今汽车产业，很多的好车让我们垂涎欲滴、赞不绝口。动力强，声浪迷人，操控性好，舒适性好，过弯不侧倾，过坑不颠簸，这是机械迷、喜欢开车的人所讲究的，也是目前区分“好车”的标准。 可是，汽车这个产业已经发展了100多年了，更不提路会越修越好。当整个汽车产业都往前迈进了一大步，常见的品牌的机械性能都已经达到了大同小异，达到了基本不能分辨的时候，除了拼设计造型和价格之外，大家能拼的，就是科技、体验和互联。 王自如是以手机评测起家的，手机是最能凸显体验重要性的产品。手机行业发展至今，各家的硬件已经高度同质化，软件的底层也无非就是iOS和Android两种。手机与手机的差别，一是价格，二是零点零几秒的对焦时间和拍照速度，或者小到1%的弧度带来的绝妙手感，三则是互联性，也就是所谓的“生态”。 而特斯拉选择王自如来做Model X全国首测此举，正是宣誓他们所认为的汽车的未来，不仅在机械性能，更在于先进的科技，深度的互联，细腻的体验。 未来，自动驾驶、车联网、车车通信，更多的先进科技将接管方向盘，解放双手，汽车或许会成为我们的移动休息室，移动影剧院，移动游戏厅，甚至移动会议室。 4⃣️整个汽车行业震惊了，互联网汽车真的是趋势？ 很多“车评人”已经有点慌了，最明显的问题就是，再这么演变下去，饭碗要丢。 不仅如此，给整个汽车行业带来的更多震撼的是，特斯拉对于未来汽车的预期也许是对的。 这样大量刚需、充分竞争的制造业，在技术发展到一定程度，硬件同质化的问题会逐渐凸显且不可避免，而最终的趋势是在科技、互联、体验上打出不同的组合拳。 而这些细腻的体验、深度的互联，是传统车厂所不擅长的，却恰恰是互联网企业统治的领域。 如果我还没有表达清楚，不妨大家再回忆一下，以阿斯顿马丁的逼格，为什么和乐视合作推出乐视版本的阿斯顿马丁？ 看到这里，您认为互联网汽车，是噱头还是趋势呢？ Lytek氢点科技 看生活，我们最新锐 看科技，我们最有趣 长按下方二维码关注，世界原来这么精彩 Lytek氢点科技(lytekchina)</t>
+  </si>
+  <si>
+    <t>超级高铁首测 加速时间仅为1.1秒最高时速达644千米 发表于 2016年5月12日14:26 超级高铁首测 超级高铁首测 超级高铁首测 超级高铁公司Hyperloop One周三在拉斯维加斯北部的沙漠中利用测试轨道测试了超级高铁的推进系统。该公司根据特斯拉CEO伊隆·马斯克(Elon Musk)的大众交通白皮书设计了这一系统。测试车辆以相当于2.5倍重力的推力加速，在短暂运行后停止在一个沙坑里。 超级高铁首测 超级高铁首测 超级高铁首测 该公司首席技术官布罗根·班布罗根(Brogan BamBrogan)表示，Hyperloop One计划到2016年底拥有1/4英里(约合400米)长，包含一系列管道的完整尺寸轨道。 周三的测试完全专注于推进系统。Hyperloop One工程高级副总裁约什·吉杰尔(Josh Gienel)表示，测试车辆的发动机和测试轨道的关系就像是两块互斥的磁铁。 超级高铁首测 超级高铁首测 超级高铁首测 超级高铁首测 在重达1500磅(约合680.4千克)的测试车辆开始行驶后，多块磁铁被激活，为测试车辆加速，时速0到96公里的加速时间仅为1.1秒，而最高时速将达到400英里(约合644公里)。 Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)。 来源：www.techweb.com.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“硅谷钢铁侠”马斯克的超级高铁首测 最高时速可达1125 km/h 时间：2016-05-12 11:42:34      作者：   编辑：号外财经     来源：科技棱镜社     收藏        近日，据英国《每日邮报》报道，马斯克的一项疯狂计划——时速接近音速的超级高铁就将进行首次测试。        据悉该计2013年由马斯克首次提出，如果该计划顺利实施洛杉矶和旧金山之间的车程将缩短到35分钟。未来在理想状态下最高时速将达到6500公里，从北京到纽约，乘坐“超级高铁”也仅需2小时。        在马斯克的设计中，整个系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱中，为了解决达到每小时约960公里以上的亚音速时带来的空气阻力问题，超级高铁将行驶在真空的管道中。         这一看似疯狂的计划如果来自别人的口中肯定会被认为是个笑话，但马斯克则不同，他是SpaceX、特斯拉汽车及PayPal三家公司的创始人，是一个连上帝都敢藐视的人。做出全世界最好的电动汽车，通过私人公司将火箭送上天，经营世界上最大的支付公司，他的这些经历够写几部小说，因此他也被人们称为“硅谷钢铁侠”。        据该项目官方介绍“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125千米每小时）。”未来该公司将会在加州中央山谷建设5英里长的测试管道，而它们将采用名为被动磁悬浮的技术。        马斯克一向对科技的探索都是认真的，他出现的领域还没有哪一个是不成功的，或许我们坐上超级高铁的日子越来越近了，未来我们的地球在超级高铁的普及下真的会变为“地球村”。 郑重声明：以上文章仅代表作者个人观点，与号外财经网无关。其原创性以及文中陈述文字和内容未经本站证实，对本文以及其中全部或者部分内容、文字的真实性、完整性、及时性本站不作出任何保证或承诺，请读者仅作参考，并请自行核实相关内容。本文不作为投资的依据,仅供参考，据此入市,风险自担。发布本文之目的在于传播更多信息，并不意味着号外财经网赞同或者否定本文部分以及全部观点或内容。如对本文内容有疑义，请及时与我们联系。 分享到：QQ空间新浪微博腾讯微博人人网微信复制网址打印  收藏 上一篇：小米5一机难求引吐槽 小米手机今天你抢到了吗？ 上一篇：最后一页 延伸阅读： 印度频频出口CEO攻陷硅谷：不是只有外包软件(2015-08-16) 打造中国版Instacart，乐来一小时速递叫板天猫(2015-08-04)</t>
+  </si>
+  <si>
+    <t>【岁岁网核心提示】最后更新时间：2016-05-12 11:09，原标题：超级高铁首测 时速接近音速分分钟到达目的地，全世界范围内，高铁已经成为越来越重要的交通工具。11日，美国超级高铁高铁首测，这架时速接近于音速的超级高铁将洛杉矶到旧金山的行程缩短为30分钟，实在惊人，是目前全球速度最快的高铁。 11日，超级高铁在美国拉斯维加斯北部工业园的专用管道中进行首测，超级高铁在... 【标题】超级高铁首测 时速接近音速分分钟到达目的地 全世界范围内，高铁已经成为越来越重要的交通工具。11日，美国超级高铁高铁首测，这架时速接近于音速的超级高铁将洛杉矶到旧金山的行程缩短为30分钟，实在惊人，是目前全球速度最快的高铁。 11日，超级高铁在美国拉斯维加斯北部工业园的专用管道中进行首测，超级高铁在真空管道中利用被动悬浮技术逐渐加速至700英里每小时，折合成公里，也就相当于每小时要行驶约1125公里，这简直太骇人听闻了，然而这项骇人听闻的技术马上就要变成现实了。 由于超级高铁是逐渐加速的，所以坐在车上的乘客并不会感受到突然加速而产生的惯性后仰，整个行程像坐在普通高铁上一样舒适。正常情况下，坐普通火车从美国洛杉矶到旧金山需要整整一天的时间，而超级高铁问世之后，区区30分钟时间，人们就可以下车，简直快得惊人。 据悉，这项超级高铁计划是由美国一位家喻户晓的大神提出来的，他就是埃陇马斯克，特斯拉的创始人。超级高铁首测成功无疑是人类史上一项巨大的进步，这一消息将令整个科技界和财经界沸腾，据悉，A股磁悬浮概念股就很有可能一飞冲天。 美国的科技发展程度让人不服不行，小编想到以后竟然就可能会乘坐和音速相当的高铁了实在是震惊到了，从大杭州回趟家，那都不事儿，简直就是现实版分分钟啊！ 投稿删稿联系邮箱：news@lizhixia.com      岁岁网首页：http://news.lizhixia.com 注：本站所有标明出处稿件均来至互联网，转载内容只为传播信息无任何商业目的，若涉版权及侵权问题可联系我们处理。凡注明为“岁岁网”的所有内容版权均属于本站，禁止一切转载协议授权除外，授权转载请注明来源。</t>
+  </si>
+  <si>
+    <t>　　超级高铁(Pneumatic Tubes)又被成为“胶囊高铁”。是一种以“真空钢管运输”为理论核心设计的交通工具，具有超高速、高安全、低能耗、噪声小、污染小等特点。这种“胶囊”列车有可能是继汽车、轮船、火车和飞机之后的新一代交通运输工具。 图为设计草图 　　     “超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉(Tesla)和太空探索技术公司(SpaceX)的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　据CNBC美国当地时间5月11日报道，美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后(约合640公里/小时)，撞击到91米外的沙堆减速停车。 　　 　　图为测试现场 　　此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德(Rob Lloyd) 表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘·巴姆布罗甘(Brogan BamBrogan)透露。 　　虽然目前超级高铁有待解决的问题还有很多，但是超级高铁的用户者认为，在未来超级高铁一定会被全面推广，因为成本较低(一旦一个超级高铁胶囊投入使用，它能以非常低的能量使用维持现有速度)，同时不会产生任何碳排放。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。</t>
+  </si>
+  <si>
+    <t>您当前的位置：首页 &gt; 充电吧 &gt; 新鲜事 “超级高铁”的首个测试轨道将落户加利福利亚 时间：2015-05-21 来源：leiphone.com 作者： “超级高铁”的概念首先由埃隆·马斯克(Elon Musk)提出，听起来就好像科幻小说中的情节：超高速、自供电、几乎坚不可摧的特点，使得这款新型交通运输工具备受追逐。多亏了新成立的Hyperloop 运输科技公司(不隶属于Musk)，这个想法才逐渐的接近现实。 据《财富》杂志报道，Hyperloop的首条测试轨道将在不久后落户加利福利亚。预计总长5英里的轨道将耗资1亿美元，并在明年投入试运行。该公司刚刚与当地土地所有者签订了协议，以便工程尽快开工。 如果在洛杉矶和旧金山之间为“超级高铁”铺设总长达400英里的运输管道，预计投资总额将高达80亿美元，当然运行时间将缩短至惊人的30分钟。尽管马斯克没有正式参与加利福利亚的测试轨道项目，但是这个技术总有一天会缩短其他城市间的通勤时间，例如马斯克计划建立另一个测试轨道的德克萨斯。 自2013年提出以来，“超级高铁”就备受关注，有肯定也有质疑。未来可以让乘客以每小时800公里的速度飞驰的真空管道听起来就令人兴奋不已，但是另一部分人对该项目的技术可行性提出了质疑。据报道，加利福利亚的交通运输局对此举棋不定，因为他们担心这样的交通项目可能引发地震，且势必会跨越各种地形和私有土地。 今天的报道显示，该项目距离现实又近了一步。如果测试成果，估计“超级高铁”会继续运行10年时间，而不是立即进行全面推广。留下充足的时间对其进行测试，并解决可能出现的问题。 赞 () 版权声明：本站刊载的所有内容，文字、图片等资源均源于网上搜集或者由用户投稿，仅供学习和研究使用，无任何商业目的，其版权归原作者所有，对可以提供充分证据的侵权信息，本站将在确认后12小时内删除。 相 关 推 荐 最后杀手锏？！苹果密谋自主GPU 自行设计了处理器，并且还很成功，但这对于苹果来说只是个开头，因为围绕iPhone，他们还会在处理器上进一步的整合和规…… 难忘血泪史！中国人对日本好感度不足3成 日媒称，公益财团法人的新闻通信调查会于近日对外公布，其在美国、中国、韩国、英国、法国及泰国共计6个国家，所实施的…… 十八岁的QQ换新LOGO了，走向成熟！ 1998年创立的腾讯，到了今年足足18年了，而QQ今年也17岁了。今天，QQ形象迎来再一次的升级。我们先来看一下最新形象。…… 别说我没告诉你！这些智能设备千万别让女朋友看到 也许你看过很多智能设备，但它们给你的感受更多可能只是冰冷的机器，而小编带来的这些“萌物”也真是少有，前方高能，…… 360搜索：我们放弃一切消费者医疗商业推广业务 360方面呼吁所有搜索企业，在相关的法律和制度完善之前，为了生命和健康，暂时放弃商业利益。 …… 谷歌获无人机新专利 绳索“空投”快递! 北京时间5月3日消息，据硅谷网站Mercurynews报道，谷歌当地时间周二被授予的一项专利，描述了无人机在处于悬停状态时利……</t>
+  </si>
+  <si>
+    <r>
+      <t>全球首个超级高铁轨道动工，年底有望载人测试 2016-01-14 09:22:00 来源：环球网 　　近期，Hyperloop Technologies的新晋CEO罗博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洛依德(Rob Lloyd)承诺，会在2016年底前完成对超级高铁轨道的所有测试工作。在CES 2016的采访中，罗博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洛依德表示，Hyperloop Technologies的第一条超级高铁管道已经开始在拉斯维加斯北部地区破土动工。测试用轨道全长2英里（约合3.2公里），如果一切按计划正常进行，将有望在2016年底进行载人测试。 　　从CNN制作的视频来看，目前的超级高铁管道看起来与通用的建筑材料没有多大区别。罗博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洛依德在11月时就曾表示：“建造超级高铁实际上非常简单――只要从封闭环境中抽掉压力就行了，所谓的封闭环境就是管道...除此之外我们还需要消除其中的摩擦力，这样就可以用很小的能量推动车舱高速前进。而消除摩擦力的办法就是让车舱悬浮在管道内。” 编辑：王蕊 关键词：测试;高铁;轨道;Technologies;Hyperloop 说两句 相关阅读 红包测试，该不该？ 1月4日下午，一则处罚通报在成都的一家公司传开了，有人因为上班时间在微信群里抢红包，被公司处罚了500元。但接下来，他的不好意思就转化成了庆幸：当天下午，公司下发一纸处罚通知，抢红包的“前三名”，每人罚款500元。 2016-01-08 11:00:41 纽约时代广场迎新年活动倒计时 测试狂撒彩屑 当地时间2015年12月29日，美国纽约，纽约时代广场测试撒彩屑，为迎新庆祝活动做准备。民众在测试活动中为新年气氛余热，虽然只是测试活动，但大人小孩都玩的不亦乐乎。 2015-12-31 07:40:28 即日起凭高铁票可免费游玩武义 1月10日全国铁路实施新的列车运行图后，上海新增了20余趟高铁，其中上海虹桥经金温铁路共增开了5.5对高铁动车，上海市民前往浙江武义、永康等地旅游更加便捷。金丽温铁路起自金华，途经金华市所辖的金东区、武义县、永康市和丽水市所辖的缙云县、莲都区、青田县，到达温州市区，设金华南、武义北、永康南、缙云西、丽水、青田和温州南7个客运车站。 2016-01-13 15:50:43 参与讨论 我想说</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源标题：全球首个超级高铁轨道动工 年底有望载人测试 近期，Hyperloop Technologies的新晋CEO罗博·洛依德(Rob Lloyd)承诺，会在2016年底前完成对超级高铁轨道的所有测试工作。在CES 2016的采访中，罗博·洛依德表示，Hyperloop Technologies的第一条超级高铁管道已经开始在拉斯维加斯北部地区破土动工。测试用轨道全长2英里（约合3.2公里），如果一切按计划正常进行，将有望在2016年底进行载人测试。 从CNN制作的视频来看，目前的超级高铁管道看起来与通用的建筑材料没有多大区别。罗博·洛依德在11月时就曾表示：“建造超级高铁实际上非常简单——只要从封闭环境中抽掉压力就行了，所谓的封闭环境就是管道...除此之外我们还需要消除其中的摩擦力，这样就可以用很小的能量推动车舱高速前进。而消除摩擦力的办法就是让车舱悬浮在管道内。” 责任编辑：陈群（QT0001） 相关阅读 铁总获高铁票价定价权 打破票价“一成不变” 高铁定价权放开会不会只涨不跌 王安顺：加快建设轨道交通从根本上缓解拥堵 高铁定价权放开会不会只涨不跌 放开高铁票价须防“涨声”淹没掌声 高铁定价权放开会不会只涨不跌 高铁定价市场化是提升资源配置效率的必选 高铁自主定价是好事吗 铁总获高铁票定价权 铁总获高铁票定价权 打破票价“一成不变” 热点图片 频道推荐 永久免费的网盘说关就关 最近两月，网盘关停潮一波接一波，排名前十的网盘中，已有6个关停或调整了相关服务。 摆脱初夏燥热 清凉吃出来 步入初夏模式，各种清凉美食就将大行其道。小编教你如何在炎炎夏日吃出清凉的感觉。 初夏国内这五个地方最美！ 斜倚一卷慢扬的清风，娟娟飞扬的素色的长裙，带我闯入初夏的风景。5月约个时间出发吧！ 玩转“博物馆日”全攻略 一年一度的5.18国际博物馆日马上就要到了，快来跟小编一起看看具体的活动内容吧。 北京城八区对应哪种姑娘 北京是一座厚道，局气，有面儿的城市。如果把北京城八区比喻成姑娘，您知道是什么样吗？</t>
+  </si>
+  <si>
+    <t>中证网综合报道，昨日，特斯拉创始人马斯克的另一项疯狂计划——时速接近音速的超级高铁进行首次公开测试。 　　马斯克于2013年首次提出了这项大胆的计划，当时他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。 　　这次测试在拉斯维加斯北部的工业园区进行，整个测试将持续两天。超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里(约合1125千米每小时)。” 　　参与超级高铁计划的还有另一家名为HTT(Hyperloop Transportation Technologies)的公司，该公司未来将会在加州中央山谷建设5英里长的测试管道，而它们将采用名为被动磁悬浮的技术。 　　虽然超级高铁的设想来自马斯克，但他表示自己没有研发该系统的计划，不过“硅谷钢铁侠”会开源自己的设计，以便其他公司对其进行改进。在马斯克心里，超级高铁是“协和式飞机、轨道枪和气垫曲棍球台的结合。” 　　出生于南非的马斯克现在已经成了美国家喻户晓的一个传奇，他不但是PayPal的创始人，手上还握有特斯拉、SpaceX和SolarCity等创新公司。 　　超级高铁被称之为第五种交通运输方式，在接近真空的管道内实现接近音速的速度。目前的可行性方案只有真空磁悬浮技术，列车和轨道将大量采用稀土永磁材料，A股相关概念股或会因此受到资金关注。</t>
+  </si>
+  <si>
+    <t>Hyperloop One建设了一条半英里长的露天测试轨道 凤凰科技讯 北京时间5月12日消息，超级高铁是空想还是现实？就在许多人怀疑的时候，Hyperloop One开始对推进系统进行测试。测试在拉斯维加斯的沙漠举行，主要考察推进技术是否可行，而非刻意追求速度。看起来超级高铁离我们越来越近了。 超级高铁概念设计 超级高铁是真实的 本周，超级高铁开始朝着现实加速冲刺。周三时，在拉斯维加斯的沙漠里，Hyperloop One公司对推进系统进行第一次测试，这一步必不可少。 在测试前夕，Hyperloop One宣称已经与更加传统的交通运输企业合作，公司还融入了新的资金。Hyperloop One的目标是在2020年之前建设完全可以投入运营的超级高铁，上述进展无疑是重要的里程碑。 本周二，Hyperloop One CEO罗勃·洛伊德（Rob Lloyd）在拉斯维加斯接受采访时表示：“超级高铁是真实的，它正在变成现实。”周二时，公司宣布更名，由Hyperloop Technologies变更为Hyperloop One，目的是和主要的竞争对手区别开来。 2013年，亿万富翁马斯克首先提出超级高铁的概念，按照他的构想，超级高铁可以利用低压管道运送乘客，时速达到760英里（约1223公里），接近音速，一些创业公司正在努力将马斯克的创意商业化，Hyperloop One正是其中之一。 马斯克认为，超级高铁的胶囊可以用推进电机驱动，管道接近真空，磁力可以让胶囊悬浮于薄片之上。传统交通工具会碰到空气阻力和摩擦力，超级高铁没有，所以可以获得超高速度。 为了率先将马斯克的构想变成现实，Hyperloop One和HTT（Hyperloop Transportation Technologies）针锋相对。 正在建设的轨道 最终成本只有高铁的三分之二 周一时，HTT宣布公司已经找到办法利用永磁铁悬浮超级高铁胶囊，这是一门新技术，它比之前的方法更便宜、更节能。HTT还没有演示过自己的推进技术。Hyperloop One宣称它已经试验过永磁铁技术。 超级高铁招来许多的怀疑，主要和成本有关，而非技术本身。马斯克曾经说过，从旧金山建设一条超级高铁通往洛杉矶，大约需要60亿美元，专家却认为远不止如此。洛伊德称：“我们会降低超级高铁的成本，最终它的成本只有高铁的三分之二，速度却是它的三倍。” 为了降低成本，Hyperloop One将设计拆分为各部分，比如悬浮、推进、管道设计，然后尝试用更便宜的材料来制造各部分组件。 Hyperloop One成立于2014年，它在首轮融资中获得3700万美元，还在洛杉矶设立了办事处。去年12月，Hyperloop One开始在拉斯维加斯北部建设测试点，包括一个半英里长的露天轨道，周三测试时用的就是这条轨道。 滑车在测试轨道上行驶 测试推进系统 本周三Hyperloop One对推进系统进行测试只是项目的第一步。驱车往拉斯维加斯北部行驶30分钟，驶出一条泥土路，就会看到一个控制室，在那里，工程师按下了倒数计时设备，附近露天看台上拥挤的怀疑者们屏息凝视。 测试主要集中在推进技术上（看它是否能推动滑车前进），而不是追求速度。轨道很短，存在空气阻力，这两点会让速度变慢，在未来的测试中公司会解决。 滑车大约长10英尺，里面安装了推进电机，没有乘客，突然之间滑车开始前进，这预示着引擎已经启动。很快速度就达到了每小时116英里（约186公里），滑车冲进了沙堆中，它用来阻挡滑车；满天都是沙尘。Hyperloop One并没有为系统安装刹车。 Hyperloop One还想证明技术是值得装备的。周二时，Hyperloop One还表示，公司已经参与一个秘密评估项目，主要是考察在斯德哥尔摩（瑞典首都）和赫尔辛基（芬兰首都）之间建设超级高铁的可能性，还有就是从洛杉矶、加州长滩港口建设一个货物运输网络，以及穿越瑞士的网络。 3月份，HTT已经与斯洛伐克政府签署协议，探索在当地建设超级高铁的可能性。Hyperloop One最新的投资者拥有交通运输技术。在B轮8000万美元融资中，参与投资的包括法国国有铁路公司SNCF，通用电气风险投资公司。通用电气的交通运输部门主要制造火车头。 据洛伊德透露，今年年底之前，Hyperloop One计划建设和测试完整的超级高铁，包括管道、胶囊和控制胶囊的计算机，他说胶囊的速度可以达到每小时700英里（约1126公里）。 滑车冲进沙堆卷起一阵尘沙 目标是2秒之内时速达到643公里 Hyperloop One联合创始人洛伊德还认为，他们即将迎来自己的“小鹰时刻”。另一名联合创始人施欧文·彼西弗(Shervin Pishevar)则表示：“我们已经站在圣地上。” 在测试时，Hyperloop One让金属滑车在轨道中冲刺，磁悬浮技术会让滑车稍稍浮起。整个测试只有2秒钟。但是Hyperloop One联合创始人认为已经足够了，它证明类似于高铁磁悬浮列车的技术是可行的，因为成本更低，不需要高昂的高科技火车和铁轨。 Hyperloop One联合创始人、CTO巴姆布罗根（Brogan BamBrogan）表示：“测试主要是证明硬件和软件的有效性，我们的目标是在2秒之内就将速度提高到了每小时400英里（约643公里）。到了今年年底，我们希望可以进行完整的测试，让滑车在管道内加速，用我们的定制推进系统加速。” 到时测试还是在拉斯维加斯沙漠举行。团队准备建设一条3英里长的轨道，下面是桥塔，上面是高架管道。巴姆布罗根称：“这里将会成为超级高铁的发明地。”巴姆布罗根还强调说，超级高铁上的乘客不会感觉到加速，因为速度是稳步提升的，最终可以接近于750英里每小时（1200公里）。 Hyperloop One的几位创始人 2019年运送货物2021年运送乘客 在洛杉矶，Hyperloop One正在测试不同的悬浮技术，它们是以被动磁悬浮技术为基础的，目前欧洲亚洲使用的高速磁浮列车也采用磁悬浮技术，被动磁悬浮技术是当中的一个版本。 Hyperloop One CEO洛伊德认为，公司已经获得一些支持，比如来自北拉斯维加斯的支持，如果其它地方也能给予相似的支持，2019年之前Hyperloop One将可以运送货物，2021年之前运送乘客。 实际上，Hyperloop One的高管们将新式超级高铁比做19世纪建设的Transcontinental Railroad（横贯北美大陆的铁路）和20世纪60年代的登月计划。但是建设横贯北美大陆的铁路是不可避免的，而且土地也是无限的。至于后者，美国向火箭项目投入了一个国家资源。 今天的形势不同，Hyperloop One和HTT碰到了许多障碍，比如土地使用权，现有交通运输企业的阻挠（火车和卡车公司），它们为了维持现状投入巨额资金。 超级高铁的先驱们认为，最终他们会用低成本赢得胜利的果实，一旦超级高铁的胶囊开始投入运营，它可以用极低的能耗维持超高的速度，而且还不会产生碳排放。 马斯克是SpaceX和特斯拉的CEO，超级高铁的构想是他提出的。SpaceX曾经主办过一次竞赛，为超级高铁寻找技术解决方案，但是它不会成立公司参与超级高铁竞赛。 Hyperloop One联合创始人施欧文·彼西弗(Shervin Pishevar)和马斯克是朋友，彼西弗曾经问过马斯克，他是否可以将超级高铁技术商用，马斯克是怎么回应的呢？彼西弗笑了笑说：“马斯克说当然可以，因为他太忙了，忙着登上火星。”</t>
+  </si>
+  <si>
+    <r>
+      <t>中新网5月12日电 据外媒报道，当地时间5月11日，总部位于美国洛杉矶的Hyperloop One公司在内华达州沙漠完成了“超级高铁”Hyperloop推进系统的首度户外测试。“超级高铁”是由美国创业天才马斯克继特斯拉汽车、SpaceX和Paypal之后提出的又一大胆设想。 　　马斯克曾鼓励发明家们将“超级高铁”的创意变成现实。“超级高铁”、也叫“真空管道高速列车系统”，根据马斯克2013年提出的方案，“超级高铁”使用磁悬浮列车在接近真空的管状轨道中行驶，时速可以达到1200公里甚至更高，而声速每小时才1236公里。这意味着从北京到上海只需1小时。 　　在此次露天测试中，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，推进装置仅通过1.1秒就从0加速到每小时116英里的速度(约97公里)，最后撞到一个沙堆上减速停车。 　　多家媒体表示，此次测试成功意义重大。它意味着美国在通过超高速列车变革运输系统的道路上又迈进了一步。 　　超级高铁的创始人兼CTO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时(约643公里)。”不过，Hyperloop One的首席执行官罗布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劳埃德表示，全面的测试需要等到2016年年底进行。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据英国《每日邮报》报道，美国当地时间5月11日，马斯克的疯狂计划――时速接近音速的超级高铁将进行首次测试。 　　这次测试在美国拉斯韦加斯北部的工业园区完成，整个测试将持续两天。 　　超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125公里每小时）。” （责任编辑： HN666） 相关新闻 05/08 00:26李肇星论“经济高铁”：企业走出去要抱团创新 05/04 05:58“机器人”祁超：一名高铁“最牛工人”的养成 04/30 09:19中国将为俄首条高铁提供价值4000亿卢布贷款 04/28 19:54中俄专家齐聚冰城研讨世界寒区高铁“关键技术” 04/22 00:36广西高铁时代催热铁道专业招生 竞争堪比高考 04/19 20:23合肥至青岛高铁有望明年开建 设计时速350公里 04/15 12:13中国海外投资年内或增超10% 高铁核电成扩张重点 04/12 18:46亲密接触中国大地保险号高铁，保险业的伙伴也来看看 相关推荐 高铁 评论 还可输入 500 字 最热评论 最新评论 新闻精品推荐 特色：一周最新闻 高清组图 专栏热点：中国金融领域重拳反腐 汶川地震新闻人物今何在 巴西最高法驳回废除弹劾案请求 罗塞夫职位难保 [巴西参议院就总统弹劾案激辩 罗塞夫或凶多吉少] [巴西“铁娘子”能否挺住] 美国“黑人”称呼将成历史 土耳其拒绝顺从欧盟重修反恐法案 柏林亚洲大市场起火爆炸 华商遭殃 朴槿惠开启非洲三国和法国之行 菲律宾副总统竞选计票引争议 蔡英文520演说不脱"维持现状"基调 戛纳国际电影节开幕 王思聪购车刷卡像买菜 浙江台州一飞机坠毁 苏宁与宏兴比赛现冲突 推广 热点 热点 每日要闻推荐 社区精华推荐 李克强部署消费工业升级 首提品质革命 长三角城市群发展规划获批 将尝鲜自贸区政策 交通设施工程建设三年计划启动 总投资4.7万亿 监管层严审跨界虚拟产业并购 并非全部叫停 第三批PPP示范项目近期公布 总投资料达6000亿 新华社：监管层正改进退市机制 以保护投资者 中国企业借新债偿旧债 债务占GDP比重全球最高 女裸替：2万啥都干 时间窗暴露轮动的秘密 薄谷开来杀人细节 此点位是大盘的生命线 精彩焦点图鉴 朝鲜艺术团演庆七大闭幕 朝鲜公布政治局常委肖像 排行榜 1 初为人父的人大硕士“涉嫖”被控制后身亡 2 总理一周两谈民间资本　释放了什么信号 3 民间投资增速陡然下行国务院督查组赴18省份专项督查 4 7月1日起全面推进资源税改革 5 金融整肃已悄然开始监管层全力驱赶资金脱虚入实 6 反避税重磅文件近期可望出台 7 A股暴跌舆论“火上浇油”上市公司负面报道骤增 8 新一轮东北振兴三年滚动计划正在制定提出一批重大项目，主要涉及基础设施 9 东北全面振兴细则将出投资1.6万亿开展130个重大项目 10 交通基础设施建设三年行动启动投资4.7万亿元 　</t>
+  </si>
+  <si>
+    <t>5月12日消息，本周三美国超级高铁首测，巴姆布罗甘表示超级高铁胶囊里的乘客将不会感受到加速，因为加速是逐渐进行的，最终速度将达到750英里（约合1207公里）每小时。旧金山和洛杉矶之间的旅程只需要30分钟。这次测试仅持续了两秒。 　　高铁速度美国超级高铁公司、初创企业Hyperloop One在内华达沙漠里展示了它将如何以接近声速的速度用管道胶囊运送人和货物。几十名投资者、合作伙伴和媒体聚集在一起观看这艘金属火箭滑车如何在两秒内加速至400英里（约合643.7公里）每小时的速度，然后撞击在91米外的沙堆里。前往遥远的测试设施需要40分钟，这次测试仅持续了两秒。　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国HyperloopOne公司预定11日在内华达州沙漠进行Hyperloop超级高铁推进系统首度户外轨道测试。Hyperloop列车是研发中的高速运输系统，规划可载送人员与货物的胶囊型运输舱在真空或低压管道中运行，预计最高时速可达700英里(约为时速1126公里)。 HyperloopOne公司指出，推进系统将于拉斯维加斯北边的内华达沙漠进行首次露天轨道公开测试，预计时速可达400英里(约为时速643公里)，而若在密闭真空管道中则可达时速700英里。 该公司计划今年底前进行全系统全面测试(胶囊型运输舱管道运行测试)。 目前有HyperloopTransportationTechnologies，HyperloopOne等公司进行系统研发。某些媒体将Hyperloop列车称为超级高铁。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据外媒报道，美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过HyperloopOne的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 报道称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 </t>
+  </si>
+  <si>
+    <t>据每日邮报报道，今天（当地时间周三）埃隆-马斯克（Elon Musk）的超高速高铁（Hyperloop）模型进行演示，其推进器成功将一辆金属滑车在短短两秒之内提速到了每小时116英里（约186公里），超级高铁的概念早在2013年由马斯克提出，他宣称建成后从洛杉矶到旧金山只需要35分钟。</t>
+  </si>
+  <si>
+    <t>　美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布·劳埃德表示，全面的测试需要等到2016年年底进行。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆·马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　海通证券认为，“超级高铁”梦想驶入现实。“Hyperloop”系统是一套全新的高速运输体系，该运输系统并非以火车而是以“铝制胶囊”为运输工具，将“铝制胶囊”置于钢铁管道之中，然后像发射炮弹一样将它发射至目的地。胶囊型列车借助磁力可在空气阻力小的大型管道内达到时速1100公里以上，每节车厢荷载28人，仅需飞机的一半时间即可在两个城市间移动。列车所需电力由铺设在管道顶部的光伏面板提供。据称洛杉矶至旧金山区段的造价为60亿美元(约合人民币375.5亿元)，低于传统铁路。更可贵的是，这种运输工具更清洁、环保。设计者称，真空管道运输比其他任何传统的交通工具耗费的能源都少，真空管道运输每千瓦时的运输量要比火车的运输量多1倍。“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。 　　分析认为，磁悬浮技术主要采用稀土永磁材料，中科三环、江粉磁材、正海磁材以及早期在磁悬浮列车有过经验的公司如中科电气等有望受益。</t>
   </si>
   <si>
     <t>美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。</t>
-  </si>
-  <si>
-    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 对于该公司打造未来派运输系统的努力来说，这是一个重要的里程碑。整个试验过程持续了不到2秒钟。 这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆·马斯克在2013年提出，他想通过超级高铁将洛杉矶和旧金山之间的车程缩短到35分钟。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。超级高铁Hyperloop One最终完成的产品时速预计将超过700英里(约合1127公里)，与此同时，民航客机的速度一般为900公里/小时，波音747巡航速度最快是将近1120公里/小时。 超级高铁的创始人兼CEO Brogan BamBrogan表示：“此次测试是对硬件和软件的一次测试，我们的目标是在2秒内加速至400英里/小时（约643公里）。” 图为超级高铁准备进行测试。 在当地时间周三的试验中，一辆滑车沿着轨道行驶了1000米，旨在演示超级高铁技术的发展。未来试验的重点将是磁悬浮和管道设计。Hyperloop One将于今年底测试完整的超级高铁系统。建设完成的超级高铁系统将是一个架设在高架轨道上的封闭管道，从理论上说，列车行驶时悬浮在轨道上方，从而达到超快的速度。超级高铁从旧金山行驶到洛杉矶只需约30分钟。 图为超级高铁准备进行测试。 HTT当地时间周一宣布，它将许可美国劳伦斯利弗莫尔国家实验室的技术，利用永磁体使列车悬浮起来。HTT称，与目前高铁使用的技术相比，新技术成本更低、更安全。HTT尚未展示其技术。Hyperloop One也在试验磁悬浮技术。 图为运行中的超级高铁。Hyperloop One计划今年第四季度对其超级高铁系统进行全面试验。 图为运行中的超级高铁。 图为运行中的超级高铁。 图为运行中的超级高铁。 测试过程动图</t>
-  </si>
-  <si>
-    <t>美国创业公司Hyperloop One的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 　　据澎湃新闻5月12日消息，此次推进系统测试位于拉斯维加斯北 相关公司股票走势 中国银行 海通证券 中科电气 中科三环 江粉磁材 边的内华达沙漠。如果按照最终设想，超级高铁将在密闭真空管道或低压管道中行驶，时速最高可达760英里(约合1230公里/小时)。不过Hyperloop One的首席执行官罗布・劳埃德表示，全面的测试需要等到2016年年底进行。 　　“这次主要是测试硬件和系统，我们现在的目标就是在两秒内加速到400英里每小时，在今年年底，我们希望进行完整的测试，利用我们的加速管道。”Hyperloop One的联合创始人兼首席科技官布罗甘・巴姆布罗甘透露。 　　超级高铁实测情况 　　乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。 测试过程动图 　　届时测试还将在这片沙漠进行。研究小组将建造一个3英里长的轨道，一个电缆塔将支撑管道悬浮在地面上方。“这里就是超级高铁的诞生地。” 巴姆布罗甘称。 　　此前在洛杉矶，Hyperloop One还测试了不同的悬浮方法，主要是基于被动磁悬浮技术，这种技术现在被应用于欧洲和亚洲的高速磁悬浮列车。劳埃德认为，“如果这次测试获得的成果可以被复制和应用，超级高铁2019年就可以实现装载货物，2021年将实现运输乘客。” 　　Hyperloop One称，乘坐超级高铁的乘客并不会感受到加速，因为加速是逐渐进行的，当达到最高时速760英里/小时时，旧金山和洛杉矶之间的旅程只需要30分钟。与传统交通工具相比，开车需要6小时，传统火车更是要整整一天。 　　超级高铁项目背景 　　2013年8月12日报道，特斯拉汽车创始人、首席执行官马斯克在其博客中披露了超级高铁计划Hyperloop的初始设计方案。 　　“超级高铁”的概念最早由“科技狂人”、美国电动汽车公司特斯拉（Tesla）和太空探索技术公司（SpaceX）的共同创始人埃隆・马斯克在2013年提出。马斯克发布了名为《超级高铁缘起》的白皮书，共58页，提出了他的“超级高铁”概念。马斯克的“超级高铁”运行时速750英里，一列车坐28人，洛杉矶到旧金山票价20美元，一年运送旅客740万，20年收回投资。 　　马斯克所设计的“超级高铁”并不是人们常见的传统火车的形态，而更像是一个铝制的胶囊。其运行原理是将“铝制胶囊”置于钢铁管道之中，然后将管道抽至真空，再像发射炮弹一样将车厢发射至目的地。 　　除了Hyperloop One，由美国国家航空航天局和波音公司员工组建的众筹公司Hyperloop Transportation Technologies同样也在进行超级高铁的研究。该公司在5月9日宣称，已经获准在其原型系统中使用被动磁悬浮技术。 　　5月10日，Hyperloop One宣布获得8000万美元的B轮融资，以继续科研和研发测试，现在公司估值接近1.2亿美元。新的投资者包含137家风投，其中不乏通用电气旗下的投资机构GE Ventures以及法国国家铁路公司(SNCF)。 　　海通证券研报显示，“超级高铁”项目若能成功商业化，其有望成为继汽车、火车、飞机、轮船之后的第五代现代交通工具。二级市场上，超级高铁概念曾在A股掀起一股科技热潮，分析指出，中科电气等早期在磁悬浮列车有过经验的公司值得重点关注，另外，磁悬浮技术主要采用稀土永磁材料，故中科三环、江粉磁材、正海磁材等品种也可持续跟踪。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据英国《每日邮报》报道，美国当地时间5月11日，马斯克的疯狂计划——时速接近音速的超级高铁将进行首次测试。 这次测试在美国拉斯韦加斯北部的工业园区完成，整个测试将持续两天。 超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里（约合1125公里每小时）。”</t>
+  </si>
+  <si>
+    <t>全部 全部 每日热点 看财经 观产业 大消费 互联网+ 行业研究 超级高铁首测成功 国内高铁概念股一览 4100 美国创业公司HyperloopOne的超级高铁推进系统首次户外测试成功，3米长的实验“滑车”在铺设好的轨道上运行了2秒钟，最终速度达到400英里每小时后（约合640公里/小时），撞击到91米外的沙堆减速停车。 2016年05月12日 11:58 5月深圳二手房全市放盘均价排行 7040 二手房的放盘价，虽然往往比成交价高10-20%，但放盘价反映的是卖方心理，价格高低、涨跌幅度反映的正是卖方强势还是弱势，因此广大置业者对此十分关心。近日，深圳链家市场研究中心将深圳划分成54个片区，选取1000余个典型二手楼盘，进行片区放盘 2016年05月12日 11:57 2016年物联网发展机遇分析 580 随着物联网进入实质发展和规模推进期，大企业争相布局物联网服务平台，积极推进行业应用解决方案，拓展行业应用领域，逐步实现规模扩张，如宜通世纪。 2016年05月12日 11:56 深圳700套保障房8年闲置无人居住 500 “为什么要让这么好的房子白白地空着这么多年？”日前，有网友发帖称，位于深圳宝安区西乡海城路旁边的坪洲新村小区，是政府保障性住房，2008年就竣工了，可是至今该小区还是处于空置状态。　　根据相关资料显示，坪洲新村总计分为一、二、三期开发，由宝... 2016年05月12日 11:54 2016年中国证券业发展报告：行业发展呈现六大特点 00 中国证券业协会（下称“中证协”）组织编撰的《中国证券业发展报告（2016）》（下称“白皮书”）日前出版发行。白皮书包括1篇总报告、7篇分报告和10篇专题报告，对去年证券行业发展的概况、特点、发展趋势等进行了全景式梳理。　　白皮书提出，与20... 2016年05月12日 11:53 2015年全国30省商品住宅房价收入比排行榜 750 据易居报告最新数据显示，2015年全国商品住宅房价收入比为7.2，其中北京房价收入比14.5，连续三年位列全国第一，成为全国购房难度最高的城市，内蒙古依旧位居最后一名，仅4.4。 2016年05月12日 11:53 CBNData：中国内地45岁+女性消费大数据报告 850 自从2013年“中国大妈”推动全球金价抢金潮以来，中国大妈的角色已经由人们传统印象中的广场舞大妈，转变为家庭可投资资产的支配人，掌握着社会大量资源。有钱有闲的中国大妈，其潜在消费能力和该人群的消费特征值得深入研究。 2016年05月12日 11:51 2016年中国传媒产业发展报告 630 2016年5月6日，由清华大学新闻与传播学院主办、社会科学文献出版社、中国新闻史学会传媒经济与管理学会合办的“第七届传媒发展论坛暨《中国传媒产业发展报告（2016）》发布会”在京举行。　　“传媒蓝皮书”连续十二年跟踪观察和系统研究中国传媒产... 2016年05月12日 11:42 没有更多文章了 TA的详细资料 返回&gt; 用户名 : 中商智业 性别 : 男 简介 : 中国领先的财经综合门户网站，依托中商产业研究院庞大的经济大数据库，每日独家发布大量各行业核心价格、产销、排名数据。 留言板 返回&gt; 我来说两句…… 还可输入120个字 发表 共有 条留言 沙发空缺中，快来抢~ 首页 上一页 下一页 尾页 共页 等级说明 返回&gt; 等级说明 等级 升级所需积分 专属身份标识 1级 初始等级 Lv 1. 2级 50 Lv 2. 3级 300 Lv 3. 4级 1500 Lv 4. 5级 4000 Lv 5. 6级 9000 Lv 6. 7级 20000 Lv 7. 8级 30000 Lv 8. 9级 50000 Lv 9. 升级积分获取规则 一：新手任务 任务名称 奖励积分 完善个人资料 30 专业人士认证 100 二：日常任务 任务名称 奖励积分 每日签到 5 发布1篇新文章 单篇10，每日上限50 文章获得评论 单篇10，每日上限50 获得搜狐首页推荐 100 获得搜狐频道首页或其他推广位推荐 50 三：周期任务 任务名称 奖励积分 连续签到7天 50 本月累计发布15篇文章 100 本月累计获得5次文章推荐 500 * 什么情况下积分会减少？ 如文章被举报或识别为违规文章（恶意灌水、广告、虚假信息、抄袭等），则双倍扣除该文章得分(20分)，且该文章所产生的相关加分也会清空，但不会额外扣分。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据英国《每日邮报》报道，今天，特斯拉创始人埃隆·马斯克的另一项疯狂计划——“超级高铁”就将进行首次测试了。这套系统是马斯克2013年首次提出的，方法是让乘客进入压力管道中，以近乎音速的时速运行，据说从洛杉矶到旧金山只要35分钟。 　　这次测试将在拉斯维加斯北部的工业园区完成，整个测试将持续两天。超级高铁的首席执行官劳埃德表示，这次测试将是该系统的首秀，人们将见识到超级高铁的无限潜能。“整个测试会在两英里长的试验管道中进行，在管道中，我们会让豆荚舱悬浮起来并最终将其加速至每小时700英里(约合1125千米每小时)。”北京到上海1250公里，按照这样的时速，北京到上海只要1小时。 　　“超级高铁”是一种远距离运输方式，可以让人以时速1200公里的速度旅行。实质上，它就是排出空气形成真空空间的长管道，它悬浮于地面之上，以便减小天气和地震对其影响。乘客可以选择单人舱或多人舱，然后在磁力作用下加速。可乘坐6到8人的车厢每隔30秒钟发车，车票大约为20美元。 　　建造从洛杉矶到旧金山的“超级高铁”估计需要160亿美元，而有的批评家认为那需要1000亿美元。马斯克表示，他个人没有建造这套系统的计划，但可提供“开源设计”，帮助其他人参与进来。 　　虽然超级高铁的设想来自马斯克，但他表示自己没有研发该系统的计划，不过“硅谷钢铁侠”会开源自己的设计，以便其他公司对其进行改进。在马斯克心里，超级高铁是“协和式飞机、轨道枪和气垫曲棍球台的结合。” 　　出生于南非的马斯克现在已经成了美国家喻户晓的一个传奇，他不但是PayPal的创始人，手上还握有特斯拉、SpaceX和SolarCity等创新公司。 　　美国超级高铁公司Hyperloop现场演示前改名 　　5月11日消息，据科技网站Engadget报道，总部位于美国洛杉矶的初创企业Hyperloop Technologies今天将对埃隆·马斯克(Elon Musk)提出“超级高铁”概念进行现场演示，在此之前，这家公司将名字改为Hyperloop One。据说新名字可以帮助该公司避免与竞争对手Hyperloop Transportation Technologies混淆。 　　一张图看懂埃隆·马斯克 </t>
+  </si>
+  <si>
+    <t>马斯克超级高铁首测 或引爆磁悬浮概念股-更新中 时间：2016年05月12日 08:32:26 中财网 [第01页] [第02页] [第03页] [第04页] [第05页] [第06页] [第07页] [第08页] [第09页]  [第10页] [第11页] [第12页] [第13页] [第14页]  　　正海磁材:政策利好行业发展,公司价值存在低估 　　类别：公司研究 机构：长江证券股份有限公司 研究员：王一川,葛军 日期：2016-02-25 　　报告要点 　　事件描述 　　正海磁材跟踪报告。 　　事件评论 　　政策加码,新能源汽车产业生态将显著优化。24日,李克强总理主持召开国务院常务会议,确定进一步支持新能源汽车产业的五大措施,其中包括建立车企监控体系,完善惩罚性赔偿和市场退出等机制,破除地方保护,打击"骗补"行为等政策。我们认为,随着合资车厂加大新能源汽车投入,国内产业准入门槛提高迫在眉睫。调查骗补、加强安全监控等政策的推进将带动产业的可持续健康发展。 　　优胜劣汰,上海大郡市场份额有望显著提升。我们认为,中国新能源汽车作为国家新兴战略产业,在发展初期存在一定"野蛮生长"的现象,部分企业重"量"轻"质"以获得高额补贴。监管政策细化后,行业生态的规范将加速优胜劣汰,优化竞争环境。上海大郡作为国内一线核心零部件厂商将充分受益高端新能源汽车的快速发展。其中,北汽新能源2016年计划生产6.5-8万辆,2020年实现产销50万辆;广汽传祺计划到2020年新能源汽车年销量将达到10-20万。上海大郡作为北汽、广汽主要的控制系统供应商,市场份额有望显著提升。 　　主营稳定,新能源车磁钢集中度提升。我们认为,由于近年来钕铁硼价格不断下跌,产品质量和成本控制将成为磁材厂商在竞争中脱颖而出的关键因素。新能源汽车用磁钢对性能和稳定性要求较高,行业集中度将显著提升。公司前期技术积累以及客户开拓方面成效显著,内部机制灵活成本控制力强,下游新能源汽车客户不断开拓,有望成为全球领先的钕铁硼生产厂商。 　　股权激励解锁在即,管理层经营活力有望得到充分激发。4月28日公司员工参与的股权激励将迎来第一个解锁期,解锁比例50%。我们认为,股权激励将充分激发管理层经营活力,提高经营效率。 　　投资建议:价值低估,维持"买入"评级。公司磁材业务平稳发展,新能源汽车政策加码将加速优胜劣汰,大郡市场份额有望显著提升。4月底公司将迎来第一次股权激励解锁,经营活力及外延预期大增。我们认为公司价值存在低估,当前时点配置价值较高。预计2015-2017年eps分别为0.32、0.49和0.68元,维持"买入"评级。 　　风险提示:钕铁硼价格大幅下跌,新能源汽车发展低于预期。 [第01页] [第02页] [第03页] [第04页] [第05页] [第06页] [第07页] [第08页] [第09页]  [第10页] [第11页] [第12页] [第13页] [第14页]  　 中财网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国初创公司“超回路１号”１０日宣布，将于１１日进行超级高铁的推进系统演示，并将在今年年内进行完整的全系统测试。     有望2020年前后载客     这种超级高铁的概念最初由特斯拉公司和太空探索技术公司首席执行官埃隆？马斯克在２０１３年提出。系统采用磁悬浮技术，搭载乘客或货物的形似胶囊的悬浮舱在近乎真空的管道中依靠电力运行，时速接近音速。     “超回路１号”公司在内华达州拉斯韦加斯市以北的沙漠中建造了一个测试场，１１日将进行“推进系统露天测试”。据该公司介绍，在即将进行的“超回路推进系统”非真空露天测试中，试验装置的运行时速约为６４３公里；未来在真空密封的管道中，其设计时速将超过１１００公里。有当地媒体报道，这种运输系统将采用磁悬浮技术，形似胶囊、运载客货的悬浮舱将在真空管道中依靠电力运行，速度接近音速（音速约为每秒３４０米）。     公司首席执行官罗布？劳埃德表示，如果１１日的测试取得成功，他们准备于２０１６年年底在３．２公里长的管道中对完整系统进行全速测试。这家公司的联合创始人布罗根？巴姆布罗根当天说：“相信我们会在未来４年完成技术准备，第一批乘客有望在２０２０年左右坐上功能完备的‘超回路’列车。”     最初或用于港口货运     劳埃德宣布，第一个超级高铁项目的应用方案将通过招标确定，公司、政府、研究机构甚至个人都可以提交方案，结果将在明年公布。     路透社报道认为，超级高铁最初可能应用于港口，代替卡车和火车在船舶和工厂间运送货物。     “超回路１号”公司表示，超级高铁运行在完全受控的环境中，坐起来“如电梯般平顺”。     公司还宣布，它已完成新一轮８０００万美元的融资，引进了包括法国国家铁路公司在内的一些新投资者。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +400,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,12 +443,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -217,6 +454,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,370 +745,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="159.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="159.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="88.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="85.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="162" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="93" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="144.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="45" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="99.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="99.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:2" ht="60" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:2" ht="257.25" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="192.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:2" ht="225" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="334.5" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="283.5" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="14" spans="1:2" ht="117" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="117" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:2" ht="50.25" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="50.25" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:2" ht="194.25" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="194.25" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:1" ht="93.75" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="93.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:1" ht="87.75" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="87.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:1" ht="151.5" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="224.25" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="20" spans="1:1" ht="89.45" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="72.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="305.25" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="22" spans="1:1" ht="198.75" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="409.5" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="23" spans="1:1" s="3" customFormat="1" ht="69" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="190.5" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="24" spans="1:1" s="3" customFormat="1" ht="192" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="285.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="25" spans="1:1" s="3" customFormat="1" ht="141" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="198.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+    <row r="26" spans="1:1" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="4" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="27" spans="1:1" s="3" customFormat="1" ht="175.5" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="4" customFormat="1" ht="192" customHeight="1">
-      <c r="A24" s="4" t="s">
+    <row r="28" spans="1:1" s="3" customFormat="1" ht="175.5" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="3" customFormat="1" ht="86.25" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="4" customFormat="1" ht="141" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row r="33" spans="1:1" s="3" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="34" spans="1:1" s="3" customFormat="1" ht="181.5" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="4" customFormat="1" ht="175.5" customHeight="1">
-      <c r="A27" s="4" t="s">
+    <row r="35" spans="1:1" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="4" customFormat="1" ht="175.5" customHeight="1">
-      <c r="A28" s="4" t="s">
+    <row r="36" spans="1:1" s="3" customFormat="1" ht="120" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="3" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="3" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="3" customFormat="1" ht="253.5" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="4" customFormat="1" ht="174" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="4" customFormat="1" ht="168" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="3" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="3" customFormat="1" ht="101.25" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A34" s="4" t="s">
+    <row r="44" spans="1:1" s="3" customFormat="1" ht="108.75" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A35" s="4" t="s">
+    <row r="45" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="4" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A36" s="4" t="s">
+    <row r="46" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A37" s="4" t="s">
+    <row r="47" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="3" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="3" customFormat="1" ht="102" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="4" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A38" s="4" t="s">
+    <row r="50" spans="1:1" s="3" customFormat="1" ht="114" customHeight="1">
+      <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="4" customFormat="1" ht="253.5" customHeight="1">
-      <c r="A39" s="4" t="s">
+    <row r="51" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="41" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="42" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="43" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="44" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="45" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="46" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="47" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="48" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="49" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="50" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="51" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="52" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="54" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="55" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="56" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="57" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="58" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="59" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="60" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="61" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="62" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="63" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="64" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="65" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="66" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="67" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="68" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="69" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="70" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="71" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="72" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="73" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="74" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="75" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="76" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="77" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="78" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="79" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="80" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="81" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="82" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="83" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="84" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="85" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="86" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="87" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="88" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="89" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="90" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="91" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="92" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="93" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="94" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="95" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="96" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="97" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="98" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="99" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="100" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="101" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="102" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="103" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="104" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="105" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="106" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="107" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="108" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="109" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="110" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="111" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="112" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="113" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="114" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="115" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="116" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="117" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="118" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="119" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="120" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="121" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="122" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="123" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="124" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="125" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="126" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="127" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="128" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="129" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="130" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="131" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="132" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="133" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="134" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="135" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="136" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="137" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="138" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="139" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="140" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="141" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="142" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="143" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="144" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="145" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="146" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="147" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="148" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="149" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="150" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="151" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="152" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="153" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="154" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="155" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="156" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="157" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="158" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="159" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="160" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="161" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="162" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="163" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="164" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="165" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="166" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="167" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="168" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="169" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="170" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="171" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="172" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="173" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="174" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="175" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="176" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="177" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="178" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="179" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="180" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="181" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="182" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="183" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="184" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="185" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="186" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="187" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="188" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="189" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="190" s="4" customFormat="1" ht="60" customHeight="1"/>
-    <row r="191" s="4" customFormat="1" ht="60" customHeight="1"/>
+    <row r="52" spans="1:1" s="3" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="3" customFormat="1" ht="166.5" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="3" customFormat="1" ht="220.5" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="3" customFormat="1" ht="115.5" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="3" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="3" customFormat="1" ht="114" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="3" customFormat="1" ht="114" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="3" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="4" customFormat="1" ht="150.75" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="3" customFormat="1" ht="177" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="3" customFormat="1" ht="117" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="3" customFormat="1" ht="90.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="3" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="3" customFormat="1" ht="156.75" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="3" customFormat="1" ht="167.25" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="81" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="82" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="83" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="84" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="85" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="86" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="87" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="88" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="89" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="90" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="91" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="92" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="93" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="94" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="95" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="96" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="97" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="98" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="99" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="100" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="101" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="102" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="103" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="104" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="105" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="106" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="107" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="108" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="109" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="110" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="111" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="112" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="113" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="114" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="115" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="116" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="117" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="118" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="119" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="120" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="121" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="122" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="123" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="124" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="125" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="126" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="127" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="128" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="129" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="130" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="131" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="132" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="133" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="134" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="135" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="136" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="137" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="138" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="139" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="140" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="141" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="142" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="143" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="144" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="145" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="146" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="147" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="148" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="149" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="150" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="151" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="152" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="153" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="154" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="155" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="156" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="157" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="158" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="159" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="160" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="161" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="162" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="163" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="164" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="165" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="166" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="167" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="168" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="169" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="170" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="171" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="172" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="173" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="174" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="175" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="176" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="177" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="178" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="179" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="180" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="181" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="182" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="183" s="3" customFormat="1" ht="60" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>